--- a/sfa.Tl.Marketing.Communication.DataLoad/Provider Data/Full Provider Data 2020 - 2021 (campaign site).xlsx
+++ b/sfa.Tl.Marketing.Communication.DataLoad/Provider Data/Full Provider Data 2020 - 2021 (campaign site).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SFA\tl-marketing-and-communication\sfa.Tl.Marketing.Communication.DataLoad\Provider Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCC0B89-76B9-4749-B4A1-F16A51BC6DFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E18084-B2FF-42C9-9C0C-2464098DA05A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2205,8 +2205,8 @@
   <dimension ref="A1:P608"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G422" sqref="A422:XFD424"/>
+      <pane ySplit="1" topLeftCell="A589" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L608" sqref="L608"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2592,7 +2592,7 @@
         <v>19</v>
       </c>
       <c r="O8" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>25</v>
@@ -10906,7 +10906,7 @@
         <v>19</v>
       </c>
       <c r="O182" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P182" s="3" t="s">
         <v>184</v>
@@ -24485,7 +24485,7 @@
         <v>19</v>
       </c>
       <c r="O469" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P469" s="3" t="s">
         <v>440</v>
@@ -24532,7 +24532,7 @@
         <v>19</v>
       </c>
       <c r="O470" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P470" s="3" t="s">
         <v>440</v>
@@ -28663,7 +28663,7 @@
         <v>19</v>
       </c>
       <c r="O557" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P557" s="3" t="s">
         <v>537</v>
@@ -30931,7 +30931,7 @@
         <v>19</v>
       </c>
       <c r="O605" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P605" s="3" t="s">
         <v>597</v>
@@ -31025,7 +31025,7 @@
         <v>19</v>
       </c>
       <c r="O607" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P607" s="3" t="s">
         <v>597</v>

--- a/sfa.Tl.Marketing.Communication.DataLoad/Provider Data/Full Provider Data 2020 - 2021 (campaign site).xlsx
+++ b/sfa.Tl.Marketing.Communication.DataLoad/Provider Data/Full Provider Data 2020 - 2021 (campaign site).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SFA\tl-marketing-and-communication\sfa.Tl.Marketing.Communication.DataLoad\Provider Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\esfa\tl-marketing-and-communication\sfa.Tl.Marketing.Communication.DataLoad\Provider Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830F4013-C3FD-4879-8993-90BA43F88CAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F498F123-111E-4628-9849-07863CE66D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32400" yWindow="1830" windowWidth="28515" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Provider Data 2020 - 2021" sheetId="1" r:id="rId1"/>
@@ -1836,22 +1836,26 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2201,22 +2205,22 @@
   </sheetPr>
   <dimension ref="A1:P608"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C160" sqref="C160"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A549" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O573" sqref="O573"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="44.33203125" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="34.86328125" customWidth="1"/>
+    <col min="3" max="3" width="10.53125" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" customWidth="1"/>
     <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="109.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2266,7 +2270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -2313,7 +2317,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -2360,7 +2364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -2407,7 +2411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -2454,7 +2458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -2501,7 +2505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -2548,7 +2552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -2595,7 +2599,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -2645,7 +2649,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -2695,7 +2699,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -2745,7 +2749,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -2792,7 +2796,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
@@ -2839,7 +2843,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -2886,7 +2890,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -2933,7 +2937,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -2980,7 +2984,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>42</v>
       </c>
@@ -3027,7 +3031,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
@@ -3074,7 +3078,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
@@ -3121,7 +3125,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
@@ -3168,7 +3172,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -3215,7 +3219,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
@@ -3262,7 +3266,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
@@ -3309,7 +3313,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -3356,7 +3360,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -3406,7 +3410,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
@@ -3456,7 +3460,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -3506,7 +3510,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
@@ -3556,7 +3560,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>52</v>
       </c>
@@ -3606,7 +3610,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>52</v>
       </c>
@@ -3656,7 +3660,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>52</v>
       </c>
@@ -3706,7 +3710,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>52</v>
       </c>
@@ -3756,7 +3760,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>52</v>
       </c>
@@ -3806,7 +3810,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>52</v>
       </c>
@@ -3856,7 +3860,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>52</v>
       </c>
@@ -3906,7 +3910,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>52</v>
       </c>
@@ -3956,7 +3960,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>52</v>
       </c>
@@ -4006,7 +4010,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>52</v>
       </c>
@@ -4056,7 +4060,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>52</v>
       </c>
@@ -4106,7 +4110,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>66</v>
       </c>
@@ -4153,7 +4157,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
@@ -4200,7 +4204,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
@@ -4247,7 +4251,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
@@ -4294,7 +4298,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>66</v>
       </c>
@@ -4341,7 +4345,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
@@ -4388,7 +4392,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
@@ -4435,7 +4439,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>70</v>
       </c>
@@ -4482,7 +4486,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>70</v>
       </c>
@@ -4529,7 +4533,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>74</v>
       </c>
@@ -4576,7 +4580,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>74</v>
       </c>
@@ -4623,7 +4627,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>74</v>
       </c>
@@ -4670,7 +4674,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>74</v>
       </c>
@@ -4717,7 +4721,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>74</v>
       </c>
@@ -4764,7 +4768,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>74</v>
       </c>
@@ -4811,7 +4815,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>74</v>
       </c>
@@ -4858,7 +4862,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>74</v>
       </c>
@@ -4905,7 +4909,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>74</v>
       </c>
@@ -4952,7 +4956,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>78</v>
       </c>
@@ -4999,7 +5003,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>78</v>
       </c>
@@ -5046,7 +5050,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>78</v>
       </c>
@@ -5093,7 +5097,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>78</v>
       </c>
@@ -5140,7 +5144,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>78</v>
       </c>
@@ -5187,7 +5191,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>78</v>
       </c>
@@ -5234,7 +5238,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>82</v>
       </c>
@@ -5281,7 +5285,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>82</v>
       </c>
@@ -5328,7 +5332,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>82</v>
       </c>
@@ -5375,7 +5379,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>82</v>
       </c>
@@ -5422,7 +5426,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>82</v>
       </c>
@@ -5469,7 +5473,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>82</v>
       </c>
@@ -5516,7 +5520,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>86</v>
       </c>
@@ -5563,7 +5567,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>86</v>
       </c>
@@ -5610,7 +5614,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>86</v>
       </c>
@@ -5657,7 +5661,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>86</v>
       </c>
@@ -5704,7 +5708,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>86</v>
       </c>
@@ -5751,7 +5755,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>86</v>
       </c>
@@ -5798,7 +5802,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>86</v>
       </c>
@@ -5845,7 +5849,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>86</v>
       </c>
@@ -5892,7 +5896,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>86</v>
       </c>
@@ -5939,7 +5943,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>86</v>
       </c>
@@ -5986,7 +5990,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>86</v>
       </c>
@@ -6033,7 +6037,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>86</v>
       </c>
@@ -6080,7 +6084,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>86</v>
       </c>
@@ -6127,7 +6131,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>86</v>
       </c>
@@ -6174,7 +6178,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>92</v>
       </c>
@@ -6221,7 +6225,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>96</v>
       </c>
@@ -6268,7 +6272,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>96</v>
       </c>
@@ -6315,7 +6319,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>96</v>
       </c>
@@ -6362,7 +6366,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>96</v>
       </c>
@@ -6409,7 +6413,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>96</v>
       </c>
@@ -6456,7 +6460,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>100</v>
       </c>
@@ -6503,7 +6507,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>100</v>
       </c>
@@ -6550,7 +6554,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>100</v>
       </c>
@@ -6597,7 +6601,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>100</v>
       </c>
@@ -6644,7 +6648,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>104</v>
       </c>
@@ -6691,7 +6695,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>104</v>
       </c>
@@ -6738,7 +6742,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>104</v>
       </c>
@@ -6785,7 +6789,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>104</v>
       </c>
@@ -6832,7 +6836,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>110</v>
       </c>
@@ -6879,7 +6883,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>110</v>
       </c>
@@ -6926,7 +6930,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>110</v>
       </c>
@@ -6973,7 +6977,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>110</v>
       </c>
@@ -7020,7 +7024,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>114</v>
       </c>
@@ -7067,7 +7071,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>114</v>
       </c>
@@ -7114,7 +7118,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>114</v>
       </c>
@@ -7161,7 +7165,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>114</v>
       </c>
@@ -7208,7 +7212,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>114</v>
       </c>
@@ -7255,7 +7259,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>114</v>
       </c>
@@ -7302,7 +7306,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>114</v>
       </c>
@@ -7349,7 +7353,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>114</v>
       </c>
@@ -7396,7 +7400,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>114</v>
       </c>
@@ -7443,7 +7447,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>114</v>
       </c>
@@ -7490,7 +7494,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>118</v>
       </c>
@@ -7540,7 +7544,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>118</v>
       </c>
@@ -7590,7 +7594,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>118</v>
       </c>
@@ -7640,7 +7644,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>118</v>
       </c>
@@ -7690,7 +7694,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>118</v>
       </c>
@@ -7740,7 +7744,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>118</v>
       </c>
@@ -7790,7 +7794,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>118</v>
       </c>
@@ -7840,7 +7844,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
@@ -7890,7 +7894,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>118</v>
       </c>
@@ -7940,7 +7944,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>127</v>
       </c>
@@ -7987,7 +7991,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>127</v>
       </c>
@@ -8034,7 +8038,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>127</v>
       </c>
@@ -8081,7 +8085,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>127</v>
       </c>
@@ -8128,7 +8132,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>127</v>
       </c>
@@ -8175,7 +8179,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>127</v>
       </c>
@@ -8222,7 +8226,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>127</v>
       </c>
@@ -8269,7 +8273,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
@@ -8316,7 +8320,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>131</v>
       </c>
@@ -8363,7 +8367,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>131</v>
       </c>
@@ -8410,7 +8414,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>131</v>
       </c>
@@ -8457,7 +8461,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
@@ -8504,7 +8508,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>131</v>
       </c>
@@ -8551,7 +8555,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>131</v>
       </c>
@@ -8598,7 +8602,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>131</v>
       </c>
@@ -8645,7 +8649,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>131</v>
       </c>
@@ -8692,7 +8696,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>131</v>
       </c>
@@ -8742,7 +8746,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>138</v>
       </c>
@@ -8790,7 +8794,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
@@ -8838,7 +8842,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>138</v>
       </c>
@@ -8886,7 +8890,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>138</v>
       </c>
@@ -8934,7 +8938,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>138</v>
       </c>
@@ -8981,7 +8985,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
@@ -9028,7 +9032,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>142</v>
       </c>
@@ -9075,7 +9079,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>142</v>
       </c>
@@ -9122,7 +9126,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>142</v>
       </c>
@@ -9169,7 +9173,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>142</v>
       </c>
@@ -9219,7 +9223,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>142</v>
       </c>
@@ -9269,7 +9273,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>142</v>
       </c>
@@ -9316,7 +9320,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>151</v>
       </c>
@@ -9363,7 +9367,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>151</v>
       </c>
@@ -9410,7 +9414,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>155</v>
       </c>
@@ -9457,7 +9461,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>155</v>
       </c>
@@ -9504,7 +9508,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>155</v>
       </c>
@@ -9551,7 +9555,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>155</v>
       </c>
@@ -9598,7 +9602,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
@@ -9645,7 +9649,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>155</v>
       </c>
@@ -9692,7 +9696,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>155</v>
       </c>
@@ -9739,7 +9743,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>155</v>
       </c>
@@ -9786,7 +9790,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>163</v>
       </c>
@@ -9833,7 +9837,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>166</v>
       </c>
@@ -9883,7 +9887,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>166</v>
       </c>
@@ -9933,7 +9937,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>166</v>
       </c>
@@ -9983,7 +9987,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>166</v>
       </c>
@@ -10033,7 +10037,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>166</v>
       </c>
@@ -10083,7 +10087,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>166</v>
       </c>
@@ -10133,7 +10137,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
@@ -10183,7 +10187,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>166</v>
       </c>
@@ -10233,7 +10237,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>166</v>
       </c>
@@ -10283,7 +10287,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>166</v>
       </c>
@@ -10333,7 +10337,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>166</v>
       </c>
@@ -10383,7 +10387,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>166</v>
       </c>
@@ -10433,7 +10437,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>166</v>
       </c>
@@ -10483,7 +10487,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>166</v>
       </c>
@@ -10533,7 +10537,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>175</v>
       </c>
@@ -10580,7 +10584,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
@@ -10627,7 +10631,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>175</v>
       </c>
@@ -10674,7 +10678,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>175</v>
       </c>
@@ -10721,7 +10725,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>175</v>
       </c>
@@ -10768,7 +10772,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>175</v>
       </c>
@@ -10815,7 +10819,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>175</v>
       </c>
@@ -10862,7 +10866,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>180</v>
       </c>
@@ -10909,7 +10913,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>180</v>
       </c>
@@ -10956,7 +10960,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>184</v>
       </c>
@@ -11003,7 +11007,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
@@ -11050,7 +11054,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>184</v>
       </c>
@@ -11097,7 +11101,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>184</v>
       </c>
@@ -11144,7 +11148,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>188</v>
       </c>
@@ -11191,7 +11195,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
@@ -11238,7 +11242,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>188</v>
       </c>
@@ -11285,7 +11289,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>188</v>
       </c>
@@ -11332,7 +11336,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>188</v>
       </c>
@@ -11379,7 +11383,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>188</v>
       </c>
@@ -11426,7 +11430,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>188</v>
       </c>
@@ -11473,7 +11477,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>196</v>
       </c>
@@ -11523,7 +11527,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>196</v>
       </c>
@@ -11573,7 +11577,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="197" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>196</v>
       </c>
@@ -11623,7 +11627,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>196</v>
       </c>
@@ -11673,7 +11677,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="199" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>196</v>
       </c>
@@ -11723,7 +11727,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>196</v>
       </c>
@@ -11773,7 +11777,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>196</v>
       </c>
@@ -11823,7 +11827,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>196</v>
       </c>
@@ -11873,7 +11877,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
         <v>196</v>
       </c>
@@ -11923,7 +11927,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>196</v>
       </c>
@@ -11973,7 +11977,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>218</v>
       </c>
@@ -12020,7 +12024,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>218</v>
       </c>
@@ -12067,7 +12071,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>218</v>
       </c>
@@ -12114,7 +12118,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
         <v>218</v>
       </c>
@@ -12161,7 +12165,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>218</v>
       </c>
@@ -12208,7 +12212,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>218</v>
       </c>
@@ -12255,7 +12259,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
         <v>218</v>
       </c>
@@ -12302,7 +12306,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>218</v>
       </c>
@@ -12349,7 +12353,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>218</v>
       </c>
@@ -12396,7 +12400,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>218</v>
       </c>
@@ -12443,7 +12447,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>218</v>
       </c>
@@ -12490,7 +12494,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>218</v>
       </c>
@@ -12537,7 +12541,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>218</v>
       </c>
@@ -12584,7 +12588,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>224</v>
       </c>
@@ -12631,7 +12635,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
         <v>224</v>
       </c>
@@ -12678,7 +12682,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>224</v>
       </c>
@@ -12725,7 +12729,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>224</v>
       </c>
@@ -12772,7 +12776,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>224</v>
       </c>
@@ -12819,7 +12823,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>224</v>
       </c>
@@ -12866,7 +12870,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>224</v>
       </c>
@@ -12913,7 +12917,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>224</v>
       </c>
@@ -12960,7 +12964,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>224</v>
       </c>
@@ -13007,7 +13011,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
         <v>228</v>
       </c>
@@ -13054,7 +13058,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
         <v>228</v>
       </c>
@@ -13101,7 +13105,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
         <v>228</v>
       </c>
@@ -13148,7 +13152,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>228</v>
       </c>
@@ -13195,7 +13199,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
         <v>228</v>
       </c>
@@ -13242,7 +13246,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
         <v>228</v>
       </c>
@@ -13289,7 +13293,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
         <v>228</v>
       </c>
@@ -13336,7 +13340,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>232</v>
       </c>
@@ -13383,7 +13387,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
         <v>232</v>
       </c>
@@ -13430,7 +13434,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
         <v>232</v>
       </c>
@@ -13477,7 +13481,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
         <v>232</v>
       </c>
@@ -13527,7 +13531,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
         <v>239</v>
       </c>
@@ -13574,7 +13578,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>239</v>
       </c>
@@ -13621,7 +13625,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="240" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
         <v>239</v>
       </c>
@@ -13668,7 +13672,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
         <v>239</v>
       </c>
@@ -13715,7 +13719,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
         <v>239</v>
       </c>
@@ -13762,7 +13766,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
         <v>243</v>
       </c>
@@ -13809,7 +13813,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
         <v>243</v>
       </c>
@@ -13856,7 +13860,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="245" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
         <v>243</v>
       </c>
@@ -13903,7 +13907,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="246" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
         <v>247</v>
       </c>
@@ -13950,7 +13954,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="247" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
         <v>247</v>
       </c>
@@ -13997,7 +14001,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
         <v>247</v>
       </c>
@@ -14044,7 +14048,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="249" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
         <v>247</v>
       </c>
@@ -14091,7 +14095,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="250" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
         <v>247</v>
       </c>
@@ -14141,7 +14145,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="251" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
         <v>255</v>
       </c>
@@ -14188,7 +14192,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
         <v>255</v>
       </c>
@@ -14235,7 +14239,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
         <v>255</v>
       </c>
@@ -14282,7 +14286,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
         <v>255</v>
       </c>
@@ -14329,7 +14333,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="255" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
         <v>255</v>
       </c>
@@ -14376,7 +14380,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="256" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
         <v>255</v>
       </c>
@@ -14423,7 +14427,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="257" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
         <v>255</v>
       </c>
@@ -14470,7 +14474,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="258" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
         <v>259</v>
       </c>
@@ -14517,7 +14521,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="259" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
         <v>259</v>
       </c>
@@ -14564,7 +14568,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="260" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
         <v>259</v>
       </c>
@@ -14611,7 +14615,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="261" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
         <v>259</v>
       </c>
@@ -14658,7 +14662,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
         <v>259</v>
       </c>
@@ -14705,7 +14709,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="263" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
         <v>259</v>
       </c>
@@ -14752,7 +14756,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
         <v>259</v>
       </c>
@@ -14799,7 +14803,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="265" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
         <v>263</v>
       </c>
@@ -14846,7 +14850,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
         <v>263</v>
       </c>
@@ -14893,7 +14897,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="267" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
         <v>263</v>
       </c>
@@ -14940,7 +14944,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
         <v>263</v>
       </c>
@@ -14987,7 +14991,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="269" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
         <v>263</v>
       </c>
@@ -15034,7 +15038,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="270" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
         <v>263</v>
       </c>
@@ -15081,7 +15085,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="271" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
         <v>263</v>
       </c>
@@ -15128,7 +15132,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="272" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
         <v>263</v>
       </c>
@@ -15175,7 +15179,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="273" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
         <v>263</v>
       </c>
@@ -15225,7 +15229,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="274" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
         <v>263</v>
       </c>
@@ -15275,7 +15279,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="275" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
         <v>263</v>
       </c>
@@ -15325,7 +15329,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="276" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
         <v>270</v>
       </c>
@@ -15375,7 +15379,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="277" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
         <v>270</v>
       </c>
@@ -15425,7 +15429,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="278" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
         <v>270</v>
       </c>
@@ -15475,7 +15479,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="279" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
         <v>270</v>
       </c>
@@ -15525,7 +15529,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="280" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
         <v>270</v>
       </c>
@@ -15575,7 +15579,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="281" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
         <v>280</v>
       </c>
@@ -15622,7 +15626,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="282" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
         <v>280</v>
       </c>
@@ -15669,7 +15673,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="283" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
         <v>280</v>
       </c>
@@ -15716,7 +15720,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="284" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
         <v>280</v>
       </c>
@@ -15763,7 +15767,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
         <v>280</v>
       </c>
@@ -15810,7 +15814,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="286" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
         <v>280</v>
       </c>
@@ -15857,7 +15861,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="287" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
         <v>287</v>
       </c>
@@ -15907,7 +15911,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="288" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
         <v>287</v>
       </c>
@@ -15957,7 +15961,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="289" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
         <v>287</v>
       </c>
@@ -16007,7 +16011,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="290" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
         <v>287</v>
       </c>
@@ -16057,7 +16061,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="291" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
         <v>299</v>
       </c>
@@ -16104,7 +16108,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="292" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
         <v>299</v>
       </c>
@@ -16151,7 +16155,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="293" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
         <v>299</v>
       </c>
@@ -16198,7 +16202,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="294" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
         <v>299</v>
       </c>
@@ -16245,7 +16249,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="295" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
         <v>299</v>
       </c>
@@ -16292,7 +16296,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="296" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
         <v>299</v>
       </c>
@@ -16339,7 +16343,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="297" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
         <v>304</v>
       </c>
@@ -16386,7 +16390,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="298" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
         <v>304</v>
       </c>
@@ -16433,7 +16437,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="299" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
         <v>304</v>
       </c>
@@ -16480,7 +16484,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="300" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
         <v>304</v>
       </c>
@@ -16527,7 +16531,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="301" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
         <v>308</v>
       </c>
@@ -16574,7 +16578,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="302" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
         <v>308</v>
       </c>
@@ -16621,7 +16625,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="303" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
         <v>312</v>
       </c>
@@ -16668,7 +16672,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="304" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
         <v>312</v>
       </c>
@@ -16715,7 +16719,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="305" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
         <v>312</v>
       </c>
@@ -16762,7 +16766,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="306" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
         <v>316</v>
       </c>
@@ -16809,7 +16813,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="307" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
         <v>316</v>
       </c>
@@ -16856,7 +16860,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="308" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
         <v>316</v>
       </c>
@@ -16903,7 +16907,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="309" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
         <v>316</v>
       </c>
@@ -16950,7 +16954,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="310" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
         <v>316</v>
       </c>
@@ -16997,7 +17001,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="311" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
         <v>316</v>
       </c>
@@ -17044,7 +17048,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="312" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
         <v>316</v>
       </c>
@@ -17091,7 +17095,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="313" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A313" s="2" t="s">
         <v>316</v>
       </c>
@@ -17138,7 +17142,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="314" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A314" s="2" t="s">
         <v>316</v>
       </c>
@@ -17185,7 +17189,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="315" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
         <v>320</v>
       </c>
@@ -17232,7 +17236,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="316" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A316" s="2" t="s">
         <v>320</v>
       </c>
@@ -17279,7 +17283,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="317" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A317" s="2" t="s">
         <v>320</v>
       </c>
@@ -17326,7 +17330,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="318" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A318" s="2" t="s">
         <v>320</v>
       </c>
@@ -17373,7 +17377,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="319" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A319" s="2" t="s">
         <v>320</v>
       </c>
@@ -17420,7 +17424,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="320" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A320" s="2" t="s">
         <v>326</v>
       </c>
@@ -17467,7 +17471,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="321" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A321" s="2" t="s">
         <v>326</v>
       </c>
@@ -17514,7 +17518,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="322" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A322" s="2" t="s">
         <v>326</v>
       </c>
@@ -17561,7 +17565,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="323" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A323" s="2" t="s">
         <v>326</v>
       </c>
@@ -17608,7 +17612,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="324" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A324" s="2" t="s">
         <v>326</v>
       </c>
@@ -17655,7 +17659,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="325" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A325" s="2" t="s">
         <v>326</v>
       </c>
@@ -17702,7 +17706,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="326" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A326" s="2" t="s">
         <v>326</v>
       </c>
@@ -17749,7 +17753,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="327" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A327" s="2" t="s">
         <v>326</v>
       </c>
@@ -17796,7 +17800,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="328" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A328" s="2" t="s">
         <v>326</v>
       </c>
@@ -17843,7 +17847,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="329" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A329" s="2" t="s">
         <v>326</v>
       </c>
@@ -17890,7 +17894,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="330" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A330" s="2" t="s">
         <v>326</v>
       </c>
@@ -17937,7 +17941,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A331" s="2" t="s">
         <v>333</v>
       </c>
@@ -17984,7 +17988,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="332" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A332" s="2" t="s">
         <v>337</v>
       </c>
@@ -18031,7 +18035,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="333" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A333" s="2" t="s">
         <v>337</v>
       </c>
@@ -18078,7 +18082,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="334" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A334" s="2" t="s">
         <v>337</v>
       </c>
@@ -18125,7 +18129,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="335" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A335" s="2" t="s">
         <v>337</v>
       </c>
@@ -18172,7 +18176,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="336" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A336" s="2" t="s">
         <v>337</v>
       </c>
@@ -18219,7 +18223,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="337" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A337" s="2" t="s">
         <v>337</v>
       </c>
@@ -18266,7 +18270,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="338" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A338" s="2" t="s">
         <v>341</v>
       </c>
@@ -18313,7 +18317,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="339" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A339" s="2" t="s">
         <v>341</v>
       </c>
@@ -18360,7 +18364,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="340" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A340" s="2" t="s">
         <v>341</v>
       </c>
@@ -18407,7 +18411,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A341" s="2" t="s">
         <v>341</v>
       </c>
@@ -18454,7 +18458,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A342" s="2" t="s">
         <v>341</v>
       </c>
@@ -18501,7 +18505,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A343" s="2" t="s">
         <v>341</v>
       </c>
@@ -18548,7 +18552,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="344" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A344" s="2" t="s">
         <v>341</v>
       </c>
@@ -18595,7 +18599,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A345" s="2" t="s">
         <v>341</v>
       </c>
@@ -18642,7 +18646,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="346" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A346" s="2" t="s">
         <v>341</v>
       </c>
@@ -18689,7 +18693,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="347" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A347" s="2" t="s">
         <v>344</v>
       </c>
@@ -18736,7 +18740,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A348" s="2" t="s">
         <v>344</v>
       </c>
@@ -18783,7 +18787,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A349" s="2" t="s">
         <v>344</v>
       </c>
@@ -18830,7 +18834,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="350" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A350" s="2" t="s">
         <v>344</v>
       </c>
@@ -18877,7 +18881,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="351" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A351" s="2" t="s">
         <v>344</v>
       </c>
@@ -18924,7 +18928,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="352" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A352" s="2" t="s">
         <v>344</v>
       </c>
@@ -18971,7 +18975,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="353" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A353" s="2" t="s">
         <v>344</v>
       </c>
@@ -19018,7 +19022,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="354" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A354" s="2" t="s">
         <v>344</v>
       </c>
@@ -19065,7 +19069,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A355" s="2" t="s">
         <v>344</v>
       </c>
@@ -19112,7 +19116,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="356" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A356" s="2" t="s">
         <v>344</v>
       </c>
@@ -19159,7 +19163,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="357" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A357" s="2" t="s">
         <v>348</v>
       </c>
@@ -19206,7 +19210,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="358" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A358" s="2" t="s">
         <v>348</v>
       </c>
@@ -19253,7 +19257,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="359" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A359" s="2" t="s">
         <v>352</v>
       </c>
@@ -19300,7 +19304,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="360" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A360" s="2" t="s">
         <v>352</v>
       </c>
@@ -19347,7 +19351,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="361" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A361" s="2" t="s">
         <v>352</v>
       </c>
@@ -19394,7 +19398,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="362" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A362" s="2" t="s">
         <v>352</v>
       </c>
@@ -19441,7 +19445,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="363" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A363" s="2" t="s">
         <v>352</v>
       </c>
@@ -19488,7 +19492,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="364" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A364" s="2" t="s">
         <v>356</v>
       </c>
@@ -19535,7 +19539,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="365" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A365" s="2" t="s">
         <v>356</v>
       </c>
@@ -19582,7 +19586,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="366" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A366" s="2" t="s">
         <v>356</v>
       </c>
@@ -19629,7 +19633,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="367" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A367" s="2" t="s">
         <v>360</v>
       </c>
@@ -19676,7 +19680,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="368" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A368" s="2" t="s">
         <v>360</v>
       </c>
@@ -19723,7 +19727,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="369" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A369" s="2" t="s">
         <v>360</v>
       </c>
@@ -19770,7 +19774,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="370" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A370" s="2" t="s">
         <v>360</v>
       </c>
@@ -19817,7 +19821,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="371" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A371" s="2" t="s">
         <v>360</v>
       </c>
@@ -19864,7 +19868,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="372" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A372" s="2" t="s">
         <v>360</v>
       </c>
@@ -19914,7 +19918,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="373" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A373" s="2" t="s">
         <v>360</v>
       </c>
@@ -19964,7 +19968,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="374" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A374" s="2" t="s">
         <v>360</v>
       </c>
@@ -20014,7 +20018,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="375" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A375" s="2" t="s">
         <v>360</v>
       </c>
@@ -20064,7 +20068,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="376" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A376" s="2" t="s">
         <v>368</v>
       </c>
@@ -20111,7 +20115,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="377" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A377" s="2" t="s">
         <v>368</v>
       </c>
@@ -20158,7 +20162,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="378" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A378" s="2" t="s">
         <v>374</v>
       </c>
@@ -20205,7 +20209,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="379" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A379" s="2" t="s">
         <v>374</v>
       </c>
@@ -20252,7 +20256,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="380" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A380" s="2" t="s">
         <v>374</v>
       </c>
@@ -20299,7 +20303,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="381" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A381" s="2" t="s">
         <v>374</v>
       </c>
@@ -20346,7 +20350,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="382" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A382" s="2" t="s">
         <v>374</v>
       </c>
@@ -20393,7 +20397,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="383" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A383" s="2" t="s">
         <v>374</v>
       </c>
@@ -20440,7 +20444,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="384" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A384" s="2" t="s">
         <v>374</v>
       </c>
@@ -20487,7 +20491,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="385" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A385" s="2" t="s">
         <v>377</v>
       </c>
@@ -20534,7 +20538,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="386" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A386" s="2" t="s">
         <v>377</v>
       </c>
@@ -20581,7 +20585,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="387" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A387" s="2" t="s">
         <v>377</v>
       </c>
@@ -20628,7 +20632,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="388" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A388" s="2" t="s">
         <v>377</v>
       </c>
@@ -20675,7 +20679,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="389" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A389" s="2" t="s">
         <v>377</v>
       </c>
@@ -20722,7 +20726,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="390" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A390" s="2" t="s">
         <v>381</v>
       </c>
@@ -20772,7 +20776,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="391" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A391" s="2" t="s">
         <v>381</v>
       </c>
@@ -20822,7 +20826,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="392" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A392" s="2" t="s">
         <v>389</v>
       </c>
@@ -20869,7 +20873,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="393" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A393" s="2" t="s">
         <v>389</v>
       </c>
@@ -20916,7 +20920,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A394" s="2" t="s">
         <v>389</v>
       </c>
@@ -20963,7 +20967,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="395" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A395" s="2" t="s">
         <v>389</v>
       </c>
@@ -21010,7 +21014,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="396" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A396" s="2" t="s">
         <v>389</v>
       </c>
@@ -21057,7 +21061,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="397" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A397" s="2" t="s">
         <v>389</v>
       </c>
@@ -21104,7 +21108,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="398" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A398" s="2" t="s">
         <v>394</v>
       </c>
@@ -21151,7 +21155,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="399" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A399" s="2" t="s">
         <v>394</v>
       </c>
@@ -21198,7 +21202,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="400" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A400" s="2" t="s">
         <v>397</v>
       </c>
@@ -21245,7 +21249,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="401" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A401" s="2" t="s">
         <v>397</v>
       </c>
@@ -21292,7 +21296,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="402" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A402" s="2" t="s">
         <v>399</v>
       </c>
@@ -21339,7 +21343,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="403" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A403" s="2" t="s">
         <v>399</v>
       </c>
@@ -21386,7 +21390,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A404" s="2" t="s">
         <v>399</v>
       </c>
@@ -21433,7 +21437,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="405" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A405" s="2" t="s">
         <v>399</v>
       </c>
@@ -21480,7 +21484,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="406" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A406" s="2" t="s">
         <v>399</v>
       </c>
@@ -21527,7 +21531,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="407" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A407" s="2" t="s">
         <v>399</v>
       </c>
@@ -21574,7 +21578,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="408" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A408" s="2" t="s">
         <v>399</v>
       </c>
@@ -21621,7 +21625,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="409" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A409" s="2" t="s">
         <v>399</v>
       </c>
@@ -21668,7 +21672,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="410" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A410" s="2" t="s">
         <v>399</v>
       </c>
@@ -21715,7 +21719,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="411" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A411" s="2" t="s">
         <v>399</v>
       </c>
@@ -21762,7 +21766,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="412" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A412" s="2" t="s">
         <v>404</v>
       </c>
@@ -21809,7 +21813,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="413" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A413" s="2" t="s">
         <v>404</v>
       </c>
@@ -21856,7 +21860,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="414" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A414" s="2" t="s">
         <v>404</v>
       </c>
@@ -21903,7 +21907,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="415" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A415" s="2" t="s">
         <v>404</v>
       </c>
@@ -21950,7 +21954,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A416" s="2" t="s">
         <v>404</v>
       </c>
@@ -21997,7 +22001,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="417" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A417" s="2" t="s">
         <v>404</v>
       </c>
@@ -22044,7 +22048,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="418" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A418" s="2" t="s">
         <v>404</v>
       </c>
@@ -22091,7 +22095,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="419" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A419" s="2" t="s">
         <v>404</v>
       </c>
@@ -22138,7 +22142,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="420" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A420" s="2" t="s">
         <v>404</v>
       </c>
@@ -22185,7 +22189,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="421" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A421" s="2" t="s">
         <v>404</v>
       </c>
@@ -22232,7 +22236,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="422" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A422" s="2" t="s">
         <v>408</v>
       </c>
@@ -22279,7 +22283,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="423" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A423" s="2" t="s">
         <v>408</v>
       </c>
@@ -22326,7 +22330,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="424" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A424" s="2" t="s">
         <v>408</v>
       </c>
@@ -22373,7 +22377,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="425" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A425" s="2" t="s">
         <v>410</v>
       </c>
@@ -22420,7 +22424,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="426" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A426" s="2" t="s">
         <v>410</v>
       </c>
@@ -22467,7 +22471,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="427" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A427" s="2" t="s">
         <v>410</v>
       </c>
@@ -22514,7 +22518,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="428" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A428" s="2" t="s">
         <v>414</v>
       </c>
@@ -22561,7 +22565,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="429" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A429" s="2" t="s">
         <v>418</v>
       </c>
@@ -22608,7 +22612,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="430" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A430" s="2" t="s">
         <v>418</v>
       </c>
@@ -22655,7 +22659,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="431" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A431" s="2" t="s">
         <v>418</v>
       </c>
@@ -22702,7 +22706,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="432" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A432" s="2" t="s">
         <v>418</v>
       </c>
@@ -22749,7 +22753,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="433" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A433" s="2" t="s">
         <v>418</v>
       </c>
@@ -22796,7 +22800,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="434" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A434" s="2" t="s">
         <v>418</v>
       </c>
@@ -22843,7 +22847,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="435" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A435" s="2" t="s">
         <v>418</v>
       </c>
@@ -22890,7 +22894,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="436" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A436" s="2" t="s">
         <v>418</v>
       </c>
@@ -22937,7 +22941,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="437" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A437" s="2" t="s">
         <v>418</v>
       </c>
@@ -22984,7 +22988,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="438" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A438" s="2" t="s">
         <v>418</v>
       </c>
@@ -23031,7 +23035,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="439" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A439" s="2" t="s">
         <v>418</v>
       </c>
@@ -23078,7 +23082,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="440" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A440" s="2" t="s">
         <v>418</v>
       </c>
@@ -23125,7 +23129,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="441" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A441" s="2" t="s">
         <v>418</v>
       </c>
@@ -23172,7 +23176,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="442" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A442" s="2" t="s">
         <v>418</v>
       </c>
@@ -23219,7 +23223,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="443" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A443" s="2" t="s">
         <v>418</v>
       </c>
@@ -23266,7 +23270,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="444" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A444" s="2" t="s">
         <v>418</v>
       </c>
@@ -23313,7 +23317,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="445" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A445" s="2" t="s">
         <v>418</v>
       </c>
@@ -23360,7 +23364,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="446" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A446" s="2" t="s">
         <v>418</v>
       </c>
@@ -23407,7 +23411,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="447" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A447" s="2" t="s">
         <v>418</v>
       </c>
@@ -23454,7 +23458,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="448" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A448" s="2" t="s">
         <v>418</v>
       </c>
@@ -23501,7 +23505,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="449" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A449" s="2" t="s">
         <v>418</v>
       </c>
@@ -23548,7 +23552,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="450" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A450" s="2" t="s">
         <v>418</v>
       </c>
@@ -23595,7 +23599,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="451" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A451" s="2" t="s">
         <v>418</v>
       </c>
@@ -23642,7 +23646,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="452" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A452" s="2" t="s">
         <v>418</v>
       </c>
@@ -23689,7 +23693,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="453" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A453" s="2" t="s">
         <v>418</v>
       </c>
@@ -23736,7 +23740,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="454" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A454" s="2" t="s">
         <v>418</v>
       </c>
@@ -23783,7 +23787,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="455" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A455" s="2" t="s">
         <v>418</v>
       </c>
@@ -23830,7 +23834,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="456" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A456" s="2" t="s">
         <v>425</v>
       </c>
@@ -23877,7 +23881,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="457" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A457" s="2" t="s">
         <v>425</v>
       </c>
@@ -23924,7 +23928,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="458" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A458" s="2" t="s">
         <v>425</v>
       </c>
@@ -23971,7 +23975,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="459" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A459" s="2" t="s">
         <v>428</v>
       </c>
@@ -24018,7 +24022,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="460" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A460" s="2" t="s">
         <v>428</v>
       </c>
@@ -24065,7 +24069,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="461" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A461" s="2" t="s">
         <v>428</v>
       </c>
@@ -24112,7 +24116,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="462" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A462" s="2" t="s">
         <v>428</v>
       </c>
@@ -24159,7 +24163,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="463" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A463" s="2" t="s">
         <v>432</v>
       </c>
@@ -24206,7 +24210,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="464" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A464" s="2" t="s">
         <v>432</v>
       </c>
@@ -24253,7 +24257,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="465" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A465" s="2" t="s">
         <v>432</v>
       </c>
@@ -24300,7 +24304,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="466" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A466" s="2" t="s">
         <v>432</v>
       </c>
@@ -24347,7 +24351,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="467" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A467" s="2" t="s">
         <v>432</v>
       </c>
@@ -24394,7 +24398,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="468" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A468" s="2" t="s">
         <v>432</v>
       </c>
@@ -24441,7 +24445,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="469" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A469" s="2" t="s">
         <v>436</v>
       </c>
@@ -24488,7 +24492,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="470" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A470" s="2" t="s">
         <v>436</v>
       </c>
@@ -24535,7 +24539,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="471" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A471" s="2" t="s">
         <v>440</v>
       </c>
@@ -24576,13 +24580,13 @@
         <v>19</v>
       </c>
       <c r="O471" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P471" s="3" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="472" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A472" s="2" t="s">
         <v>440</v>
       </c>
@@ -24629,7 +24633,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="473" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A473" s="2" t="s">
         <v>444</v>
       </c>
@@ -24676,7 +24680,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="474" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A474" s="2" t="s">
         <v>444</v>
       </c>
@@ -24723,7 +24727,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="475" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A475" s="2" t="s">
         <v>444</v>
       </c>
@@ -24770,7 +24774,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="476" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A476" s="2" t="s">
         <v>444</v>
       </c>
@@ -24817,7 +24821,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="477" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A477" s="2" t="s">
         <v>447</v>
       </c>
@@ -24864,7 +24868,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="478" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A478" s="2" t="s">
         <v>447</v>
       </c>
@@ -24911,7 +24915,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="479" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A479" s="2" t="s">
         <v>447</v>
       </c>
@@ -24958,7 +24962,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="480" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A480" s="2" t="s">
         <v>447</v>
       </c>
@@ -25005,7 +25009,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="481" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A481" s="2" t="s">
         <v>450</v>
       </c>
@@ -25055,7 +25059,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="482" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A482" s="2" t="s">
         <v>450</v>
       </c>
@@ -25105,7 +25109,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="483" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A483" s="2" t="s">
         <v>457</v>
       </c>
@@ -25152,7 +25156,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="484" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A484" s="2" t="s">
         <v>457</v>
       </c>
@@ -25199,7 +25203,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="485" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A485" s="2" t="s">
         <v>457</v>
       </c>
@@ -25246,7 +25250,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="486" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A486" s="2" t="s">
         <v>457</v>
       </c>
@@ -25293,7 +25297,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="487" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A487" s="2" t="s">
         <v>457</v>
       </c>
@@ -25340,7 +25344,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="488" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A488" s="2" t="s">
         <v>457</v>
       </c>
@@ -25387,7 +25391,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="489" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A489" s="2" t="s">
         <v>461</v>
       </c>
@@ -25434,7 +25438,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="490" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A490" s="2" t="s">
         <v>465</v>
       </c>
@@ -25481,7 +25485,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="491" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A491" s="2" t="s">
         <v>465</v>
       </c>
@@ -25528,7 +25532,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="492" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A492" s="2" t="s">
         <v>465</v>
       </c>
@@ -25575,7 +25579,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="493" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A493" s="2" t="s">
         <v>465</v>
       </c>
@@ -25622,7 +25626,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="494" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A494" s="2" t="s">
         <v>465</v>
       </c>
@@ -25669,7 +25673,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="495" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A495" s="2" t="s">
         <v>465</v>
       </c>
@@ -25716,7 +25720,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="496" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A496" s="2" t="s">
         <v>465</v>
       </c>
@@ -25763,7 +25767,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="497" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A497" s="2" t="s">
         <v>465</v>
       </c>
@@ -25810,7 +25814,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="498" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A498" s="2" t="s">
         <v>469</v>
       </c>
@@ -25857,7 +25861,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="499" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A499" s="2" t="s">
         <v>469</v>
       </c>
@@ -25904,7 +25908,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="500" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A500" s="2" t="s">
         <v>469</v>
       </c>
@@ -25951,7 +25955,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="501" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A501" s="2" t="s">
         <v>469</v>
       </c>
@@ -25998,7 +26002,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="502" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A502" s="2" t="s">
         <v>476</v>
       </c>
@@ -26045,7 +26049,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="503" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A503" s="2" t="s">
         <v>476</v>
       </c>
@@ -26092,7 +26096,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="504" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A504" s="2" t="s">
         <v>476</v>
       </c>
@@ -26139,7 +26143,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="505" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A505" s="2" t="s">
         <v>476</v>
       </c>
@@ -26186,7 +26190,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="506" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A506" s="2" t="s">
         <v>476</v>
       </c>
@@ -26233,7 +26237,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="507" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A507" s="2" t="s">
         <v>480</v>
       </c>
@@ -26280,7 +26284,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="508" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A508" s="2" t="s">
         <v>480</v>
       </c>
@@ -26327,7 +26331,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="509" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A509" s="2" t="s">
         <v>483</v>
       </c>
@@ -26374,7 +26378,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="510" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A510" s="2" t="s">
         <v>483</v>
       </c>
@@ -26421,7 +26425,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="511" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A511" s="2" t="s">
         <v>483</v>
       </c>
@@ -26468,7 +26472,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="512" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A512" s="2" t="s">
         <v>483</v>
       </c>
@@ -26515,7 +26519,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="513" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A513" s="2" t="s">
         <v>483</v>
       </c>
@@ -26562,7 +26566,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="514" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A514" s="2" t="s">
         <v>483</v>
       </c>
@@ -26609,7 +26613,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="515" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A515" s="2" t="s">
         <v>483</v>
       </c>
@@ -26656,7 +26660,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="516" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A516" s="2" t="s">
         <v>487</v>
       </c>
@@ -26703,7 +26707,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="517" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A517" s="2" t="s">
         <v>487</v>
       </c>
@@ -26750,7 +26754,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="518" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A518" s="2" t="s">
         <v>487</v>
       </c>
@@ -26797,7 +26801,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="519" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A519" s="2" t="s">
         <v>487</v>
       </c>
@@ -26844,7 +26848,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="520" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A520" s="2" t="s">
         <v>487</v>
       </c>
@@ -26891,7 +26895,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="521" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A521" s="2" t="s">
         <v>487</v>
       </c>
@@ -26938,7 +26942,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="522" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A522" s="2" t="s">
         <v>487</v>
       </c>
@@ -26985,7 +26989,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="523" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A523" s="2" t="s">
         <v>487</v>
       </c>
@@ -27032,7 +27036,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="524" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A524" s="2" t="s">
         <v>487</v>
       </c>
@@ -27079,7 +27083,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="525" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A525" s="2" t="s">
         <v>487</v>
       </c>
@@ -27126,7 +27130,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="526" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A526" s="2" t="s">
         <v>492</v>
       </c>
@@ -27173,7 +27177,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="527" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A527" s="2" t="s">
         <v>492</v>
       </c>
@@ -27220,7 +27224,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="528" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A528" s="2" t="s">
         <v>496</v>
       </c>
@@ -27267,7 +27271,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="529" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A529" s="2" t="s">
         <v>496</v>
       </c>
@@ -27314,7 +27318,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="530" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A530" s="2" t="s">
         <v>496</v>
       </c>
@@ -27361,7 +27365,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="531" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A531" s="2" t="s">
         <v>496</v>
       </c>
@@ -27408,7 +27412,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="532" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A532" s="2" t="s">
         <v>502</v>
       </c>
@@ -27455,7 +27459,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="533" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A533" s="2" t="s">
         <v>502</v>
       </c>
@@ -27502,7 +27506,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="534" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A534" s="2" t="s">
         <v>506</v>
       </c>
@@ -27552,7 +27556,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="535" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A535" s="2" t="s">
         <v>506</v>
       </c>
@@ -27602,7 +27606,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="536" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A536" s="2" t="s">
         <v>506</v>
       </c>
@@ -27652,7 +27656,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="537" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A537" s="2" t="s">
         <v>506</v>
       </c>
@@ -27702,7 +27706,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="538" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A538" s="2" t="s">
         <v>506</v>
       </c>
@@ -27752,7 +27756,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="539" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A539" s="2" t="s">
         <v>506</v>
       </c>
@@ -27802,7 +27806,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="540" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A540" s="2" t="s">
         <v>506</v>
       </c>
@@ -27852,7 +27856,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="541" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A541" s="2" t="s">
         <v>506</v>
       </c>
@@ -27902,7 +27906,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="542" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A542" s="2" t="s">
         <v>517</v>
       </c>
@@ -27949,7 +27953,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="543" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A543" s="2" t="s">
         <v>517</v>
       </c>
@@ -27996,7 +28000,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="544" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A544" s="2" t="s">
         <v>521</v>
       </c>
@@ -28046,7 +28050,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="545" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A545" s="2" t="s">
         <v>521</v>
       </c>
@@ -28096,7 +28100,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="546" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A546" s="2" t="s">
         <v>521</v>
       </c>
@@ -28146,7 +28150,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="547" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A547" s="2" t="s">
         <v>521</v>
       </c>
@@ -28196,7 +28200,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="548" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A548" s="2" t="s">
         <v>530</v>
       </c>
@@ -28243,7 +28247,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="549" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A549" s="2" t="s">
         <v>530</v>
       </c>
@@ -28290,7 +28294,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="550" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A550" s="2" t="s">
         <v>530</v>
       </c>
@@ -28337,7 +28341,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="551" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A551" s="2" t="s">
         <v>530</v>
       </c>
@@ -28384,7 +28388,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="552" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A552" s="2" t="s">
         <v>530</v>
       </c>
@@ -28431,7 +28435,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="553" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A553" s="2" t="s">
         <v>530</v>
       </c>
@@ -28478,7 +28482,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="554" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A554" s="2" t="s">
         <v>530</v>
       </c>
@@ -28525,7 +28529,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="555" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A555" s="2" t="s">
         <v>530</v>
       </c>
@@ -28572,7 +28576,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="556" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A556" s="2" t="s">
         <v>530</v>
       </c>
@@ -28619,7 +28623,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="557" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A557" s="2" t="s">
         <v>534</v>
       </c>
@@ -28666,7 +28670,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="558" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A558" s="2" t="s">
         <v>534</v>
       </c>
@@ -28713,7 +28717,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="559" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A559" s="2" t="s">
         <v>537</v>
       </c>
@@ -28760,7 +28764,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="560" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A560" s="2" t="s">
         <v>541</v>
       </c>
@@ -28807,7 +28811,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="561" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A561" s="2" t="s">
         <v>541</v>
       </c>
@@ -28854,7 +28858,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="562" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A562" s="2" t="s">
         <v>541</v>
       </c>
@@ -28901,7 +28905,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="563" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A563" s="2" t="s">
         <v>545</v>
       </c>
@@ -28948,7 +28952,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="564" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A564" s="2" t="s">
         <v>545</v>
       </c>
@@ -28995,7 +28999,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="565" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A565" s="2" t="s">
         <v>545</v>
       </c>
@@ -29042,7 +29046,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="566" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A566" s="2" t="s">
         <v>545</v>
       </c>
@@ -29089,7 +29093,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="567" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A567" s="2" t="s">
         <v>545</v>
       </c>
@@ -29136,7 +29140,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="568" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A568" s="2" t="s">
         <v>545</v>
       </c>
@@ -29183,7 +29187,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="569" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A569" s="2" t="s">
         <v>545</v>
       </c>
@@ -29230,7 +29234,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="570" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A570" s="2" t="s">
         <v>545</v>
       </c>
@@ -29277,7 +29281,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="571" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A571" s="2" t="s">
         <v>545</v>
       </c>
@@ -29324,7 +29328,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="572" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A572" s="2" t="s">
         <v>550</v>
       </c>
@@ -29371,7 +29375,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="573" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A573" s="2" t="s">
         <v>550</v>
       </c>
@@ -29412,13 +29416,13 @@
         <v>19</v>
       </c>
       <c r="O573" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P573" s="3" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="574" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A574" s="2" t="s">
         <v>553</v>
       </c>
@@ -29468,7 +29472,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="575" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A575" s="2" t="s">
         <v>553</v>
       </c>
@@ -29518,7 +29522,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="576" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A576" s="2" t="s">
         <v>553</v>
       </c>
@@ -29568,7 +29572,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="577" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A577" s="2" t="s">
         <v>553</v>
       </c>
@@ -29618,7 +29622,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="578" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A578" s="2" t="s">
         <v>561</v>
       </c>
@@ -29665,7 +29669,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="579" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A579" s="2" t="s">
         <v>565</v>
       </c>
@@ -29712,7 +29716,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="580" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A580" s="2" t="s">
         <v>565</v>
       </c>
@@ -29759,7 +29763,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="581" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A581" s="2" t="s">
         <v>565</v>
       </c>
@@ -29806,7 +29810,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="582" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A582" s="2" t="s">
         <v>570</v>
       </c>
@@ -29853,7 +29857,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="583" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A583" s="2" t="s">
         <v>570</v>
       </c>
@@ -29900,7 +29904,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="584" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A584" s="2" t="s">
         <v>570</v>
       </c>
@@ -29947,7 +29951,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="585" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A585" s="2" t="s">
         <v>570</v>
       </c>
@@ -29994,7 +29998,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="586" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A586" s="2" t="s">
         <v>576</v>
       </c>
@@ -30041,7 +30045,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="587" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A587" s="2" t="s">
         <v>576</v>
       </c>
@@ -30088,7 +30092,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="588" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A588" s="2" t="s">
         <v>576</v>
       </c>
@@ -30135,7 +30139,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="589" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A589" s="2" t="s">
         <v>576</v>
       </c>
@@ -30182,7 +30186,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="590" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A590" s="2" t="s">
         <v>576</v>
       </c>
@@ -30229,7 +30233,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="591" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A591" s="2" t="s">
         <v>576</v>
       </c>
@@ -30276,7 +30280,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="592" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A592" s="2" t="s">
         <v>582</v>
       </c>
@@ -30323,7 +30327,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="593" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A593" s="2" t="s">
         <v>586</v>
       </c>
@@ -30370,7 +30374,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="594" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A594" s="2" t="s">
         <v>586</v>
       </c>
@@ -30417,7 +30421,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="595" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A595" s="2" t="s">
         <v>586</v>
       </c>
@@ -30464,7 +30468,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="596" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A596" s="2" t="s">
         <v>586</v>
       </c>
@@ -30511,7 +30515,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="597" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A597" s="2" t="s">
         <v>586</v>
       </c>
@@ -30558,7 +30562,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="598" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A598" s="2" t="s">
         <v>589</v>
       </c>
@@ -30605,7 +30609,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="599" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A599" s="2" t="s">
         <v>589</v>
       </c>
@@ -30652,7 +30656,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="600" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A600" s="2" t="s">
         <v>589</v>
       </c>
@@ -30699,7 +30703,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="601" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A601" s="2" t="s">
         <v>589</v>
       </c>
@@ -30746,7 +30750,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="602" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A602" s="2" t="s">
         <v>589</v>
       </c>
@@ -30793,7 +30797,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="603" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A603" s="2" t="s">
         <v>589</v>
       </c>
@@ -30840,7 +30844,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="604" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A604" s="2" t="s">
         <v>589</v>
       </c>
@@ -30887,7 +30891,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="605" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A605" s="2" t="s">
         <v>593</v>
       </c>
@@ -30934,7 +30938,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="606" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A606" s="2" t="s">
         <v>593</v>
       </c>
@@ -30981,7 +30985,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="607" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A607" s="2" t="s">
         <v>593</v>
       </c>
@@ -31028,7 +31032,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="608" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A608" s="2" t="s">
         <v>593</v>
       </c>

--- a/sfa.Tl.Marketing.Communication.DataLoad/Provider Data/Full Provider Data 2020 - 2021 (campaign site).xlsx
+++ b/sfa.Tl.Marketing.Communication.DataLoad/Provider Data/Full Provider Data 2020 - 2021 (campaign site).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\esfa\tl-marketing-and-communication\sfa.Tl.Marketing.Communication.DataLoad\Provider Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F498F123-111E-4628-9849-07863CE66D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3BD05E-4008-40A2-AEF2-515455E3898B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32400" yWindow="1830" windowWidth="28515" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31725" yWindow="2505" windowWidth="19350" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Provider Data 2020 - 2021" sheetId="1" r:id="rId1"/>
@@ -1630,9 +1630,6 @@
     <t>B3 1JP</t>
   </si>
   <si>
-    <t>https://www.ucb.ac.uk/our-courses/college-courses/t-levels.aspx</t>
-  </si>
-  <si>
     <t>Ursuline High School</t>
   </si>
   <si>
@@ -1820,6 +1817,9 @@
   </si>
   <si>
     <t>https://www.osfc.ac.uk/courses/digital-t-level/</t>
+  </si>
+  <si>
+    <t>https://www.ucb.ac.uk/study/college/introducing-new-t-levels/</t>
   </si>
 </sst>
 </file>
@@ -2205,9 +2205,9 @@
   </sheetPr>
   <dimension ref="A1:P608"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A549" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O573" sqref="O573"/>
+      <selection pane="bottomLeft" activeCell="G557" sqref="A557:XFD557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2240,7 +2240,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -21246,7 +21246,7 @@
         <v>2020</v>
       </c>
       <c r="P400" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="401" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -21293,7 +21293,7 @@
         <v>2021</v>
       </c>
       <c r="P401" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="402" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -22280,7 +22280,7 @@
         <v>2021</v>
       </c>
       <c r="P422" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="423" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -22327,7 +22327,7 @@
         <v>2021</v>
       </c>
       <c r="P423" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="424" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -22374,7 +22374,7 @@
         <v>2020</v>
       </c>
       <c r="P424" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="425" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -28666,8 +28666,8 @@
       <c r="O557" s="2">
         <v>2021</v>
       </c>
-      <c r="P557" s="3" t="s">
-        <v>536</v>
+      <c r="P557" s="4" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="558" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -28713,19 +28713,19 @@
       <c r="O558" s="2">
         <v>2021</v>
       </c>
-      <c r="P558" s="3" t="s">
-        <v>536</v>
+      <c r="P558" s="4" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="559" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A559" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C559" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C559" s="2" t="s">
+      <c r="D559" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="D559" s="2" t="s">
-        <v>539</v>
       </c>
       <c r="E559" s="2" t="s">
         <v>18</v>
@@ -28761,159 +28761,159 @@
         <v>2020</v>
       </c>
       <c r="P559" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="560" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A560" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C560" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="C560" s="2" t="s">
+      <c r="D560" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="D560" s="2" t="s">
+      <c r="E560" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F560" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G560" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H560" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I560" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J560" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K560" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L560" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M560" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N560" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O560" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P560" s="3" t="s">
         <v>543</v>
-      </c>
-      <c r="E560" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F560" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G560" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H560" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I560" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J560" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K560" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L560" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M560" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N560" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O560" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P560" s="3" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="561" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A561" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C561" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="C561" s="2" t="s">
+      <c r="D561" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="D561" s="2" t="s">
+      <c r="E561" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F561" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G561" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H561" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I561" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J561" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K561" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L561" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M561" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N561" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O561" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P561" s="3" t="s">
         <v>543</v>
-      </c>
-      <c r="E561" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F561" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G561" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H561" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I561" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J561" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K561" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L561" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M561" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N561" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O561" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P561" s="3" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="562" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A562" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C562" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="C562" s="2" t="s">
+      <c r="D562" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="D562" s="2" t="s">
+      <c r="E562" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F562" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G562" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H562" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I562" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J562" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K562" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L562" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M562" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N562" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O562" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P562" s="3" t="s">
         <v>543</v>
-      </c>
-      <c r="E562" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F562" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G562" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H562" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I562" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J562" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K562" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L562" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M562" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N562" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O562" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P562" s="3" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="563" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A563" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C563" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C563" s="2" t="s">
+      <c r="D563" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="D563" s="2" t="s">
-        <v>547</v>
       </c>
       <c r="E563" s="2" t="s">
         <v>18</v>
@@ -28949,112 +28949,112 @@
         <v>2020</v>
       </c>
       <c r="P563" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="564" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A564" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C564" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C564" s="2" t="s">
+      <c r="D564" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="D564" s="2" t="s">
+      <c r="E564" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F564" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G564" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H564" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I564" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J564" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K564" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L564" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M564" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N564" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O564" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P564" s="3" t="s">
         <v>547</v>
-      </c>
-      <c r="E564" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F564" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G564" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H564" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I564" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J564" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K564" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L564" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M564" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N564" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O564" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P564" s="3" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="565" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A565" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C565" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C565" s="2" t="s">
+      <c r="D565" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="D565" s="2" t="s">
+      <c r="E565" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F565" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G565" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H565" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I565" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J565" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K565" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L565" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M565" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N565" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O565" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P565" s="3" t="s">
         <v>547</v>
-      </c>
-      <c r="E565" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F565" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G565" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H565" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I565" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J565" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K565" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L565" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M565" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N565" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O565" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P565" s="3" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="566" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A566" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C566" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C566" s="2" t="s">
+      <c r="D566" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="D566" s="2" t="s">
-        <v>547</v>
       </c>
       <c r="E566" s="2" t="s">
         <v>19</v>
@@ -29090,159 +29090,159 @@
         <v>2020</v>
       </c>
       <c r="P566" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="567" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A567" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C567" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C567" s="2" t="s">
+      <c r="D567" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="D567" s="2" t="s">
+      <c r="E567" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F567" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G567" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H567" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I567" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J567" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K567" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L567" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M567" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N567" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O567" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P567" s="3" t="s">
         <v>547</v>
-      </c>
-      <c r="E567" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F567" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G567" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H567" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I567" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J567" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K567" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L567" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M567" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N567" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O567" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P567" s="3" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="568" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A568" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C568" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C568" s="2" t="s">
+      <c r="D568" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="D568" s="2" t="s">
+      <c r="E568" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F568" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G568" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H568" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I568" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J568" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K568" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L568" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M568" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N568" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O568" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P568" s="3" t="s">
         <v>547</v>
-      </c>
-      <c r="E568" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F568" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G568" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H568" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I568" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J568" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K568" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L568" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M568" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N568" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O568" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P568" s="3" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="569" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A569" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C569" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C569" s="2" t="s">
+      <c r="D569" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="D569" s="2" t="s">
+      <c r="E569" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F569" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G569" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H569" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I569" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J569" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K569" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L569" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M569" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N569" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O569" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P569" s="3" t="s">
         <v>547</v>
-      </c>
-      <c r="E569" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F569" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G569" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H569" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I569" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J569" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K569" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L569" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M569" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N569" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O569" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P569" s="3" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="570" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A570" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D570" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E570" s="2" t="s">
         <v>19</v>
@@ -29278,213 +29278,213 @@
         <v>2020</v>
       </c>
       <c r="P570" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="571" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A571" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D571" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E571" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F571" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G571" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H571" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I571" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J571" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K571" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L571" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M571" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N571" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O571" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P571" s="3" t="s">
         <v>547</v>
-      </c>
-      <c r="E571" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F571" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G571" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H571" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I571" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J571" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K571" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L571" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M571" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N571" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O571" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P571" s="3" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="572" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A572" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C572" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C572" s="2" t="s">
+      <c r="D572" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E572" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F572" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G572" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H572" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I572" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J572" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K572" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L572" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M572" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N572" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O572" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P572" s="3" t="s">
         <v>551</v>
-      </c>
-      <c r="D572" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="E572" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F572" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G572" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H572" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I572" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J572" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K572" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L572" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M572" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N572" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O572" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P572" s="3" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="573" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A573" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C573" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C573" s="2" t="s">
+      <c r="D573" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E573" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F573" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G573" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H573" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I573" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J573" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K573" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L573" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M573" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N573" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O573" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P573" s="3" t="s">
         <v>551</v>
-      </c>
-      <c r="D573" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="E573" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F573" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G573" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H573" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I573" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J573" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K573" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L573" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M573" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N573" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O573" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P573" s="3" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="574" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A574" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B574" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="B574" s="2" t="s">
+      <c r="C574" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="C574" s="2" t="s">
+      <c r="D574" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="D574" s="2" t="s">
+      <c r="E574" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F574" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G574" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H574" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I574" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J574" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K574" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L574" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M574" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N574" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O574" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P574" s="3" t="s">
         <v>556</v>
-      </c>
-      <c r="E574" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F574" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G574" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H574" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I574" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J574" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K574" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L574" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M574" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N574" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O574" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P574" s="3" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="575" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A575" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B575" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C575" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="C575" s="2" t="s">
+      <c r="D575" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D575" s="2" t="s">
-        <v>560</v>
-      </c>
       <c r="E575" s="2" t="s">
         <v>19</v>
       </c>
@@ -29519,22 +29519,22 @@
         <v>2021</v>
       </c>
       <c r="P575" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="576" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A576" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B576" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C576" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="C576" s="2" t="s">
+      <c r="D576" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D576" s="2" t="s">
-        <v>560</v>
-      </c>
       <c r="E576" s="2" t="s">
         <v>18</v>
       </c>
@@ -29569,22 +29569,22 @@
         <v>2021</v>
       </c>
       <c r="P576" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="577" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A577" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B577" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C577" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="C577" s="2" t="s">
+      <c r="D577" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D577" s="2" t="s">
-        <v>560</v>
-      </c>
       <c r="E577" s="2" t="s">
         <v>19</v>
       </c>
@@ -29619,206 +29619,206 @@
         <v>2021</v>
       </c>
       <c r="P577" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="578" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A578" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C578" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C578" s="2" t="s">
+      <c r="D578" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="D578" s="2" t="s">
+      <c r="E578" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F578" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G578" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H578" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I578" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J578" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K578" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L578" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M578" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N578" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O578" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P578" s="3" t="s">
         <v>563</v>
-      </c>
-      <c r="E578" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F578" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G578" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H578" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I578" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J578" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K578" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L578" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M578" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N578" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O578" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P578" s="3" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="579" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A579" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C579" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="C579" s="2" t="s">
+      <c r="D579" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="D579" s="2" t="s">
+      <c r="E579" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F579" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G579" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H579" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I579" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J579" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K579" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L579" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M579" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N579" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O579" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P579" s="3" t="s">
         <v>567</v>
-      </c>
-      <c r="E579" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F579" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G579" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H579" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I579" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J579" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K579" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L579" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M579" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N579" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O579" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P579" s="3" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="580" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A580" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D580" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E580" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F580" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G580" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H580" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I580" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J580" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K580" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L580" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M580" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N580" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O580" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P580" s="3" t="s">
         <v>567</v>
-      </c>
-      <c r="E580" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F580" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G580" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H580" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I580" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J580" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K580" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L580" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M580" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N580" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O580" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P580" s="3" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="581" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A581" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D581" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E581" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F581" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G581" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H581" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I581" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J581" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K581" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L581" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M581" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N581" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O581" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P581" s="3" t="s">
         <v>567</v>
-      </c>
-      <c r="E581" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F581" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G581" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H581" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I581" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J581" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K581" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L581" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M581" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N581" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O581" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P581" s="3" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="582" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A582" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C582" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C582" s="2" t="s">
+      <c r="D582" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="D582" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="E582" s="2" t="s">
         <v>18</v>
@@ -29854,18 +29854,18 @@
         <v>2020</v>
       </c>
       <c r="P582" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="583" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A583" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C583" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C583" s="2" t="s">
+      <c r="D583" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="D583" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="E583" s="2" t="s">
         <v>19</v>
@@ -29901,18 +29901,18 @@
         <v>2020</v>
       </c>
       <c r="P583" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="584" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A584" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C584" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D584" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E584" s="2" t="s">
         <v>19</v>
@@ -29948,1005 +29948,1005 @@
         <v>2020</v>
       </c>
       <c r="P584" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="585" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A585" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D585" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="E585" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F585" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G585" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H585" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I585" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J585" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K585" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L585" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M585" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N585" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O585" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P585" s="3" t="s">
         <v>572</v>
-      </c>
-      <c r="E585" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F585" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G585" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H585" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I585" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J585" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K585" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L585" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M585" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N585" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O585" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P585" s="3" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="586" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A586" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C586" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="C586" s="2" t="s">
+      <c r="D586" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="D586" s="2" t="s">
+      <c r="E586" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F586" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G586" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H586" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I586" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J586" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K586" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L586" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M586" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N586" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O586" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P586" s="3" t="s">
         <v>578</v>
-      </c>
-      <c r="E586" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F586" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G586" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H586" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I586" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J586" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K586" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L586" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M586" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N586" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O586" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P586" s="3" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="587" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A587" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C587" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="C587" s="2" t="s">
+      <c r="D587" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="D587" s="2" t="s">
+      <c r="E587" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F587" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G587" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H587" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I587" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J587" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K587" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L587" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M587" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N587" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O587" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P587" s="3" t="s">
         <v>578</v>
-      </c>
-      <c r="E587" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F587" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G587" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H587" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I587" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J587" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K587" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L587" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M587" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N587" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O587" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P587" s="3" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="588" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A588" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D588" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E588" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F588" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G588" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H588" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I588" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J588" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K588" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L588" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M588" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N588" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O588" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P588" s="3" t="s">
         <v>578</v>
-      </c>
-      <c r="E588" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F588" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G588" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H588" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I588" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J588" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K588" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L588" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M588" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N588" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O588" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P588" s="3" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="589" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A589" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C589" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D589" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E589" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F589" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G589" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H589" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I589" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J589" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K589" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L589" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M589" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N589" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O589" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P589" s="3" t="s">
         <v>578</v>
-      </c>
-      <c r="E589" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F589" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G589" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H589" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I589" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J589" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K589" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L589" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M589" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N589" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O589" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P589" s="3" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="590" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A590" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C590" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D590" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E590" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F590" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G590" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H590" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I590" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J590" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K590" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L590" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M590" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N590" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O590" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P590" s="3" t="s">
         <v>578</v>
-      </c>
-      <c r="E590" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F590" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G590" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H590" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I590" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J590" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K590" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L590" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M590" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N590" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O590" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P590" s="3" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="591" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A591" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C591" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D591" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E591" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F591" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G591" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H591" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I591" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J591" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K591" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L591" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M591" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N591" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O591" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P591" s="3" t="s">
         <v>578</v>
-      </c>
-      <c r="E591" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F591" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G591" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H591" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I591" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J591" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K591" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L591" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M591" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N591" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O591" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P591" s="3" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="592" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A592" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C592" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="C592" s="2" t="s">
+      <c r="D592" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="D592" s="2" t="s">
+      <c r="E592" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F592" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G592" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H592" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I592" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J592" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K592" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L592" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M592" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N592" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O592" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P592" s="3" t="s">
         <v>584</v>
-      </c>
-      <c r="E592" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F592" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G592" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H592" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I592" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J592" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K592" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L592" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M592" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N592" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O592" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P592" s="3" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="593" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A593" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C593" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="C593" s="2" t="s">
+      <c r="D593" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E593" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F593" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G593" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H593" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I593" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J593" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K593" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L593" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M593" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N593" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O593" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P593" s="3" t="s">
         <v>587</v>
-      </c>
-      <c r="D593" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="E593" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F593" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G593" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H593" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I593" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J593" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K593" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L593" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M593" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N593" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O593" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P593" s="3" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="594" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A594" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C594" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="C594" s="2" t="s">
+      <c r="D594" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E594" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F594" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G594" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H594" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I594" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J594" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K594" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L594" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M594" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N594" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O594" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P594" s="3" t="s">
         <v>587</v>
-      </c>
-      <c r="D594" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="E594" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F594" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G594" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H594" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I594" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J594" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K594" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L594" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M594" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N594" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O594" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P594" s="3" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="595" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A595" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C595" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="C595" s="2" t="s">
+      <c r="D595" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E595" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F595" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G595" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H595" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I595" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J595" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K595" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L595" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M595" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N595" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O595" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P595" s="3" t="s">
         <v>587</v>
-      </c>
-      <c r="D595" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="E595" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F595" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G595" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H595" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I595" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J595" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K595" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L595" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M595" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N595" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O595" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P595" s="3" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="596" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A596" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C596" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="C596" s="2" t="s">
+      <c r="D596" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E596" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F596" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G596" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H596" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I596" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J596" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K596" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L596" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M596" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N596" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O596" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P596" s="3" t="s">
         <v>587</v>
-      </c>
-      <c r="D596" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="E596" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F596" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G596" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H596" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I596" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J596" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K596" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L596" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M596" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N596" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O596" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P596" s="3" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="597" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A597" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C597" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="C597" s="2" t="s">
+      <c r="D597" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E597" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F597" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G597" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H597" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I597" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J597" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K597" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L597" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M597" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N597" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O597" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P597" s="3" t="s">
         <v>587</v>
-      </c>
-      <c r="D597" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="E597" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F597" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G597" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H597" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I597" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J597" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K597" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L597" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M597" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N597" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O597" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P597" s="3" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="598" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A598" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C598" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C598" s="2" t="s">
+      <c r="D598" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="D598" s="2" t="s">
+      <c r="E598" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F598" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G598" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H598" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I598" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J598" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K598" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L598" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M598" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N598" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O598" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P598" s="3" t="s">
         <v>591</v>
-      </c>
-      <c r="E598" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F598" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G598" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H598" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I598" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J598" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K598" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L598" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M598" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N598" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O598" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P598" s="3" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="599" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A599" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C599" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C599" s="2" t="s">
+      <c r="D599" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="D599" s="2" t="s">
+      <c r="E599" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F599" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G599" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H599" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I599" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J599" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K599" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L599" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M599" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N599" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O599" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P599" s="3" t="s">
         <v>591</v>
-      </c>
-      <c r="E599" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F599" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G599" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H599" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I599" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J599" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K599" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L599" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M599" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N599" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O599" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P599" s="3" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="600" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A600" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C600" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C600" s="2" t="s">
+      <c r="D600" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="D600" s="2" t="s">
+      <c r="E600" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F600" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G600" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H600" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I600" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J600" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K600" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L600" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M600" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N600" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O600" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P600" s="3" t="s">
         <v>591</v>
-      </c>
-      <c r="E600" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F600" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G600" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H600" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I600" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J600" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K600" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L600" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M600" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N600" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O600" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P600" s="3" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="601" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A601" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C601" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C601" s="2" t="s">
+      <c r="D601" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="D601" s="2" t="s">
+      <c r="E601" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F601" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G601" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H601" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I601" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J601" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K601" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L601" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M601" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N601" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O601" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P601" s="3" t="s">
         <v>591</v>
-      </c>
-      <c r="E601" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F601" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G601" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H601" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I601" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J601" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K601" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L601" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M601" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N601" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O601" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P601" s="3" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="602" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A602" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C602" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C602" s="2" t="s">
+      <c r="D602" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="D602" s="2" t="s">
+      <c r="E602" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F602" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G602" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H602" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I602" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J602" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K602" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L602" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M602" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N602" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O602" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P602" s="3" t="s">
         <v>591</v>
-      </c>
-      <c r="E602" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F602" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G602" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H602" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I602" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J602" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K602" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L602" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M602" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N602" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O602" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P602" s="3" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="603" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A603" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C603" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C603" s="2" t="s">
+      <c r="D603" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="D603" s="2" t="s">
+      <c r="E603" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F603" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G603" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H603" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I603" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J603" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K603" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L603" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M603" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N603" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O603" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P603" s="3" t="s">
         <v>591</v>
-      </c>
-      <c r="E603" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F603" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G603" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H603" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I603" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J603" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K603" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L603" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M603" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N603" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O603" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P603" s="3" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="604" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A604" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C604" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C604" s="2" t="s">
+      <c r="D604" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="D604" s="2" t="s">
+      <c r="E604" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F604" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G604" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H604" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I604" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J604" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K604" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L604" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M604" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N604" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O604" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P604" s="3" t="s">
         <v>591</v>
-      </c>
-      <c r="E604" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F604" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G604" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H604" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I604" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J604" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K604" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L604" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M604" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N604" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O604" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P604" s="3" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="605" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A605" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C605" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C605" s="2" t="s">
+      <c r="D605" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="D605" s="2" t="s">
+      <c r="E605" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F605" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G605" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H605" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I605" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J605" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K605" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L605" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M605" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N605" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O605" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P605" s="3" t="s">
         <v>595</v>
-      </c>
-      <c r="E605" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F605" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G605" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H605" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I605" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J605" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K605" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L605" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M605" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N605" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O605" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P605" s="3" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="606" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A606" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C606" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C606" s="2" t="s">
+      <c r="D606" s="2" t="s">
         <v>594</v>
-      </c>
-      <c r="D606" s="2" t="s">
-        <v>595</v>
       </c>
       <c r="E606" s="2" t="s">
         <v>19</v>
@@ -30982,101 +30982,101 @@
         <v>2020</v>
       </c>
       <c r="P606" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="607" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A607" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C607" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C607" s="2" t="s">
+      <c r="D607" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="D607" s="2" t="s">
+      <c r="E607" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F607" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G607" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H607" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I607" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J607" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K607" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L607" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M607" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N607" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O607" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P607" s="3" t="s">
         <v>595</v>
-      </c>
-      <c r="E607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K607" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O607" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P607" s="3" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="608" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A608" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C608" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C608" s="2" t="s">
+      <c r="D608" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="D608" s="2" t="s">
+      <c r="E608" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F608" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G608" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H608" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I608" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J608" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K608" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L608" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M608" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N608" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O608" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P608" s="3" t="s">
         <v>595</v>
-      </c>
-      <c r="E608" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F608" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G608" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H608" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I608" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J608" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K608" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L608" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M608" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N608" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O608" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P608" s="3" t="s">
-        <v>596</v>
       </c>
     </row>
   </sheetData>

--- a/sfa.Tl.Marketing.Communication.DataLoad/Provider Data/Full Provider Data 2020 - 2021 (campaign site).xlsx
+++ b/sfa.Tl.Marketing.Communication.DataLoad/Provider Data/Full Provider Data 2020 - 2021 (campaign site).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\esfa\tl-marketing-and-communication\sfa.Tl.Marketing.Communication.DataLoad\Provider Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3BD05E-4008-40A2-AEF2-515455E3898B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDB702C-40AE-4A54-B123-79E1CBF5CDB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31725" yWindow="2505" windowWidth="19350" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-40365" yWindow="5580" windowWidth="23685" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Provider Data 2020 - 2021" sheetId="1" r:id="rId1"/>
@@ -1651,9 +1651,6 @@
     <t>Wakefield</t>
   </si>
   <si>
-    <t>https://courses.wakefield.ac.uk/</t>
-  </si>
-  <si>
     <t>Walsall College</t>
   </si>
   <si>
@@ -1820,6 +1817,9 @@
   </si>
   <si>
     <t>https://www.ucb.ac.uk/study/college/introducing-new-t-levels/</t>
+  </si>
+  <si>
+    <t>https://www.wakefield.ac.uk/study-with-us/school-leavers/t-levels</t>
   </si>
 </sst>
 </file>
@@ -2205,9 +2205,9 @@
   </sheetPr>
   <dimension ref="A1:P608"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A549" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G557" sqref="A557:XFD557"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A556" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P560" sqref="P560:P562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2240,7 +2240,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -21246,7 +21246,7 @@
         <v>2020</v>
       </c>
       <c r="P400" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="401" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -21293,7 +21293,7 @@
         <v>2021</v>
       </c>
       <c r="P401" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="402" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -22280,7 +22280,7 @@
         <v>2021</v>
       </c>
       <c r="P422" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="423" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -22327,7 +22327,7 @@
         <v>2021</v>
       </c>
       <c r="P423" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="424" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -22374,7 +22374,7 @@
         <v>2020</v>
       </c>
       <c r="P424" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="425" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -28667,7 +28667,7 @@
         <v>2021</v>
       </c>
       <c r="P557" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="558" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -28714,7 +28714,7 @@
         <v>2021</v>
       </c>
       <c r="P558" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="559" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -28807,8 +28807,8 @@
       <c r="O560" s="2">
         <v>2021</v>
       </c>
-      <c r="P560" s="3" t="s">
-        <v>543</v>
+      <c r="P560" s="4" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="561" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -28854,8 +28854,8 @@
       <c r="O561" s="2">
         <v>2021</v>
       </c>
-      <c r="P561" s="3" t="s">
-        <v>543</v>
+      <c r="P561" s="4" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="562" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -28901,19 +28901,19 @@
       <c r="O562" s="2">
         <v>2021</v>
       </c>
-      <c r="P562" s="3" t="s">
-        <v>543</v>
+      <c r="P562" s="4" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="563" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A563" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C563" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C563" s="2" t="s">
+      <c r="D563" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="D563" s="2" t="s">
-        <v>546</v>
       </c>
       <c r="E563" s="2" t="s">
         <v>18</v>
@@ -28949,112 +28949,112 @@
         <v>2020</v>
       </c>
       <c r="P563" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="564" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A564" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C564" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C564" s="2" t="s">
+      <c r="D564" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="D564" s="2" t="s">
+      <c r="E564" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F564" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G564" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H564" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I564" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J564" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K564" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L564" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M564" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N564" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O564" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P564" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="E564" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F564" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G564" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H564" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I564" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J564" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K564" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L564" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M564" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N564" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O564" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P564" s="3" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="565" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A565" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C565" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C565" s="2" t="s">
+      <c r="D565" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="D565" s="2" t="s">
+      <c r="E565" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F565" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G565" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H565" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I565" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J565" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K565" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L565" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M565" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N565" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O565" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P565" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="E565" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F565" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G565" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H565" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I565" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J565" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K565" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L565" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M565" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N565" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O565" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P565" s="3" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="566" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A566" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C566" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C566" s="2" t="s">
+      <c r="D566" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="D566" s="2" t="s">
-        <v>546</v>
       </c>
       <c r="E566" s="2" t="s">
         <v>19</v>
@@ -29090,159 +29090,159 @@
         <v>2020</v>
       </c>
       <c r="P566" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="567" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A567" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C567" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C567" s="2" t="s">
+      <c r="D567" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="D567" s="2" t="s">
+      <c r="E567" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F567" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G567" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H567" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I567" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J567" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K567" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L567" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M567" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N567" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O567" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P567" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="E567" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F567" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G567" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H567" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I567" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J567" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K567" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L567" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M567" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N567" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O567" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P567" s="3" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="568" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A568" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C568" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C568" s="2" t="s">
+      <c r="D568" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="D568" s="2" t="s">
+      <c r="E568" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F568" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G568" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H568" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I568" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J568" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K568" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L568" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M568" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N568" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O568" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P568" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="E568" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F568" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G568" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H568" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I568" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J568" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K568" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L568" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M568" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N568" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O568" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P568" s="3" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="569" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A569" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C569" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C569" s="2" t="s">
+      <c r="D569" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="D569" s="2" t="s">
+      <c r="E569" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F569" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G569" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H569" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I569" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J569" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K569" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L569" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M569" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N569" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O569" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P569" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="E569" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F569" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G569" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H569" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I569" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J569" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K569" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L569" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M569" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N569" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O569" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P569" s="3" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="570" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A570" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D570" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E570" s="2" t="s">
         <v>19</v>
@@ -29278,213 +29278,213 @@
         <v>2020</v>
       </c>
       <c r="P570" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="571" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A571" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D571" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E571" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F571" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G571" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H571" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I571" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J571" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K571" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L571" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M571" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N571" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O571" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P571" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="E571" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F571" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G571" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H571" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I571" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J571" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K571" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L571" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M571" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N571" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O571" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P571" s="3" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="572" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A572" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C572" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="C572" s="2" t="s">
+      <c r="D572" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E572" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F572" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G572" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H572" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I572" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J572" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K572" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L572" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M572" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N572" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O572" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P572" s="3" t="s">
         <v>550</v>
-      </c>
-      <c r="D572" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="E572" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F572" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G572" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H572" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I572" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J572" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K572" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L572" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M572" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N572" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O572" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P572" s="3" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="573" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A573" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C573" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="C573" s="2" t="s">
+      <c r="D573" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E573" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F573" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G573" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H573" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I573" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J573" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K573" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L573" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M573" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N573" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O573" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P573" s="3" t="s">
         <v>550</v>
-      </c>
-      <c r="D573" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="E573" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F573" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G573" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H573" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I573" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J573" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K573" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L573" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M573" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N573" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O573" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P573" s="3" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="574" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A574" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B574" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B574" s="2" t="s">
+      <c r="C574" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="C574" s="2" t="s">
+      <c r="D574" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="D574" s="2" t="s">
+      <c r="E574" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F574" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G574" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H574" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I574" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J574" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K574" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L574" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M574" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N574" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O574" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P574" s="3" t="s">
         <v>555</v>
-      </c>
-      <c r="E574" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F574" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G574" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H574" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I574" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J574" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K574" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L574" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M574" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N574" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O574" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P574" s="3" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="575" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A575" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B575" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C575" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="C575" s="2" t="s">
+      <c r="D575" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="D575" s="2" t="s">
-        <v>559</v>
-      </c>
       <c r="E575" s="2" t="s">
         <v>19</v>
       </c>
@@ -29519,22 +29519,22 @@
         <v>2021</v>
       </c>
       <c r="P575" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="576" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A576" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B576" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C576" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="C576" s="2" t="s">
+      <c r="D576" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="D576" s="2" t="s">
-        <v>559</v>
-      </c>
       <c r="E576" s="2" t="s">
         <v>18</v>
       </c>
@@ -29569,22 +29569,22 @@
         <v>2021</v>
       </c>
       <c r="P576" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="577" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A577" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B577" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C577" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="C577" s="2" t="s">
+      <c r="D577" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="D577" s="2" t="s">
-        <v>559</v>
-      </c>
       <c r="E577" s="2" t="s">
         <v>19</v>
       </c>
@@ -29619,206 +29619,206 @@
         <v>2021</v>
       </c>
       <c r="P577" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="578" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A578" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C578" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="C578" s="2" t="s">
+      <c r="D578" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="D578" s="2" t="s">
+      <c r="E578" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F578" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G578" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H578" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I578" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J578" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K578" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L578" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M578" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N578" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O578" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P578" s="3" t="s">
         <v>562</v>
-      </c>
-      <c r="E578" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F578" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G578" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H578" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I578" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J578" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K578" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L578" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M578" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N578" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O578" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P578" s="3" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="579" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A579" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C579" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="C579" s="2" t="s">
+      <c r="D579" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="D579" s="2" t="s">
+      <c r="E579" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F579" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G579" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H579" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I579" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J579" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K579" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L579" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M579" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N579" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O579" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P579" s="3" t="s">
         <v>566</v>
-      </c>
-      <c r="E579" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F579" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G579" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H579" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I579" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J579" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K579" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L579" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M579" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N579" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O579" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P579" s="3" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="580" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A580" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D580" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E580" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F580" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G580" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H580" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I580" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J580" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K580" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L580" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M580" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N580" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O580" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P580" s="3" t="s">
         <v>566</v>
-      </c>
-      <c r="E580" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F580" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G580" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H580" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I580" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J580" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K580" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L580" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M580" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N580" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O580" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P580" s="3" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="581" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A581" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D581" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E581" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F581" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G581" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H581" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I581" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J581" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K581" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L581" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M581" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N581" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O581" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P581" s="3" t="s">
         <v>566</v>
-      </c>
-      <c r="E581" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F581" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G581" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H581" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I581" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J581" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K581" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L581" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M581" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N581" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O581" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P581" s="3" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="582" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A582" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C582" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="C582" s="2" t="s">
+      <c r="D582" s="2" t="s">
         <v>570</v>
-      </c>
-      <c r="D582" s="2" t="s">
-        <v>571</v>
       </c>
       <c r="E582" s="2" t="s">
         <v>18</v>
@@ -29854,18 +29854,18 @@
         <v>2020</v>
       </c>
       <c r="P582" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="583" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A583" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C583" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="C583" s="2" t="s">
+      <c r="D583" s="2" t="s">
         <v>570</v>
-      </c>
-      <c r="D583" s="2" t="s">
-        <v>571</v>
       </c>
       <c r="E583" s="2" t="s">
         <v>19</v>
@@ -29901,18 +29901,18 @@
         <v>2020</v>
       </c>
       <c r="P583" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="584" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A584" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C584" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D584" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E584" s="2" t="s">
         <v>19</v>
@@ -29948,1005 +29948,1005 @@
         <v>2020</v>
       </c>
       <c r="P584" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="585" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A585" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D585" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E585" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F585" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G585" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H585" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I585" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J585" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K585" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L585" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M585" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N585" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O585" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P585" s="3" t="s">
         <v>571</v>
-      </c>
-      <c r="E585" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F585" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G585" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H585" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I585" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J585" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K585" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L585" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M585" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N585" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O585" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P585" s="3" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="586" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A586" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C586" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="C586" s="2" t="s">
+      <c r="D586" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="D586" s="2" t="s">
+      <c r="E586" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F586" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G586" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H586" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I586" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J586" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K586" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L586" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M586" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N586" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O586" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P586" s="3" t="s">
         <v>577</v>
-      </c>
-      <c r="E586" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F586" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G586" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H586" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I586" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J586" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K586" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L586" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M586" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N586" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O586" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P586" s="3" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="587" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A587" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C587" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="C587" s="2" t="s">
+      <c r="D587" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="D587" s="2" t="s">
+      <c r="E587" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F587" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G587" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H587" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I587" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J587" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K587" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L587" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M587" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N587" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O587" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P587" s="3" t="s">
         <v>577</v>
-      </c>
-      <c r="E587" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F587" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G587" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H587" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I587" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J587" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K587" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L587" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M587" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N587" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O587" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P587" s="3" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="588" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A588" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D588" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E588" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F588" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G588" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H588" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I588" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J588" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K588" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L588" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M588" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N588" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O588" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P588" s="3" t="s">
         <v>577</v>
-      </c>
-      <c r="E588" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F588" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G588" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H588" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I588" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J588" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K588" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L588" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M588" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N588" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O588" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P588" s="3" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="589" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A589" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C589" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D589" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E589" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F589" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G589" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H589" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I589" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J589" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K589" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L589" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M589" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N589" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O589" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P589" s="3" t="s">
         <v>577</v>
-      </c>
-      <c r="E589" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F589" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G589" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H589" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I589" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J589" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K589" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L589" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M589" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N589" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O589" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P589" s="3" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="590" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A590" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C590" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D590" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E590" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F590" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G590" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H590" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I590" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J590" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K590" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L590" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M590" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N590" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O590" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P590" s="3" t="s">
         <v>577</v>
-      </c>
-      <c r="E590" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F590" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G590" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H590" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I590" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J590" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K590" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L590" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M590" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N590" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O590" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P590" s="3" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="591" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A591" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C591" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D591" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E591" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F591" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G591" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H591" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I591" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J591" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K591" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L591" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M591" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N591" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O591" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P591" s="3" t="s">
         <v>577</v>
-      </c>
-      <c r="E591" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F591" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G591" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H591" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I591" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J591" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K591" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L591" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M591" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N591" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O591" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P591" s="3" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="592" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A592" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C592" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C592" s="2" t="s">
+      <c r="D592" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="D592" s="2" t="s">
+      <c r="E592" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F592" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G592" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H592" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I592" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J592" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K592" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L592" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M592" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N592" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O592" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P592" s="3" t="s">
         <v>583</v>
-      </c>
-      <c r="E592" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F592" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G592" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H592" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I592" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J592" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K592" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L592" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M592" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N592" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O592" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P592" s="3" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="593" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A593" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C593" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C593" s="2" t="s">
+      <c r="D593" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E593" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F593" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G593" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H593" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I593" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J593" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K593" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L593" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M593" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N593" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O593" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P593" s="3" t="s">
         <v>586</v>
-      </c>
-      <c r="D593" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E593" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F593" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G593" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H593" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I593" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J593" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K593" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L593" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M593" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N593" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O593" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P593" s="3" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="594" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A594" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C594" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C594" s="2" t="s">
+      <c r="D594" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E594" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F594" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G594" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H594" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I594" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J594" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K594" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L594" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M594" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N594" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O594" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P594" s="3" t="s">
         <v>586</v>
-      </c>
-      <c r="D594" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E594" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F594" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G594" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H594" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I594" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J594" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K594" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L594" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M594" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N594" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O594" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P594" s="3" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="595" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A595" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C595" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C595" s="2" t="s">
+      <c r="D595" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E595" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F595" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G595" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H595" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I595" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J595" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K595" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L595" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M595" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N595" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O595" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P595" s="3" t="s">
         <v>586</v>
-      </c>
-      <c r="D595" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E595" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F595" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G595" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H595" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I595" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J595" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K595" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L595" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M595" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N595" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O595" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P595" s="3" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="596" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A596" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C596" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C596" s="2" t="s">
+      <c r="D596" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E596" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F596" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G596" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H596" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I596" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J596" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K596" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L596" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M596" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N596" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O596" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P596" s="3" t="s">
         <v>586</v>
-      </c>
-      <c r="D596" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E596" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F596" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G596" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H596" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I596" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J596" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K596" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L596" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M596" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N596" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O596" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P596" s="3" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="597" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A597" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C597" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C597" s="2" t="s">
+      <c r="D597" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E597" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F597" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G597" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H597" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I597" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J597" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K597" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L597" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M597" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N597" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O597" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P597" s="3" t="s">
         <v>586</v>
-      </c>
-      <c r="D597" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E597" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F597" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G597" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H597" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I597" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J597" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K597" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L597" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M597" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N597" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O597" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P597" s="3" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="598" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A598" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C598" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="C598" s="2" t="s">
+      <c r="D598" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="D598" s="2" t="s">
+      <c r="E598" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F598" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G598" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H598" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I598" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J598" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K598" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L598" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M598" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N598" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O598" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P598" s="3" t="s">
         <v>590</v>
-      </c>
-      <c r="E598" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F598" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G598" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H598" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I598" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J598" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K598" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L598" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M598" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N598" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O598" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P598" s="3" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="599" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A599" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C599" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="C599" s="2" t="s">
+      <c r="D599" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="D599" s="2" t="s">
+      <c r="E599" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F599" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G599" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H599" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I599" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J599" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K599" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L599" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M599" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N599" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O599" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P599" s="3" t="s">
         <v>590</v>
-      </c>
-      <c r="E599" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F599" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G599" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H599" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I599" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J599" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K599" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L599" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M599" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N599" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O599" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P599" s="3" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="600" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A600" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C600" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="C600" s="2" t="s">
+      <c r="D600" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="D600" s="2" t="s">
+      <c r="E600" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F600" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G600" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H600" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I600" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J600" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K600" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L600" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M600" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N600" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O600" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P600" s="3" t="s">
         <v>590</v>
-      </c>
-      <c r="E600" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F600" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G600" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H600" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I600" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J600" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K600" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L600" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M600" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N600" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O600" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P600" s="3" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="601" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A601" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C601" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="C601" s="2" t="s">
+      <c r="D601" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="D601" s="2" t="s">
+      <c r="E601" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F601" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G601" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H601" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I601" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J601" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K601" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L601" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M601" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N601" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O601" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P601" s="3" t="s">
         <v>590</v>
-      </c>
-      <c r="E601" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F601" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G601" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H601" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I601" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J601" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K601" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L601" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M601" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N601" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O601" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P601" s="3" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="602" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A602" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C602" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="C602" s="2" t="s">
+      <c r="D602" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="D602" s="2" t="s">
+      <c r="E602" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F602" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G602" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H602" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I602" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J602" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K602" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L602" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M602" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N602" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O602" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P602" s="3" t="s">
         <v>590</v>
-      </c>
-      <c r="E602" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F602" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G602" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H602" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I602" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J602" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K602" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L602" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M602" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N602" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O602" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P602" s="3" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="603" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A603" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C603" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="C603" s="2" t="s">
+      <c r="D603" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="D603" s="2" t="s">
+      <c r="E603" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F603" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G603" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H603" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I603" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J603" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K603" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L603" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M603" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N603" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O603" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P603" s="3" t="s">
         <v>590</v>
-      </c>
-      <c r="E603" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F603" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G603" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H603" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I603" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J603" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K603" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L603" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M603" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N603" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O603" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P603" s="3" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="604" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A604" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C604" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="C604" s="2" t="s">
+      <c r="D604" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="D604" s="2" t="s">
+      <c r="E604" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F604" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G604" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H604" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I604" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J604" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K604" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L604" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M604" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N604" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O604" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P604" s="3" t="s">
         <v>590</v>
-      </c>
-      <c r="E604" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F604" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G604" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H604" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I604" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J604" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K604" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L604" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M604" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N604" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O604" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P604" s="3" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="605" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A605" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C605" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="C605" s="2" t="s">
+      <c r="D605" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="D605" s="2" t="s">
+      <c r="E605" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F605" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G605" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H605" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I605" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J605" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K605" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L605" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M605" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N605" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O605" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P605" s="3" t="s">
         <v>594</v>
-      </c>
-      <c r="E605" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F605" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G605" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H605" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I605" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J605" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K605" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L605" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M605" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N605" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O605" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P605" s="3" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="606" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A606" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C606" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="C606" s="2" t="s">
+      <c r="D606" s="2" t="s">
         <v>593</v>
-      </c>
-      <c r="D606" s="2" t="s">
-        <v>594</v>
       </c>
       <c r="E606" s="2" t="s">
         <v>19</v>
@@ -30982,101 +30982,101 @@
         <v>2020</v>
       </c>
       <c r="P606" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="607" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A607" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C607" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="C607" s="2" t="s">
+      <c r="D607" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="D607" s="2" t="s">
+      <c r="E607" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F607" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G607" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H607" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I607" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J607" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K607" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L607" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M607" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N607" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O607" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P607" s="3" t="s">
         <v>594</v>
-      </c>
-      <c r="E607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K607" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O607" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P607" s="3" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="608" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A608" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C608" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="C608" s="2" t="s">
+      <c r="D608" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="D608" s="2" t="s">
+      <c r="E608" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F608" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G608" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H608" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I608" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J608" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K608" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L608" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M608" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N608" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O608" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P608" s="3" t="s">
         <v>594</v>
-      </c>
-      <c r="E608" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F608" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G608" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H608" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I608" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J608" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K608" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L608" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M608" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N608" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O608" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P608" s="3" t="s">
-        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -31634,60 +31634,59 @@
     <hyperlink ref="P558" r:id="rId551" xr:uid="{00000000-0004-0000-0000-00002B020000}"/>
     <hyperlink ref="P559" r:id="rId552" xr:uid="{00000000-0004-0000-0000-00002C020000}"/>
     <hyperlink ref="P560" r:id="rId553" xr:uid="{00000000-0004-0000-0000-00002D020000}"/>
-    <hyperlink ref="P561" r:id="rId554" xr:uid="{00000000-0004-0000-0000-00002E020000}"/>
-    <hyperlink ref="P562" r:id="rId555" xr:uid="{00000000-0004-0000-0000-00002F020000}"/>
-    <hyperlink ref="P563" r:id="rId556" xr:uid="{00000000-0004-0000-0000-000030020000}"/>
-    <hyperlink ref="P564" r:id="rId557" xr:uid="{00000000-0004-0000-0000-000031020000}"/>
-    <hyperlink ref="P565" r:id="rId558" xr:uid="{00000000-0004-0000-0000-000032020000}"/>
-    <hyperlink ref="P566" r:id="rId559" xr:uid="{00000000-0004-0000-0000-000033020000}"/>
-    <hyperlink ref="P567" r:id="rId560" xr:uid="{00000000-0004-0000-0000-000034020000}"/>
-    <hyperlink ref="P568" r:id="rId561" xr:uid="{00000000-0004-0000-0000-000035020000}"/>
-    <hyperlink ref="P569" r:id="rId562" xr:uid="{00000000-0004-0000-0000-000036020000}"/>
-    <hyperlink ref="P570" r:id="rId563" xr:uid="{00000000-0004-0000-0000-000037020000}"/>
-    <hyperlink ref="P571" r:id="rId564" xr:uid="{00000000-0004-0000-0000-000038020000}"/>
-    <hyperlink ref="P572" r:id="rId565" xr:uid="{00000000-0004-0000-0000-000039020000}"/>
-    <hyperlink ref="P573" r:id="rId566" xr:uid="{00000000-0004-0000-0000-00003A020000}"/>
-    <hyperlink ref="P574" r:id="rId567" xr:uid="{00000000-0004-0000-0000-00003B020000}"/>
-    <hyperlink ref="P575" r:id="rId568" xr:uid="{00000000-0004-0000-0000-00003C020000}"/>
-    <hyperlink ref="P576" r:id="rId569" xr:uid="{00000000-0004-0000-0000-00003D020000}"/>
-    <hyperlink ref="P577" r:id="rId570" xr:uid="{00000000-0004-0000-0000-00003E020000}"/>
-    <hyperlink ref="P578" r:id="rId571" xr:uid="{00000000-0004-0000-0000-00003F020000}"/>
-    <hyperlink ref="P579" r:id="rId572" xr:uid="{00000000-0004-0000-0000-000040020000}"/>
-    <hyperlink ref="P580" r:id="rId573" xr:uid="{00000000-0004-0000-0000-000041020000}"/>
-    <hyperlink ref="P581" r:id="rId574" xr:uid="{00000000-0004-0000-0000-000042020000}"/>
-    <hyperlink ref="P582" r:id="rId575" xr:uid="{00000000-0004-0000-0000-000043020000}"/>
-    <hyperlink ref="P583" r:id="rId576" xr:uid="{00000000-0004-0000-0000-000044020000}"/>
-    <hyperlink ref="P584" r:id="rId577" xr:uid="{00000000-0004-0000-0000-000045020000}"/>
-    <hyperlink ref="P585" r:id="rId578" xr:uid="{00000000-0004-0000-0000-000046020000}"/>
-    <hyperlink ref="P586" r:id="rId579" xr:uid="{00000000-0004-0000-0000-000047020000}"/>
-    <hyperlink ref="P587" r:id="rId580" xr:uid="{00000000-0004-0000-0000-000048020000}"/>
-    <hyperlink ref="P588" r:id="rId581" xr:uid="{00000000-0004-0000-0000-000049020000}"/>
-    <hyperlink ref="P589" r:id="rId582" xr:uid="{00000000-0004-0000-0000-00004A020000}"/>
-    <hyperlink ref="P590" r:id="rId583" xr:uid="{00000000-0004-0000-0000-00004B020000}"/>
-    <hyperlink ref="P591" r:id="rId584" xr:uid="{00000000-0004-0000-0000-00004C020000}"/>
-    <hyperlink ref="P592" r:id="rId585" xr:uid="{00000000-0004-0000-0000-00004D020000}"/>
-    <hyperlink ref="P593" r:id="rId586" xr:uid="{00000000-0004-0000-0000-00004E020000}"/>
-    <hyperlink ref="P594" r:id="rId587" xr:uid="{00000000-0004-0000-0000-00004F020000}"/>
-    <hyperlink ref="P595" r:id="rId588" xr:uid="{00000000-0004-0000-0000-000050020000}"/>
-    <hyperlink ref="P596" r:id="rId589" xr:uid="{00000000-0004-0000-0000-000051020000}"/>
-    <hyperlink ref="P597" r:id="rId590" xr:uid="{00000000-0004-0000-0000-000052020000}"/>
-    <hyperlink ref="P598" r:id="rId591" xr:uid="{00000000-0004-0000-0000-000053020000}"/>
-    <hyperlink ref="P599" r:id="rId592" xr:uid="{00000000-0004-0000-0000-000054020000}"/>
-    <hyperlink ref="P600" r:id="rId593" xr:uid="{00000000-0004-0000-0000-000055020000}"/>
-    <hyperlink ref="P601" r:id="rId594" xr:uid="{00000000-0004-0000-0000-000056020000}"/>
-    <hyperlink ref="P602" r:id="rId595" xr:uid="{00000000-0004-0000-0000-000057020000}"/>
-    <hyperlink ref="P603" r:id="rId596" xr:uid="{00000000-0004-0000-0000-000058020000}"/>
-    <hyperlink ref="P604" r:id="rId597" xr:uid="{00000000-0004-0000-0000-000059020000}"/>
-    <hyperlink ref="P605" r:id="rId598" xr:uid="{00000000-0004-0000-0000-00005A020000}"/>
-    <hyperlink ref="P606" r:id="rId599" xr:uid="{00000000-0004-0000-0000-00005B020000}"/>
-    <hyperlink ref="P607" r:id="rId600" xr:uid="{00000000-0004-0000-0000-00005C020000}"/>
-    <hyperlink ref="P608" r:id="rId601" xr:uid="{00000000-0004-0000-0000-00005D020000}"/>
-    <hyperlink ref="P148" r:id="rId602" xr:uid="{32E39374-F929-402C-9450-D1267E2F204C}"/>
-    <hyperlink ref="P399" r:id="rId603" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="P400" r:id="rId604" xr:uid="{2AB82485-73BC-4FA4-80C9-24FDE180DE05}"/>
-    <hyperlink ref="P422:P424" r:id="rId605" display="https://www.osfc.ac.uk/courses/digital-t-level/" xr:uid="{5F95BC6B-E320-42B3-9AAA-E18B5D75E9BE}"/>
+    <hyperlink ref="P563" r:id="rId554" xr:uid="{00000000-0004-0000-0000-000030020000}"/>
+    <hyperlink ref="P564" r:id="rId555" xr:uid="{00000000-0004-0000-0000-000031020000}"/>
+    <hyperlink ref="P565" r:id="rId556" xr:uid="{00000000-0004-0000-0000-000032020000}"/>
+    <hyperlink ref="P566" r:id="rId557" xr:uid="{00000000-0004-0000-0000-000033020000}"/>
+    <hyperlink ref="P567" r:id="rId558" xr:uid="{00000000-0004-0000-0000-000034020000}"/>
+    <hyperlink ref="P568" r:id="rId559" xr:uid="{00000000-0004-0000-0000-000035020000}"/>
+    <hyperlink ref="P569" r:id="rId560" xr:uid="{00000000-0004-0000-0000-000036020000}"/>
+    <hyperlink ref="P570" r:id="rId561" xr:uid="{00000000-0004-0000-0000-000037020000}"/>
+    <hyperlink ref="P571" r:id="rId562" xr:uid="{00000000-0004-0000-0000-000038020000}"/>
+    <hyperlink ref="P572" r:id="rId563" xr:uid="{00000000-0004-0000-0000-000039020000}"/>
+    <hyperlink ref="P573" r:id="rId564" xr:uid="{00000000-0004-0000-0000-00003A020000}"/>
+    <hyperlink ref="P574" r:id="rId565" xr:uid="{00000000-0004-0000-0000-00003B020000}"/>
+    <hyperlink ref="P575" r:id="rId566" xr:uid="{00000000-0004-0000-0000-00003C020000}"/>
+    <hyperlink ref="P576" r:id="rId567" xr:uid="{00000000-0004-0000-0000-00003D020000}"/>
+    <hyperlink ref="P577" r:id="rId568" xr:uid="{00000000-0004-0000-0000-00003E020000}"/>
+    <hyperlink ref="P578" r:id="rId569" xr:uid="{00000000-0004-0000-0000-00003F020000}"/>
+    <hyperlink ref="P579" r:id="rId570" xr:uid="{00000000-0004-0000-0000-000040020000}"/>
+    <hyperlink ref="P580" r:id="rId571" xr:uid="{00000000-0004-0000-0000-000041020000}"/>
+    <hyperlink ref="P581" r:id="rId572" xr:uid="{00000000-0004-0000-0000-000042020000}"/>
+    <hyperlink ref="P582" r:id="rId573" xr:uid="{00000000-0004-0000-0000-000043020000}"/>
+    <hyperlink ref="P583" r:id="rId574" xr:uid="{00000000-0004-0000-0000-000044020000}"/>
+    <hyperlink ref="P584" r:id="rId575" xr:uid="{00000000-0004-0000-0000-000045020000}"/>
+    <hyperlink ref="P585" r:id="rId576" xr:uid="{00000000-0004-0000-0000-000046020000}"/>
+    <hyperlink ref="P586" r:id="rId577" xr:uid="{00000000-0004-0000-0000-000047020000}"/>
+    <hyperlink ref="P587" r:id="rId578" xr:uid="{00000000-0004-0000-0000-000048020000}"/>
+    <hyperlink ref="P588" r:id="rId579" xr:uid="{00000000-0004-0000-0000-000049020000}"/>
+    <hyperlink ref="P589" r:id="rId580" xr:uid="{00000000-0004-0000-0000-00004A020000}"/>
+    <hyperlink ref="P590" r:id="rId581" xr:uid="{00000000-0004-0000-0000-00004B020000}"/>
+    <hyperlink ref="P591" r:id="rId582" xr:uid="{00000000-0004-0000-0000-00004C020000}"/>
+    <hyperlink ref="P592" r:id="rId583" xr:uid="{00000000-0004-0000-0000-00004D020000}"/>
+    <hyperlink ref="P593" r:id="rId584" xr:uid="{00000000-0004-0000-0000-00004E020000}"/>
+    <hyperlink ref="P594" r:id="rId585" xr:uid="{00000000-0004-0000-0000-00004F020000}"/>
+    <hyperlink ref="P595" r:id="rId586" xr:uid="{00000000-0004-0000-0000-000050020000}"/>
+    <hyperlink ref="P596" r:id="rId587" xr:uid="{00000000-0004-0000-0000-000051020000}"/>
+    <hyperlink ref="P597" r:id="rId588" xr:uid="{00000000-0004-0000-0000-000052020000}"/>
+    <hyperlink ref="P598" r:id="rId589" xr:uid="{00000000-0004-0000-0000-000053020000}"/>
+    <hyperlink ref="P599" r:id="rId590" xr:uid="{00000000-0004-0000-0000-000054020000}"/>
+    <hyperlink ref="P600" r:id="rId591" xr:uid="{00000000-0004-0000-0000-000055020000}"/>
+    <hyperlink ref="P601" r:id="rId592" xr:uid="{00000000-0004-0000-0000-000056020000}"/>
+    <hyperlink ref="P602" r:id="rId593" xr:uid="{00000000-0004-0000-0000-000057020000}"/>
+    <hyperlink ref="P603" r:id="rId594" xr:uid="{00000000-0004-0000-0000-000058020000}"/>
+    <hyperlink ref="P604" r:id="rId595" xr:uid="{00000000-0004-0000-0000-000059020000}"/>
+    <hyperlink ref="P605" r:id="rId596" xr:uid="{00000000-0004-0000-0000-00005A020000}"/>
+    <hyperlink ref="P606" r:id="rId597" xr:uid="{00000000-0004-0000-0000-00005B020000}"/>
+    <hyperlink ref="P607" r:id="rId598" xr:uid="{00000000-0004-0000-0000-00005C020000}"/>
+    <hyperlink ref="P608" r:id="rId599" xr:uid="{00000000-0004-0000-0000-00005D020000}"/>
+    <hyperlink ref="P148" r:id="rId600" xr:uid="{32E39374-F929-402C-9450-D1267E2F204C}"/>
+    <hyperlink ref="P399" r:id="rId601" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="P400" r:id="rId602" xr:uid="{2AB82485-73BC-4FA4-80C9-24FDE180DE05}"/>
+    <hyperlink ref="P422:P424" r:id="rId603" display="https://www.osfc.ac.uk/courses/digital-t-level/" xr:uid="{5F95BC6B-E320-42B3-9AAA-E18B5D75E9BE}"/>
+    <hyperlink ref="P561:P562" r:id="rId604" display="https://www.wakefield.ac.uk/study-with-us/school-leavers/t-levels" xr:uid="{DC28D138-C018-4C84-81C2-1ED512EA2C1F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId606"/>
+  <pageSetup orientation="portrait" r:id="rId605"/>
 </worksheet>
 </file>
--- a/sfa.Tl.Marketing.Communication.DataLoad/Provider Data/Full Provider Data 2020 - 2021 (campaign site).xlsx
+++ b/sfa.Tl.Marketing.Communication.DataLoad/Provider Data/Full Provider Data 2020 - 2021 (campaign site).xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\esfa\tl-marketing-and-communication\sfa.Tl.Marketing.Communication.DataLoad\Provider Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0A3049-796F-42B4-B107-A4CBB3B5D918}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D7C85E-E39C-4E98-8E00-A83D3ECC22EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60960" yWindow="1710" windowWidth="19125" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="2940" windowWidth="31860" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Provider Data 2020 - 2021" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Full Provider Data 2020 - 2021'!$A$1:$P$608</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Full Provider Data 2020 - 2021'!$A$1:$P$607</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8605" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8591" uniqueCount="593">
   <si>
     <t>Provider Name</t>
   </si>
@@ -1496,12 +1496,6 @@
   </si>
   <si>
     <t>https://cwa.ac.uk/</t>
-  </si>
-  <si>
-    <t>PE13 2JE</t>
-  </si>
-  <si>
-    <t>Fenland</t>
   </si>
   <si>
     <t>The Leigh University Technical College</t>
@@ -2191,11 +2185,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P608"/>
+  <dimension ref="A1:P607"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <pane ySplit="1" topLeftCell="A508" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N530" sqref="N530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2228,7 +2222,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -2302,7 +2296,7 @@
         <v>2021</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2349,7 +2343,7 @@
         <v>2021</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2396,7 +2390,7 @@
         <v>2021</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2443,7 +2437,7 @@
         <v>2021</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2490,7 +2484,7 @@
         <v>2021</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2537,7 +2531,7 @@
         <v>2021</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5552,7 +5546,7 @@
         <v>2021</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="71" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -5599,7 +5593,7 @@
         <v>2021</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -5646,7 +5640,7 @@
         <v>2021</v>
       </c>
       <c r="P72" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -5693,7 +5687,7 @@
         <v>2021</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -5740,7 +5734,7 @@
         <v>2021</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -5787,7 +5781,7 @@
         <v>2021</v>
       </c>
       <c r="P75" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -5834,7 +5828,7 @@
         <v>2021</v>
       </c>
       <c r="P76" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -5881,7 +5875,7 @@
         <v>2021</v>
       </c>
       <c r="P77" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -5928,7 +5922,7 @@
         <v>2021</v>
       </c>
       <c r="P78" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -5975,7 +5969,7 @@
         <v>2021</v>
       </c>
       <c r="P79" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -6022,7 +6016,7 @@
         <v>2021</v>
       </c>
       <c r="P80" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -6069,7 +6063,7 @@
         <v>2021</v>
       </c>
       <c r="P81" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -6116,7 +6110,7 @@
         <v>2021</v>
       </c>
       <c r="P82" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -6163,7 +6157,7 @@
         <v>2021</v>
       </c>
       <c r="P83" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -8352,7 +8346,7 @@
         <v>2020</v>
       </c>
       <c r="P129" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="130" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -8399,7 +8393,7 @@
         <v>2021</v>
       </c>
       <c r="P130" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="131" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -8446,7 +8440,7 @@
         <v>2021</v>
       </c>
       <c r="P131" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="132" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -8493,7 +8487,7 @@
         <v>2020</v>
       </c>
       <c r="P132" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="133" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -8540,7 +8534,7 @@
         <v>2021</v>
       </c>
       <c r="P133" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="134" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -8587,7 +8581,7 @@
         <v>2020</v>
       </c>
       <c r="P134" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="135" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -8634,7 +8628,7 @@
         <v>2021</v>
       </c>
       <c r="P135" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="136" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -8681,7 +8675,7 @@
         <v>2021</v>
       </c>
       <c r="P136" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="137" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -8731,7 +8725,7 @@
         <v>2020</v>
       </c>
       <c r="P137" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="138" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -18675,7 +18669,7 @@
         <v>2021</v>
       </c>
       <c r="P346" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="347" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -18722,7 +18716,7 @@
         <v>2021</v>
       </c>
       <c r="P347" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="348" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -18769,7 +18763,7 @@
         <v>2021</v>
       </c>
       <c r="P348" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="349" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -18816,7 +18810,7 @@
         <v>2021</v>
       </c>
       <c r="P349" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="350" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -18863,7 +18857,7 @@
         <v>2021</v>
       </c>
       <c r="P350" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="351" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -18910,7 +18904,7 @@
         <v>2021</v>
       </c>
       <c r="P351" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="352" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -18957,7 +18951,7 @@
         <v>2021</v>
       </c>
       <c r="P352" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="353" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -19004,7 +18998,7 @@
         <v>2021</v>
       </c>
       <c r="P353" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="354" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -19051,7 +19045,7 @@
         <v>2021</v>
       </c>
       <c r="P354" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="355" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -19098,7 +19092,7 @@
         <v>2021</v>
       </c>
       <c r="P355" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="356" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -21184,7 +21178,7 @@
         <v>2020</v>
       </c>
       <c r="P399" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="400" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -21231,7 +21225,7 @@
         <v>2021</v>
       </c>
       <c r="P400" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="401" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -22218,7 +22212,7 @@
         <v>2021</v>
       </c>
       <c r="P421" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="422" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -22265,7 +22259,7 @@
         <v>2021</v>
       </c>
       <c r="P422" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="423" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -22312,7 +22306,7 @@
         <v>2020</v>
       </c>
       <c r="P423" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="424" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -22359,7 +22353,7 @@
         <v>2021</v>
       </c>
       <c r="P424" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="425" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -27308,10 +27302,10 @@
         <v>487</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E530" s="2" t="s">
         <v>19</v>
@@ -27332,7 +27326,7 @@
         <v>19</v>
       </c>
       <c r="K530" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L530" s="2" t="s">
         <v>19</v>
@@ -27341,7 +27335,7 @@
         <v>19</v>
       </c>
       <c r="N530" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O530" s="2">
         <v>2021</v>
@@ -27352,16 +27346,16 @@
     </row>
     <row r="531" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A531" s="2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E531" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F531" s="2" t="s">
         <v>19</v>
@@ -27382,7 +27376,7 @@
         <v>19</v>
       </c>
       <c r="L531" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M531" s="2" t="s">
         <v>19</v>
@@ -27391,30 +27385,30 @@
         <v>19</v>
       </c>
       <c r="O531" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P531" s="3" t="s">
-        <v>490</v>
+        <v>2020</v>
+      </c>
+      <c r="P531" s="4" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="532" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A532" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D532" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C532" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="D532" s="2" t="s">
-        <v>495</v>
-      </c>
       <c r="E532" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F532" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G532" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H532" s="2" t="s">
         <v>19</v>
@@ -27438,30 +27432,33 @@
         <v>19</v>
       </c>
       <c r="O532" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P532" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="533" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A533" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E533" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F533" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G533" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H533" s="2" t="s">
         <v>19</v>
@@ -27487,22 +27484,22 @@
       <c r="O533" s="2">
         <v>2021</v>
       </c>
-      <c r="P533" s="4" t="s">
-        <v>589</v>
+      <c r="P533" s="3" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="534" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A534" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E534" s="2" t="s">
         <v>18</v>
@@ -27538,30 +27535,30 @@
         <v>2021</v>
       </c>
       <c r="P534" s="3" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="535" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A535" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C535" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B535" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="C535" s="2" t="s">
-        <v>502</v>
-      </c>
       <c r="D535" s="2" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="E535" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F535" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G535" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H535" s="2" t="s">
         <v>19</v>
@@ -27588,122 +27585,122 @@
         <v>2021</v>
       </c>
       <c r="P535" s="3" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="536" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A536" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C536" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B536" s="2" t="s">
+      <c r="D536" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C536" s="2" t="s">
+      <c r="E536" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F536" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G536" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H536" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I536" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J536" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K536" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L536" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M536" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N536" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O536" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P536" s="3" t="s">
         <v>498</v>
-      </c>
-      <c r="D536" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="E536" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F536" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G536" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H536" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I536" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J536" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K536" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L536" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M536" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N536" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O536" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P536" s="3" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="537" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A537" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B537" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C537" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D537" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C537" s="2" t="s">
+      <c r="E537" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F537" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G537" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H537" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I537" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J537" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K537" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L537" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M537" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N537" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O537" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P537" s="3" t="s">
         <v>498</v>
-      </c>
-      <c r="D537" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="E537" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F537" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G537" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H537" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I537" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J537" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K537" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L537" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M537" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N537" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O537" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P537" s="3" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="538" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A538" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B538" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C538" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D538" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C538" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="D538" s="2" t="s">
-        <v>499</v>
-      </c>
       <c r="E538" s="2" t="s">
         <v>19</v>
       </c>
@@ -27723,13 +27720,13 @@
         <v>19</v>
       </c>
       <c r="K538" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L538" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M538" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N538" s="2" t="s">
         <v>19</v>
@@ -27738,21 +27735,21 @@
         <v>2021</v>
       </c>
       <c r="P538" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="539" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A539" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E539" s="2" t="s">
         <v>19</v>
@@ -27788,71 +27785,68 @@
         <v>2021</v>
       </c>
       <c r="P539" s="3" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="540" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A540" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B540" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D540" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C540" s="2" t="s">
+      <c r="E540" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F540" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G540" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H540" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I540" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J540" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K540" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L540" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M540" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N540" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O540" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P540" s="3" t="s">
         <v>502</v>
-      </c>
-      <c r="D540" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="E540" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F540" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G540" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H540" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I540" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J540" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K540" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L540" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M540" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N540" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O540" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P540" s="3" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="541" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A541" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="B541" s="2" t="s">
-        <v>501</v>
+        <v>588</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>502</v>
+        <v>547</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>503</v>
+        <v>548</v>
       </c>
       <c r="E541" s="2" t="s">
         <v>19</v>
@@ -27864,7 +27858,7 @@
         <v>19</v>
       </c>
       <c r="H541" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I541" s="2" t="s">
         <v>19</v>
@@ -27882,27 +27876,27 @@
         <v>19</v>
       </c>
       <c r="N541" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O541" s="2">
         <v>2021</v>
       </c>
-      <c r="P541" s="3" t="s">
-        <v>504</v>
+      <c r="P541" s="4" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="542" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A542" s="2" t="s">
-        <v>590</v>
+        <v>505</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>549</v>
+        <v>506</v>
       </c>
       <c r="D542" s="2" t="s">
-        <v>550</v>
+        <v>507</v>
       </c>
       <c r="E542" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F542" s="2" t="s">
         <v>19</v>
@@ -27911,7 +27905,7 @@
         <v>19</v>
       </c>
       <c r="H542" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I542" s="2" t="s">
         <v>19</v>
@@ -27932,24 +27926,24 @@
         <v>19</v>
       </c>
       <c r="O542" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P542" s="4" t="s">
-        <v>593</v>
+        <v>2020</v>
+      </c>
+      <c r="P542" s="3" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="543" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A543" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C543" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D543" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C543" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="D543" s="2" t="s">
-        <v>509</v>
-      </c>
       <c r="E543" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F543" s="2" t="s">
         <v>19</v>
@@ -27967,7 +27961,7 @@
         <v>19</v>
       </c>
       <c r="K543" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L543" s="2" t="s">
         <v>19</v>
@@ -27982,18 +27976,21 @@
         <v>2020</v>
       </c>
       <c r="P543" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="544" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A544" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>510</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E544" s="2" t="s">
         <v>19</v>
@@ -28002,7 +27999,7 @@
         <v>19</v>
       </c>
       <c r="G544" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H544" s="2" t="s">
         <v>19</v>
@@ -28014,7 +28011,7 @@
         <v>19</v>
       </c>
       <c r="K544" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L544" s="2" t="s">
         <v>19</v>
@@ -28026,74 +28023,74 @@
         <v>19</v>
       </c>
       <c r="O544" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P544" s="3" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="545" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A545" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C545" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B545" s="2" t="s">
+      <c r="D545" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="C545" s="2" t="s">
+      <c r="E545" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F545" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G545" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H545" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I545" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J545" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K545" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L545" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M545" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N545" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O545" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P545" s="3" t="s">
         <v>513</v>
-      </c>
-      <c r="D545" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="E545" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F545" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G545" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H545" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I545" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J545" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K545" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L545" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M545" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N545" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O545" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P545" s="3" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="546" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A546" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E546" s="2" t="s">
         <v>19</v>
@@ -28108,13 +28105,13 @@
         <v>19</v>
       </c>
       <c r="I546" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J546" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K546" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L546" s="2" t="s">
         <v>19</v>
@@ -28129,21 +28126,21 @@
         <v>2021</v>
       </c>
       <c r="P546" s="3" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="547" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A547" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C547" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B547" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="C547" s="2" t="s">
-        <v>517</v>
-      </c>
       <c r="D547" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="E547" s="2" t="s">
         <v>19</v>
@@ -28164,13 +28161,13 @@
         <v>19</v>
       </c>
       <c r="K547" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L547" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M547" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N547" s="2" t="s">
         <v>19</v>
@@ -28179,24 +28176,21 @@
         <v>2021</v>
       </c>
       <c r="P547" s="3" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="548" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A548" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="B548" s="2" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E548" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F548" s="2" t="s">
         <v>19</v>
@@ -28220,403 +28214,403 @@
         <v>19</v>
       </c>
       <c r="M548" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N548" s="2" t="s">
         <v>19</v>
       </c>
       <c r="O548" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P548" s="3" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="549" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A549" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C549" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D549" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C549" s="2" t="s">
+      <c r="E549" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F549" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G549" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H549" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I549" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J549" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K549" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L549" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M549" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N549" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O549" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P549" s="3" t="s">
         <v>521</v>
-      </c>
-      <c r="D549" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="E549" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F549" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G549" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H549" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I549" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J549" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K549" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L549" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M549" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N549" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O549" s="2">
-        <v>2020</v>
-      </c>
-      <c r="P549" s="3" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="550" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A550" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C550" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D550" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C550" s="2" t="s">
+      <c r="E550" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F550" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G550" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H550" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I550" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J550" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K550" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L550" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M550" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N550" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O550" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P550" s="3" t="s">
         <v>521</v>
-      </c>
-      <c r="D550" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="E550" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F550" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G550" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H550" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I550" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J550" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K550" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L550" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M550" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N550" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O550" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P550" s="3" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="551" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A551" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C551" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D551" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C551" s="2" t="s">
+      <c r="E551" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F551" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G551" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H551" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I551" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J551" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K551" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L551" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M551" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N551" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O551" s="2">
+        <v>2020</v>
+      </c>
+      <c r="P551" s="3" t="s">
         <v>521</v>
-      </c>
-      <c r="D551" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="E551" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F551" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G551" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H551" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I551" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J551" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K551" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L551" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M551" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N551" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O551" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P551" s="3" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="552" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A552" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C552" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D552" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C552" s="2" t="s">
+      <c r="E552" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F552" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G552" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H552" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I552" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J552" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K552" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L552" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M552" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N552" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O552" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P552" s="3" t="s">
         <v>521</v>
-      </c>
-      <c r="D552" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="E552" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F552" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G552" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H552" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I552" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J552" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K552" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L552" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M552" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N552" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O552" s="2">
-        <v>2020</v>
-      </c>
-      <c r="P552" s="3" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="553" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A553" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C553" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D553" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C553" s="2" t="s">
+      <c r="E553" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F553" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G553" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H553" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I553" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J553" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K553" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L553" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M553" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N553" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O553" s="2">
+        <v>2020</v>
+      </c>
+      <c r="P553" s="3" t="s">
         <v>521</v>
-      </c>
-      <c r="D553" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="E553" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F553" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G553" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H553" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I553" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J553" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K553" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L553" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M553" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N553" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O553" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P553" s="3" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="554" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A554" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C554" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D554" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C554" s="2" t="s">
+      <c r="E554" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F554" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G554" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H554" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I554" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J554" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K554" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L554" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M554" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N554" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O554" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P554" s="3" t="s">
         <v>521</v>
-      </c>
-      <c r="D554" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="E554" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F554" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G554" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H554" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I554" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J554" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K554" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L554" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M554" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N554" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O554" s="2">
-        <v>2020</v>
-      </c>
-      <c r="P554" s="3" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="555" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A555" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C555" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D555" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C555" s="2" t="s">
+      <c r="E555" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F555" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G555" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H555" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I555" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J555" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K555" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L555" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M555" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N555" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O555" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P555" s="3" t="s">
         <v>521</v>
-      </c>
-      <c r="D555" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="E555" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F555" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G555" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H555" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I555" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J555" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K555" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L555" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M555" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N555" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O555" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P555" s="3" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="556" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A556" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C556" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D556" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C556" s="2" t="s">
+      <c r="E556" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F556" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G556" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H556" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I556" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J556" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K556" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L556" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M556" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N556" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O556" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P556" s="3" t="s">
         <v>521</v>
-      </c>
-      <c r="D556" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="E556" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F556" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G556" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H556" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I556" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J556" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K556" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L556" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M556" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N556" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O556" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P556" s="3" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="557" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A557" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C557" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D557" s="2" t="s">
-        <v>522</v>
+        <v>327</v>
       </c>
       <c r="E557" s="2" t="s">
         <v>19</v>
@@ -28637,7 +28631,7 @@
         <v>19</v>
       </c>
       <c r="K557" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L557" s="2" t="s">
         <v>19</v>
@@ -28646,21 +28640,21 @@
         <v>19</v>
       </c>
       <c r="N557" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O557" s="2">
         <v>2021</v>
       </c>
-      <c r="P557" s="3" t="s">
-        <v>523</v>
+      <c r="P557" s="4" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="558" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A558" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D558" s="2" t="s">
         <v>327</v>
@@ -28684,10 +28678,10 @@
         <v>19</v>
       </c>
       <c r="K558" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L558" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M558" s="2" t="s">
         <v>19</v>
@@ -28699,7 +28693,7 @@
         <v>2021</v>
       </c>
       <c r="P558" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="559" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -28710,10 +28704,10 @@
         <v>525</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>327</v>
+        <v>526</v>
       </c>
       <c r="E559" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F559" s="2" t="s">
         <v>19</v>
@@ -28734,7 +28728,7 @@
         <v>19</v>
       </c>
       <c r="L559" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M559" s="2" t="s">
         <v>19</v>
@@ -28743,30 +28737,30 @@
         <v>19</v>
       </c>
       <c r="O559" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P559" s="4" t="s">
-        <v>586</v>
+        <v>2020</v>
+      </c>
+      <c r="P559" s="3" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="560" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A560" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C560" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D560" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E560" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F560" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G560" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H560" s="2" t="s">
         <v>19</v>
@@ -28790,22 +28784,22 @@
         <v>19</v>
       </c>
       <c r="O560" s="2">
-        <v>2020</v>
-      </c>
-      <c r="P560" s="3" t="s">
-        <v>529</v>
+        <v>2021</v>
+      </c>
+      <c r="P560" s="4" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="561" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A561" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C561" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D561" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="C561" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="D561" s="2" t="s">
-        <v>532</v>
-      </c>
       <c r="E561" s="2" t="s">
         <v>19</v>
       </c>
@@ -28813,10 +28807,10 @@
         <v>19</v>
       </c>
       <c r="G561" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H561" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I561" s="2" t="s">
         <v>19</v>
@@ -28840,19 +28834,19 @@
         <v>2021</v>
       </c>
       <c r="P561" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="562" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A562" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C562" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D562" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="C562" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="D562" s="2" t="s">
-        <v>532</v>
-      </c>
       <c r="E562" s="2" t="s">
         <v>19</v>
       </c>
@@ -28863,7 +28857,7 @@
         <v>19</v>
       </c>
       <c r="H562" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I562" s="2" t="s">
         <v>19</v>
@@ -28872,7 +28866,7 @@
         <v>19</v>
       </c>
       <c r="K562" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L562" s="2" t="s">
         <v>19</v>
@@ -28887,21 +28881,21 @@
         <v>2021</v>
       </c>
       <c r="P562" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="563" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A563" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D563" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E563" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F563" s="2" t="s">
         <v>19</v>
@@ -28919,7 +28913,7 @@
         <v>19</v>
       </c>
       <c r="K563" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L563" s="2" t="s">
         <v>19</v>
@@ -28931,351 +28925,351 @@
         <v>19</v>
       </c>
       <c r="O563" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P563" s="4" t="s">
-        <v>587</v>
+        <v>2020</v>
+      </c>
+      <c r="P563" s="3" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="564" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A564" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C564" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D564" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C564" s="2" t="s">
+      <c r="E564" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F564" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G564" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H564" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I564" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J564" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K564" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L564" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M564" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N564" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O564" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P564" s="3" t="s">
         <v>534</v>
-      </c>
-      <c r="D564" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="E564" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F564" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G564" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H564" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I564" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J564" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K564" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L564" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M564" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N564" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O564" s="2">
-        <v>2020</v>
-      </c>
-      <c r="P564" s="3" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="565" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A565" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C565" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D565" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C565" s="2" t="s">
+      <c r="E565" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F565" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G565" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H565" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I565" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J565" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K565" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L565" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M565" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N565" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O565" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P565" s="3" t="s">
         <v>534</v>
-      </c>
-      <c r="D565" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="E565" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F565" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G565" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H565" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I565" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J565" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K565" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L565" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M565" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N565" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O565" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P565" s="3" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="566" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A566" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C566" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D566" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C566" s="2" t="s">
+      <c r="E566" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F566" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G566" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H566" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I566" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J566" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K566" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L566" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M566" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N566" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O566" s="2">
+        <v>2020</v>
+      </c>
+      <c r="P566" s="3" t="s">
         <v>534</v>
-      </c>
-      <c r="D566" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="E566" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F566" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G566" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H566" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I566" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J566" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K566" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L566" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M566" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N566" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O566" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P566" s="3" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="567" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A567" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C567" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D567" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C567" s="2" t="s">
+      <c r="E567" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F567" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G567" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H567" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I567" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J567" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K567" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L567" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M567" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N567" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O567" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P567" s="3" t="s">
         <v>534</v>
-      </c>
-      <c r="D567" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="E567" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F567" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G567" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H567" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I567" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J567" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K567" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L567" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M567" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N567" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O567" s="2">
-        <v>2020</v>
-      </c>
-      <c r="P567" s="3" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="568" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A568" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C568" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D568" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C568" s="2" t="s">
+      <c r="E568" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F568" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G568" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H568" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I568" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J568" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K568" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L568" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M568" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N568" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O568" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P568" s="3" t="s">
         <v>534</v>
-      </c>
-      <c r="D568" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="E568" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F568" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G568" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H568" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I568" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J568" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K568" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L568" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M568" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N568" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O568" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P568" s="3" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="569" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A569" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C569" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D569" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C569" s="2" t="s">
+      <c r="E569" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F569" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G569" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H569" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I569" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J569" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K569" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L569" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M569" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N569" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O569" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P569" s="3" t="s">
         <v>534</v>
-      </c>
-      <c r="D569" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="E569" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F569" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G569" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H569" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I569" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J569" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K569" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L569" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M569" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N569" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O569" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P569" s="3" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="570" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A570" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C570" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D570" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C570" s="2" t="s">
+      <c r="E570" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F570" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G570" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H570" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I570" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J570" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K570" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L570" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M570" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N570" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O570" s="2">
+        <v>2020</v>
+      </c>
+      <c r="P570" s="3" t="s">
         <v>534</v>
-      </c>
-      <c r="D570" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="E570" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F570" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G570" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H570" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I570" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J570" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K570" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L570" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M570" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N570" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O570" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P570" s="3" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="571" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A571" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C571" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D571" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C571" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="D571" s="2" t="s">
-        <v>535</v>
-      </c>
       <c r="E571" s="2" t="s">
         <v>19</v>
       </c>
@@ -29286,10 +29280,10 @@
         <v>19</v>
       </c>
       <c r="H571" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I571" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J571" s="2" t="s">
         <v>19</v>
@@ -29307,27 +29301,27 @@
         <v>19</v>
       </c>
       <c r="O571" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P571" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="572" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A572" s="2" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C572" s="2" t="s">
         <v>537</v>
       </c>
       <c r="D572" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E572" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F572" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G572" s="2" t="s">
         <v>19</v>
@@ -29336,7 +29330,7 @@
         <v>19</v>
       </c>
       <c r="I572" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J572" s="2" t="s">
         <v>19</v>
@@ -29357,74 +29351,77 @@
         <v>2021</v>
       </c>
       <c r="P572" s="3" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="573" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A573" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C573" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D573" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E573" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F573" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G573" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H573" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I573" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J573" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K573" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L573" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M573" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N573" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O573" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P573" s="3" t="s">
         <v>538</v>
-      </c>
-      <c r="C573" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="D573" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="E573" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F573" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G573" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H573" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I573" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J573" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K573" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L573" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M573" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N573" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O573" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P573" s="3" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="574" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A574" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>540</v>
       </c>
       <c r="C574" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D574" s="2" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="E574" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F574" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G574" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H574" s="2" t="s">
         <v>19</v>
@@ -29451,80 +29448,80 @@
         <v>2021</v>
       </c>
       <c r="P574" s="3" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="575" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A575" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C575" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D575" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E575" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F575" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G575" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H575" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I575" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J575" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K575" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L575" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M575" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N575" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O575" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P575" s="3" t="s">
         <v>543</v>
-      </c>
-      <c r="D575" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="E575" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F575" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G575" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H575" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I575" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J575" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K575" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L575" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M575" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N575" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O575" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P575" s="3" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="576" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A576" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B576" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C576" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D576" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="C576" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="D576" s="2" t="s">
-        <v>548</v>
-      </c>
       <c r="E576" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F576" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G576" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H576" s="2" t="s">
         <v>19</v>
@@ -29551,27 +29548,27 @@
         <v>2021</v>
       </c>
       <c r="P576" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="577" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A577" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B577" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C577" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D577" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="C577" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="D577" s="2" t="s">
-        <v>548</v>
-      </c>
       <c r="E577" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F577" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G577" s="2" t="s">
         <v>19</v>
@@ -29601,30 +29598,27 @@
         <v>2021</v>
       </c>
       <c r="P577" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="578" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A578" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="B578" s="2" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D578" s="2" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="E578" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F578" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G578" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H578" s="2" t="s">
         <v>19</v>
@@ -29651,66 +29645,66 @@
         <v>2021</v>
       </c>
       <c r="P578" s="3" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
     </row>
     <row r="579" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A579" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C579" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D579" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="C579" s="2" t="s">
+      <c r="E579" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F579" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G579" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H579" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I579" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J579" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K579" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L579" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M579" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N579" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O579" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P579" s="3" t="s">
         <v>552</v>
-      </c>
-      <c r="D579" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="E579" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F579" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G579" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H579" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I579" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J579" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K579" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L579" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M579" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N579" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O579" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P579" s="3" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="580" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A580" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C580" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D580" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="C580" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="D580" s="2" t="s">
-        <v>553</v>
-      </c>
       <c r="E580" s="2" t="s">
         <v>19</v>
       </c>
@@ -29730,10 +29724,10 @@
         <v>19</v>
       </c>
       <c r="K580" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L580" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M580" s="2" t="s">
         <v>19</v>
@@ -29745,21 +29739,21 @@
         <v>2021</v>
       </c>
       <c r="P580" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="581" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A581" s="2" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C581" s="2" t="s">
         <v>555</v>
       </c>
       <c r="D581" s="2" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="E581" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F581" s="2" t="s">
         <v>19</v>
@@ -29780,7 +29774,7 @@
         <v>19</v>
       </c>
       <c r="L581" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M581" s="2" t="s">
         <v>19</v>
@@ -29789,24 +29783,24 @@
         <v>19</v>
       </c>
       <c r="O581" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P581" s="3" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="582" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A582" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C582" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D582" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="C582" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="D582" s="2" t="s">
-        <v>558</v>
-      </c>
       <c r="E582" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F582" s="2" t="s">
         <v>19</v>
@@ -29815,7 +29809,7 @@
         <v>19</v>
       </c>
       <c r="H582" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I582" s="2" t="s">
         <v>19</v>
@@ -29839,19 +29833,19 @@
         <v>2020</v>
       </c>
       <c r="P582" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="583" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A583" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C583" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D583" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="C583" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="D583" s="2" t="s">
-        <v>558</v>
-      </c>
       <c r="E583" s="2" t="s">
         <v>19</v>
       </c>
@@ -29862,7 +29856,7 @@
         <v>19</v>
       </c>
       <c r="H583" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I583" s="2" t="s">
         <v>19</v>
@@ -29871,7 +29865,7 @@
         <v>19</v>
       </c>
       <c r="K583" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L583" s="2" t="s">
         <v>19</v>
@@ -29886,19 +29880,19 @@
         <v>2020</v>
       </c>
       <c r="P583" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="584" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A584" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C584" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D584" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="C584" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="D584" s="2" t="s">
-        <v>558</v>
-      </c>
       <c r="E584" s="2" t="s">
         <v>19</v>
       </c>
@@ -29918,10 +29912,10 @@
         <v>19</v>
       </c>
       <c r="K584" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L584" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M584" s="2" t="s">
         <v>19</v>
@@ -29930,21 +29924,21 @@
         <v>19</v>
       </c>
       <c r="O584" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P584" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="585" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A585" s="2" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C585" s="2" t="s">
         <v>561</v>
       </c>
       <c r="D585" s="2" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="E585" s="2" t="s">
         <v>19</v>
@@ -29962,13 +29956,13 @@
         <v>19</v>
       </c>
       <c r="J585" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K585" s="2" t="s">
         <v>19</v>
       </c>
       <c r="L585" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M585" s="2" t="s">
         <v>19</v>
@@ -29980,113 +29974,113 @@
         <v>2021</v>
       </c>
       <c r="P585" s="3" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="586" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A586" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C586" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D586" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="C586" s="2" t="s">
+      <c r="E586" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F586" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G586" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H586" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I586" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J586" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K586" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L586" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M586" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N586" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O586" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P586" s="3" t="s">
         <v>563</v>
-      </c>
-      <c r="D586" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="E586" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F586" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G586" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H586" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I586" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J586" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K586" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L586" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M586" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N586" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O586" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P586" s="3" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="587" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A587" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C587" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D587" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="C587" s="2" t="s">
+      <c r="E587" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F587" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G587" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H587" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I587" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J587" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K587" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L587" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M587" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N587" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O587" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P587" s="3" t="s">
         <v>563</v>
-      </c>
-      <c r="D587" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="E587" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F587" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G587" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H587" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I587" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J587" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K587" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L587" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M587" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N587" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O587" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P587" s="3" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="588" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A588" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C588" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D588" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="C588" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="D588" s="2" t="s">
-        <v>564</v>
-      </c>
       <c r="E588" s="2" t="s">
         <v>19</v>
       </c>
@@ -30106,10 +30100,10 @@
         <v>19</v>
       </c>
       <c r="K588" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L588" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M588" s="2" t="s">
         <v>19</v>
@@ -30121,19 +30115,19 @@
         <v>2021</v>
       </c>
       <c r="P588" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="589" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A589" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C589" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D589" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="C589" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="D589" s="2" t="s">
-        <v>564</v>
-      </c>
       <c r="E589" s="2" t="s">
         <v>19</v>
       </c>
@@ -30156,31 +30150,31 @@
         <v>19</v>
       </c>
       <c r="L589" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M589" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N589" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O589" s="2">
         <v>2021</v>
       </c>
       <c r="P589" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="590" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A590" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C590" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D590" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="C590" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="D590" s="2" t="s">
-        <v>564</v>
-      </c>
       <c r="E590" s="2" t="s">
         <v>19</v>
       </c>
@@ -30203,30 +30197,30 @@
         <v>19</v>
       </c>
       <c r="L590" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M590" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N590" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O590" s="2">
         <v>2021</v>
       </c>
       <c r="P590" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="591" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A591" s="2" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C591" s="2" t="s">
         <v>567</v>
       </c>
       <c r="D591" s="2" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="E591" s="2" t="s">
         <v>19</v>
@@ -30262,21 +30256,21 @@
         <v>2021</v>
       </c>
       <c r="P591" s="3" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="592" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A592" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C592" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D592" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C592" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="D592" s="2" t="s">
-        <v>570</v>
-      </c>
       <c r="E592" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F592" s="2" t="s">
         <v>19</v>
@@ -30297,7 +30291,7 @@
         <v>19</v>
       </c>
       <c r="L592" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M592" s="2" t="s">
         <v>19</v>
@@ -30309,209 +30303,209 @@
         <v>2021</v>
       </c>
       <c r="P592" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="593" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A593" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C593" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D593" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E593" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F593" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G593" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H593" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I593" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J593" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K593" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L593" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M593" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N593" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O593" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P593" s="3" t="s">
         <v>572</v>
-      </c>
-      <c r="C593" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="D593" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="E593" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F593" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G593" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H593" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I593" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J593" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K593" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L593" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M593" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N593" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O593" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P593" s="3" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="594" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A594" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C594" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D594" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E594" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F594" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G594" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H594" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I594" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J594" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K594" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L594" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M594" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N594" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O594" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P594" s="3" t="s">
         <v>572</v>
-      </c>
-      <c r="C594" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="D594" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="E594" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F594" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G594" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H594" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I594" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J594" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K594" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L594" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M594" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N594" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O594" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P594" s="3" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="595" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A595" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C595" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D595" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E595" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F595" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G595" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H595" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I595" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J595" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K595" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L595" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M595" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N595" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O595" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P595" s="3" t="s">
         <v>572</v>
-      </c>
-      <c r="C595" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="D595" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="E595" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F595" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G595" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H595" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I595" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J595" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K595" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L595" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M595" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N595" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O595" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P595" s="3" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="596" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A596" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C596" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D596" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E596" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F596" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G596" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H596" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I596" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J596" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K596" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L596" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M596" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N596" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O596" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P596" s="3" t="s">
         <v>572</v>
-      </c>
-      <c r="C596" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="D596" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="E596" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F596" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G596" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H596" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I596" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J596" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K596" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L596" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M596" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N596" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O596" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P596" s="3" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="597" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A597" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D597" s="2" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="E597" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F597" s="2" t="s">
         <v>19</v>
@@ -30538,309 +30532,309 @@
         <v>19</v>
       </c>
       <c r="N597" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O597" s="2">
         <v>2021</v>
       </c>
       <c r="P597" s="3" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="598" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A598" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C598" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D598" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="C598" s="2" t="s">
+      <c r="E598" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F598" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G598" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H598" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I598" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J598" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K598" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L598" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M598" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N598" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O598" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P598" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="D598" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="E598" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F598" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G598" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H598" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I598" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J598" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K598" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L598" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M598" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N598" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O598" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P598" s="3" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="599" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A599" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C599" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D599" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="C599" s="2" t="s">
+      <c r="E599" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F599" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G599" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H599" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I599" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J599" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K599" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L599" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M599" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N599" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O599" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P599" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="D599" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="E599" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F599" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G599" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H599" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I599" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J599" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K599" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L599" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M599" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N599" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O599" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P599" s="3" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="600" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A600" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C600" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D600" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="C600" s="2" t="s">
+      <c r="E600" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F600" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G600" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H600" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I600" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J600" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K600" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L600" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M600" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N600" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O600" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P600" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="D600" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="E600" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F600" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G600" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H600" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I600" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J600" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K600" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L600" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M600" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N600" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O600" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P600" s="3" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="601" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A601" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C601" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D601" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="C601" s="2" t="s">
+      <c r="E601" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F601" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G601" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H601" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I601" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J601" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K601" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L601" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M601" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N601" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O601" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P601" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="D601" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="E601" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F601" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G601" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H601" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I601" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J601" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K601" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L601" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M601" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N601" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O601" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P601" s="3" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="602" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A602" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C602" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D602" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="C602" s="2" t="s">
+      <c r="E602" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F602" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G602" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H602" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I602" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J602" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K602" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L602" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M602" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N602" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O602" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P602" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="D602" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="E602" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F602" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G602" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H602" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I602" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J602" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K602" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L602" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M602" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N602" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O602" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P602" s="3" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="603" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A603" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C603" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D603" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="C603" s="2" t="s">
+      <c r="E603" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F603" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G603" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H603" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I603" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J603" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K603" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L603" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M603" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N603" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O603" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P603" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="D603" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="E603" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F603" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G603" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H603" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I603" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J603" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K603" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L603" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M603" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N603" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O603" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P603" s="3" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="604" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A604" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C604" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D604" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="E604" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F604" s="2" t="s">
         <v>19</v>
@@ -30867,205 +30861,158 @@
         <v>19</v>
       </c>
       <c r="N604" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O604" s="2">
         <v>2021</v>
       </c>
       <c r="P604" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="605" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A605" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C605" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D605" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="C605" s="2" t="s">
+      <c r="E605" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F605" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G605" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H605" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I605" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J605" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K605" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L605" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M605" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N605" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O605" s="2">
+        <v>2020</v>
+      </c>
+      <c r="P605" s="3" t="s">
         <v>580</v>
-      </c>
-      <c r="D605" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="E605" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F605" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G605" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H605" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I605" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J605" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K605" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L605" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M605" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N605" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O605" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P605" s="3" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="606" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A606" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C606" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D606" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="C606" s="2" t="s">
+      <c r="E606" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F606" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G606" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H606" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I606" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J606" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K606" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L606" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M606" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N606" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O606" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P606" s="3" t="s">
         <v>580</v>
-      </c>
-      <c r="D606" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="E606" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F606" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G606" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H606" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I606" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J606" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K606" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L606" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M606" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N606" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O606" s="2">
-        <v>2020</v>
-      </c>
-      <c r="P606" s="3" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="607" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A607" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C607" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D607" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="C607" s="2" t="s">
+      <c r="E607" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F607" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G607" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H607" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I607" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J607" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K607" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L607" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M607" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N607" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O607" s="2">
+        <v>2021</v>
+      </c>
+      <c r="P607" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="D607" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="E607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K607" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O607" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P607" s="3" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="608" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A608" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="C608" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D608" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="E608" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F608" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G608" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H608" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I608" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J608" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K608" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L608" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M608" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N608" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O608" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P608" s="3" t="s">
-        <v>582</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P608" xr:uid="{126A254E-6DDD-4FAB-8E6C-AEB3E677114A}"/>
+  <autoFilter ref="A1:P607" xr:uid="{126A254E-6DDD-4FAB-8E6C-AEB3E677114A}"/>
   <hyperlinks>
     <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="P8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
@@ -31551,98 +31498,97 @@
     <hyperlink ref="P527" r:id="rId482" xr:uid="{00000000-0004-0000-0000-00000C020000}"/>
     <hyperlink ref="P528" r:id="rId483" xr:uid="{00000000-0004-0000-0000-00000D020000}"/>
     <hyperlink ref="P529" r:id="rId484" xr:uid="{00000000-0004-0000-0000-00000E020000}"/>
-    <hyperlink ref="P530" r:id="rId485" xr:uid="{00000000-0004-0000-0000-00000F020000}"/>
-    <hyperlink ref="P531" r:id="rId486" xr:uid="{00000000-0004-0000-0000-000010020000}"/>
-    <hyperlink ref="P532" r:id="rId487" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
-    <hyperlink ref="P533" r:id="rId488" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
-    <hyperlink ref="P534" r:id="rId489" xr:uid="{00000000-0004-0000-0000-000013020000}"/>
-    <hyperlink ref="P535" r:id="rId490" xr:uid="{00000000-0004-0000-0000-000014020000}"/>
-    <hyperlink ref="P536" r:id="rId491" xr:uid="{00000000-0004-0000-0000-000015020000}"/>
-    <hyperlink ref="P537" r:id="rId492" xr:uid="{00000000-0004-0000-0000-000016020000}"/>
-    <hyperlink ref="P538" r:id="rId493" xr:uid="{00000000-0004-0000-0000-000017020000}"/>
-    <hyperlink ref="P539" r:id="rId494" xr:uid="{00000000-0004-0000-0000-000018020000}"/>
-    <hyperlink ref="P540" r:id="rId495" xr:uid="{00000000-0004-0000-0000-000019020000}"/>
-    <hyperlink ref="P541" r:id="rId496" xr:uid="{00000000-0004-0000-0000-00001A020000}"/>
-    <hyperlink ref="P543" r:id="rId497" xr:uid="{00000000-0004-0000-0000-00001B020000}"/>
-    <hyperlink ref="P544" r:id="rId498" xr:uid="{00000000-0004-0000-0000-00001C020000}"/>
-    <hyperlink ref="P545" r:id="rId499" xr:uid="{00000000-0004-0000-0000-00001D020000}"/>
-    <hyperlink ref="P546" r:id="rId500" xr:uid="{00000000-0004-0000-0000-00001E020000}"/>
-    <hyperlink ref="P547" r:id="rId501" xr:uid="{00000000-0004-0000-0000-00001F020000}"/>
-    <hyperlink ref="P548" r:id="rId502" xr:uid="{00000000-0004-0000-0000-000020020000}"/>
-    <hyperlink ref="P549" r:id="rId503" xr:uid="{00000000-0004-0000-0000-000021020000}"/>
-    <hyperlink ref="P550" r:id="rId504" xr:uid="{00000000-0004-0000-0000-000022020000}"/>
-    <hyperlink ref="P551" r:id="rId505" xr:uid="{00000000-0004-0000-0000-000023020000}"/>
-    <hyperlink ref="P552" r:id="rId506" xr:uid="{00000000-0004-0000-0000-000024020000}"/>
-    <hyperlink ref="P553" r:id="rId507" xr:uid="{00000000-0004-0000-0000-000025020000}"/>
-    <hyperlink ref="P554" r:id="rId508" xr:uid="{00000000-0004-0000-0000-000026020000}"/>
-    <hyperlink ref="P555" r:id="rId509" xr:uid="{00000000-0004-0000-0000-000027020000}"/>
-    <hyperlink ref="P556" r:id="rId510" xr:uid="{00000000-0004-0000-0000-000028020000}"/>
-    <hyperlink ref="P557" r:id="rId511" xr:uid="{00000000-0004-0000-0000-000029020000}"/>
-    <hyperlink ref="P558" r:id="rId512" xr:uid="{00000000-0004-0000-0000-00002A020000}"/>
-    <hyperlink ref="P559" r:id="rId513" xr:uid="{00000000-0004-0000-0000-00002B020000}"/>
-    <hyperlink ref="P560" r:id="rId514" xr:uid="{00000000-0004-0000-0000-00002C020000}"/>
-    <hyperlink ref="P561" r:id="rId515" xr:uid="{00000000-0004-0000-0000-00002D020000}"/>
-    <hyperlink ref="P564" r:id="rId516" xr:uid="{00000000-0004-0000-0000-000030020000}"/>
-    <hyperlink ref="P565" r:id="rId517" xr:uid="{00000000-0004-0000-0000-000031020000}"/>
-    <hyperlink ref="P566" r:id="rId518" xr:uid="{00000000-0004-0000-0000-000032020000}"/>
-    <hyperlink ref="P567" r:id="rId519" xr:uid="{00000000-0004-0000-0000-000033020000}"/>
-    <hyperlink ref="P568" r:id="rId520" xr:uid="{00000000-0004-0000-0000-000034020000}"/>
-    <hyperlink ref="P569" r:id="rId521" xr:uid="{00000000-0004-0000-0000-000035020000}"/>
-    <hyperlink ref="P570" r:id="rId522" xr:uid="{00000000-0004-0000-0000-000036020000}"/>
-    <hyperlink ref="P571" r:id="rId523" xr:uid="{00000000-0004-0000-0000-000037020000}"/>
-    <hyperlink ref="P572" r:id="rId524" xr:uid="{00000000-0004-0000-0000-000038020000}"/>
-    <hyperlink ref="P573" r:id="rId525" xr:uid="{00000000-0004-0000-0000-000039020000}"/>
-    <hyperlink ref="P574" r:id="rId526" xr:uid="{00000000-0004-0000-0000-00003A020000}"/>
-    <hyperlink ref="P575" r:id="rId527" xr:uid="{00000000-0004-0000-0000-00003B020000}"/>
-    <hyperlink ref="P576" r:id="rId528" xr:uid="{00000000-0004-0000-0000-00003C020000}"/>
-    <hyperlink ref="P577" r:id="rId529" xr:uid="{00000000-0004-0000-0000-00003D020000}"/>
-    <hyperlink ref="P578" r:id="rId530" xr:uid="{00000000-0004-0000-0000-00003E020000}"/>
-    <hyperlink ref="P542" r:id="rId531" xr:uid="{00000000-0004-0000-0000-00003F020000}"/>
-    <hyperlink ref="P579" r:id="rId532" xr:uid="{00000000-0004-0000-0000-000040020000}"/>
-    <hyperlink ref="P580" r:id="rId533" xr:uid="{00000000-0004-0000-0000-000041020000}"/>
-    <hyperlink ref="P581" r:id="rId534" xr:uid="{00000000-0004-0000-0000-000042020000}"/>
-    <hyperlink ref="P582" r:id="rId535" xr:uid="{00000000-0004-0000-0000-000043020000}"/>
-    <hyperlink ref="P583" r:id="rId536" xr:uid="{00000000-0004-0000-0000-000044020000}"/>
-    <hyperlink ref="P584" r:id="rId537" xr:uid="{00000000-0004-0000-0000-000045020000}"/>
-    <hyperlink ref="P585" r:id="rId538" xr:uid="{00000000-0004-0000-0000-000046020000}"/>
-    <hyperlink ref="P586" r:id="rId539" xr:uid="{00000000-0004-0000-0000-000047020000}"/>
-    <hyperlink ref="P587" r:id="rId540" xr:uid="{00000000-0004-0000-0000-000048020000}"/>
-    <hyperlink ref="P588" r:id="rId541" xr:uid="{00000000-0004-0000-0000-000049020000}"/>
-    <hyperlink ref="P589" r:id="rId542" xr:uid="{00000000-0004-0000-0000-00004A020000}"/>
-    <hyperlink ref="P590" r:id="rId543" xr:uid="{00000000-0004-0000-0000-00004B020000}"/>
-    <hyperlink ref="P591" r:id="rId544" xr:uid="{00000000-0004-0000-0000-00004C020000}"/>
-    <hyperlink ref="P592" r:id="rId545" xr:uid="{00000000-0004-0000-0000-00004D020000}"/>
-    <hyperlink ref="P593" r:id="rId546" xr:uid="{00000000-0004-0000-0000-00004E020000}"/>
-    <hyperlink ref="P594" r:id="rId547" xr:uid="{00000000-0004-0000-0000-00004F020000}"/>
-    <hyperlink ref="P595" r:id="rId548" xr:uid="{00000000-0004-0000-0000-000050020000}"/>
-    <hyperlink ref="P596" r:id="rId549" xr:uid="{00000000-0004-0000-0000-000051020000}"/>
-    <hyperlink ref="P597" r:id="rId550" xr:uid="{00000000-0004-0000-0000-000052020000}"/>
-    <hyperlink ref="P598" r:id="rId551" xr:uid="{00000000-0004-0000-0000-000053020000}"/>
-    <hyperlink ref="P599" r:id="rId552" xr:uid="{00000000-0004-0000-0000-000054020000}"/>
-    <hyperlink ref="P600" r:id="rId553" xr:uid="{00000000-0004-0000-0000-000055020000}"/>
-    <hyperlink ref="P601" r:id="rId554" xr:uid="{00000000-0004-0000-0000-000056020000}"/>
-    <hyperlink ref="P602" r:id="rId555" xr:uid="{00000000-0004-0000-0000-000057020000}"/>
-    <hyperlink ref="P603" r:id="rId556" xr:uid="{00000000-0004-0000-0000-000058020000}"/>
-    <hyperlink ref="P604" r:id="rId557" xr:uid="{00000000-0004-0000-0000-000059020000}"/>
-    <hyperlink ref="P605" r:id="rId558" xr:uid="{00000000-0004-0000-0000-00005A020000}"/>
-    <hyperlink ref="P606" r:id="rId559" xr:uid="{00000000-0004-0000-0000-00005B020000}"/>
-    <hyperlink ref="P607" r:id="rId560" xr:uid="{00000000-0004-0000-0000-00005C020000}"/>
-    <hyperlink ref="P608" r:id="rId561" xr:uid="{00000000-0004-0000-0000-00005D020000}"/>
-    <hyperlink ref="P148" r:id="rId562" xr:uid="{32E39374-F929-402C-9450-D1267E2F204C}"/>
-    <hyperlink ref="P398" r:id="rId563" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="P399" r:id="rId564" xr:uid="{2AB82485-73BC-4FA4-80C9-24FDE180DE05}"/>
-    <hyperlink ref="P421:P423" r:id="rId565" display="https://www.osfc.ac.uk/courses/digital-t-level/" xr:uid="{5F95BC6B-E320-42B3-9AAA-E18B5D75E9BE}"/>
-    <hyperlink ref="P562:P563" r:id="rId566" display="https://www.wakefield.ac.uk/study-with-us/school-leavers/t-levels" xr:uid="{DC28D138-C018-4C84-81C2-1ED512EA2C1F}"/>
-    <hyperlink ref="P129" r:id="rId567" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="P130:P136" r:id="rId568" display="https://www.ccn.ac.uk/courses/course-types/t-levels/" xr:uid="{E996C264-BEE1-44A8-BE17-3F871668B9AD}"/>
-    <hyperlink ref="P137" r:id="rId569" xr:uid="{3687C7E1-4E02-442D-9219-763E9A929102}"/>
-    <hyperlink ref="P71:P83" r:id="rId570" display="https://www.buckscollegegroup.ac.uk/t-levels/" xr:uid="{5BD0A98C-D9B7-4F3A-9151-5A560FC504D9}"/>
-    <hyperlink ref="P347:P355" r:id="rId571" display="https://www.mbro.ac.uk/school-leavers/t-levels/" xr:uid="{3CAEDD73-A6FC-4771-89BB-5E67F0A55CA0}"/>
-    <hyperlink ref="P424" r:id="rId572" xr:uid="{026D518F-DE89-4B2A-9CF5-B8532D3905CF}"/>
-    <hyperlink ref="P198" r:id="rId573" xr:uid="{2FD4F814-619F-45CF-8B85-5F6B45ABFC64}"/>
-    <hyperlink ref="P3:P7" r:id="rId574" display="https://www.abingdon-witney.ac.uk/t-levels" xr:uid="{6BBC004C-49EB-4F18-9B4C-54136490E2D0}"/>
+    <hyperlink ref="P531" r:id="rId485" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
+    <hyperlink ref="P532" r:id="rId486" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
+    <hyperlink ref="P533" r:id="rId487" xr:uid="{00000000-0004-0000-0000-000013020000}"/>
+    <hyperlink ref="P534" r:id="rId488" xr:uid="{00000000-0004-0000-0000-000014020000}"/>
+    <hyperlink ref="P535" r:id="rId489" xr:uid="{00000000-0004-0000-0000-000015020000}"/>
+    <hyperlink ref="P536" r:id="rId490" xr:uid="{00000000-0004-0000-0000-000016020000}"/>
+    <hyperlink ref="P537" r:id="rId491" xr:uid="{00000000-0004-0000-0000-000017020000}"/>
+    <hyperlink ref="P538" r:id="rId492" xr:uid="{00000000-0004-0000-0000-000018020000}"/>
+    <hyperlink ref="P539" r:id="rId493" xr:uid="{00000000-0004-0000-0000-000019020000}"/>
+    <hyperlink ref="P540" r:id="rId494" xr:uid="{00000000-0004-0000-0000-00001A020000}"/>
+    <hyperlink ref="P542" r:id="rId495" xr:uid="{00000000-0004-0000-0000-00001B020000}"/>
+    <hyperlink ref="P543" r:id="rId496" xr:uid="{00000000-0004-0000-0000-00001C020000}"/>
+    <hyperlink ref="P544" r:id="rId497" xr:uid="{00000000-0004-0000-0000-00001D020000}"/>
+    <hyperlink ref="P545" r:id="rId498" xr:uid="{00000000-0004-0000-0000-00001E020000}"/>
+    <hyperlink ref="P546" r:id="rId499" xr:uid="{00000000-0004-0000-0000-00001F020000}"/>
+    <hyperlink ref="P547" r:id="rId500" xr:uid="{00000000-0004-0000-0000-000020020000}"/>
+    <hyperlink ref="P548" r:id="rId501" xr:uid="{00000000-0004-0000-0000-000021020000}"/>
+    <hyperlink ref="P549" r:id="rId502" xr:uid="{00000000-0004-0000-0000-000022020000}"/>
+    <hyperlink ref="P550" r:id="rId503" xr:uid="{00000000-0004-0000-0000-000023020000}"/>
+    <hyperlink ref="P551" r:id="rId504" xr:uid="{00000000-0004-0000-0000-000024020000}"/>
+    <hyperlink ref="P552" r:id="rId505" xr:uid="{00000000-0004-0000-0000-000025020000}"/>
+    <hyperlink ref="P553" r:id="rId506" xr:uid="{00000000-0004-0000-0000-000026020000}"/>
+    <hyperlink ref="P554" r:id="rId507" xr:uid="{00000000-0004-0000-0000-000027020000}"/>
+    <hyperlink ref="P555" r:id="rId508" xr:uid="{00000000-0004-0000-0000-000028020000}"/>
+    <hyperlink ref="P556" r:id="rId509" xr:uid="{00000000-0004-0000-0000-000029020000}"/>
+    <hyperlink ref="P557" r:id="rId510" xr:uid="{00000000-0004-0000-0000-00002A020000}"/>
+    <hyperlink ref="P558" r:id="rId511" xr:uid="{00000000-0004-0000-0000-00002B020000}"/>
+    <hyperlink ref="P559" r:id="rId512" xr:uid="{00000000-0004-0000-0000-00002C020000}"/>
+    <hyperlink ref="P560" r:id="rId513" xr:uid="{00000000-0004-0000-0000-00002D020000}"/>
+    <hyperlink ref="P563" r:id="rId514" xr:uid="{00000000-0004-0000-0000-000030020000}"/>
+    <hyperlink ref="P564" r:id="rId515" xr:uid="{00000000-0004-0000-0000-000031020000}"/>
+    <hyperlink ref="P565" r:id="rId516" xr:uid="{00000000-0004-0000-0000-000032020000}"/>
+    <hyperlink ref="P566" r:id="rId517" xr:uid="{00000000-0004-0000-0000-000033020000}"/>
+    <hyperlink ref="P567" r:id="rId518" xr:uid="{00000000-0004-0000-0000-000034020000}"/>
+    <hyperlink ref="P568" r:id="rId519" xr:uid="{00000000-0004-0000-0000-000035020000}"/>
+    <hyperlink ref="P569" r:id="rId520" xr:uid="{00000000-0004-0000-0000-000036020000}"/>
+    <hyperlink ref="P570" r:id="rId521" xr:uid="{00000000-0004-0000-0000-000037020000}"/>
+    <hyperlink ref="P571" r:id="rId522" xr:uid="{00000000-0004-0000-0000-000038020000}"/>
+    <hyperlink ref="P572" r:id="rId523" xr:uid="{00000000-0004-0000-0000-000039020000}"/>
+    <hyperlink ref="P573" r:id="rId524" xr:uid="{00000000-0004-0000-0000-00003A020000}"/>
+    <hyperlink ref="P574" r:id="rId525" xr:uid="{00000000-0004-0000-0000-00003B020000}"/>
+    <hyperlink ref="P575" r:id="rId526" xr:uid="{00000000-0004-0000-0000-00003C020000}"/>
+    <hyperlink ref="P576" r:id="rId527" xr:uid="{00000000-0004-0000-0000-00003D020000}"/>
+    <hyperlink ref="P577" r:id="rId528" xr:uid="{00000000-0004-0000-0000-00003E020000}"/>
+    <hyperlink ref="P541" r:id="rId529" xr:uid="{00000000-0004-0000-0000-00003F020000}"/>
+    <hyperlink ref="P578" r:id="rId530" xr:uid="{00000000-0004-0000-0000-000040020000}"/>
+    <hyperlink ref="P579" r:id="rId531" xr:uid="{00000000-0004-0000-0000-000041020000}"/>
+    <hyperlink ref="P580" r:id="rId532" xr:uid="{00000000-0004-0000-0000-000042020000}"/>
+    <hyperlink ref="P581" r:id="rId533" xr:uid="{00000000-0004-0000-0000-000043020000}"/>
+    <hyperlink ref="P582" r:id="rId534" xr:uid="{00000000-0004-0000-0000-000044020000}"/>
+    <hyperlink ref="P583" r:id="rId535" xr:uid="{00000000-0004-0000-0000-000045020000}"/>
+    <hyperlink ref="P584" r:id="rId536" xr:uid="{00000000-0004-0000-0000-000046020000}"/>
+    <hyperlink ref="P585" r:id="rId537" xr:uid="{00000000-0004-0000-0000-000047020000}"/>
+    <hyperlink ref="P586" r:id="rId538" xr:uid="{00000000-0004-0000-0000-000048020000}"/>
+    <hyperlink ref="P587" r:id="rId539" xr:uid="{00000000-0004-0000-0000-000049020000}"/>
+    <hyperlink ref="P588" r:id="rId540" xr:uid="{00000000-0004-0000-0000-00004A020000}"/>
+    <hyperlink ref="P589" r:id="rId541" xr:uid="{00000000-0004-0000-0000-00004B020000}"/>
+    <hyperlink ref="P590" r:id="rId542" xr:uid="{00000000-0004-0000-0000-00004C020000}"/>
+    <hyperlink ref="P591" r:id="rId543" xr:uid="{00000000-0004-0000-0000-00004D020000}"/>
+    <hyperlink ref="P592" r:id="rId544" xr:uid="{00000000-0004-0000-0000-00004E020000}"/>
+    <hyperlink ref="P593" r:id="rId545" xr:uid="{00000000-0004-0000-0000-00004F020000}"/>
+    <hyperlink ref="P594" r:id="rId546" xr:uid="{00000000-0004-0000-0000-000050020000}"/>
+    <hyperlink ref="P595" r:id="rId547" xr:uid="{00000000-0004-0000-0000-000051020000}"/>
+    <hyperlink ref="P596" r:id="rId548" xr:uid="{00000000-0004-0000-0000-000052020000}"/>
+    <hyperlink ref="P597" r:id="rId549" xr:uid="{00000000-0004-0000-0000-000053020000}"/>
+    <hyperlink ref="P598" r:id="rId550" xr:uid="{00000000-0004-0000-0000-000054020000}"/>
+    <hyperlink ref="P599" r:id="rId551" xr:uid="{00000000-0004-0000-0000-000055020000}"/>
+    <hyperlink ref="P600" r:id="rId552" xr:uid="{00000000-0004-0000-0000-000056020000}"/>
+    <hyperlink ref="P601" r:id="rId553" xr:uid="{00000000-0004-0000-0000-000057020000}"/>
+    <hyperlink ref="P602" r:id="rId554" xr:uid="{00000000-0004-0000-0000-000058020000}"/>
+    <hyperlink ref="P603" r:id="rId555" xr:uid="{00000000-0004-0000-0000-000059020000}"/>
+    <hyperlink ref="P604" r:id="rId556" xr:uid="{00000000-0004-0000-0000-00005A020000}"/>
+    <hyperlink ref="P605" r:id="rId557" xr:uid="{00000000-0004-0000-0000-00005B020000}"/>
+    <hyperlink ref="P606" r:id="rId558" xr:uid="{00000000-0004-0000-0000-00005C020000}"/>
+    <hyperlink ref="P607" r:id="rId559" xr:uid="{00000000-0004-0000-0000-00005D020000}"/>
+    <hyperlink ref="P148" r:id="rId560" xr:uid="{32E39374-F929-402C-9450-D1267E2F204C}"/>
+    <hyperlink ref="P398" r:id="rId561" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="P399" r:id="rId562" xr:uid="{2AB82485-73BC-4FA4-80C9-24FDE180DE05}"/>
+    <hyperlink ref="P421:P423" r:id="rId563" display="https://www.osfc.ac.uk/courses/digital-t-level/" xr:uid="{5F95BC6B-E320-42B3-9AAA-E18B5D75E9BE}"/>
+    <hyperlink ref="P561:P562" r:id="rId564" display="https://www.wakefield.ac.uk/study-with-us/school-leavers/t-levels" xr:uid="{DC28D138-C018-4C84-81C2-1ED512EA2C1F}"/>
+    <hyperlink ref="P129" r:id="rId565" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="P130:P136" r:id="rId566" display="https://www.ccn.ac.uk/courses/course-types/t-levels/" xr:uid="{E996C264-BEE1-44A8-BE17-3F871668B9AD}"/>
+    <hyperlink ref="P137" r:id="rId567" xr:uid="{3687C7E1-4E02-442D-9219-763E9A929102}"/>
+    <hyperlink ref="P71:P83" r:id="rId568" display="https://www.buckscollegegroup.ac.uk/t-levels/" xr:uid="{5BD0A98C-D9B7-4F3A-9151-5A560FC504D9}"/>
+    <hyperlink ref="P347:P355" r:id="rId569" display="https://www.mbro.ac.uk/school-leavers/t-levels/" xr:uid="{3CAEDD73-A6FC-4771-89BB-5E67F0A55CA0}"/>
+    <hyperlink ref="P424" r:id="rId570" xr:uid="{026D518F-DE89-4B2A-9CF5-B8532D3905CF}"/>
+    <hyperlink ref="P198" r:id="rId571" xr:uid="{2FD4F814-619F-45CF-8B85-5F6B45ABFC64}"/>
+    <hyperlink ref="P3:P7" r:id="rId572" display="https://www.abingdon-witney.ac.uk/t-levels" xr:uid="{6BBC004C-49EB-4F18-9B4C-54136490E2D0}"/>
+    <hyperlink ref="P530" r:id="rId573" xr:uid="{9411FD01-98CA-43A8-B5A0-A2BA4315C92C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId575"/>
+  <pageSetup orientation="portrait" r:id="rId574"/>
 </worksheet>
 </file>
--- a/sfa.Tl.Marketing.Communication.DataLoad/Provider Data/Full Provider Data 2020 - 2021 (campaign site).xlsx
+++ b/sfa.Tl.Marketing.Communication.DataLoad/Provider Data/Full Provider Data 2020 - 2021 (campaign site).xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\esfa\tl-marketing-and-communication\sfa.Tl.Marketing.Communication.DataLoad\Provider Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D7C85E-E39C-4E98-8E00-A83D3ECC22EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2240910B-C30D-422E-8AD6-8583E9009EBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="2940" windowWidth="31860" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51495" yWindow="915" windowWidth="27210" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Provider Data 2020 - 2021" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Full Provider Data 2020 - 2021'!$A$1:$P$607</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Full Provider Data 2020 - 2021'!$A$1:$P$606</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8591" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8577" uniqueCount="593">
   <si>
     <t>Provider Name</t>
   </si>
@@ -2185,11 +2185,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P607"/>
+  <dimension ref="A1:P606"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A508" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N530" sqref="N530"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13765,10 +13765,10 @@
         <v>19</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J243" s="2" t="s">
         <v>19</v>
@@ -20378,16 +20378,16 @@
     </row>
     <row r="383" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A383" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>178</v>
+        <v>370</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F383" s="2" t="s">
         <v>19</v>
@@ -20402,7 +20402,7 @@
         <v>19</v>
       </c>
       <c r="J383" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K383" s="2" t="s">
         <v>19</v>
@@ -20420,7 +20420,7 @@
         <v>2021</v>
       </c>
       <c r="P383" s="3" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="384" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -20434,7 +20434,7 @@
         <v>370</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F384" s="2" t="s">
         <v>19</v>
@@ -20452,7 +20452,7 @@
         <v>19</v>
       </c>
       <c r="K384" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L384" s="2" t="s">
         <v>19</v>
@@ -20499,10 +20499,10 @@
         <v>19</v>
       </c>
       <c r="K385" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L385" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M385" s="2" t="s">
         <v>19</v>
@@ -20534,7 +20534,7 @@
         <v>19</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H386" s="2" t="s">
         <v>19</v>
@@ -20549,7 +20549,7 @@
         <v>19</v>
       </c>
       <c r="L386" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M386" s="2" t="s">
         <v>19</v>
@@ -20578,10 +20578,10 @@
         <v>19</v>
       </c>
       <c r="F387" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H387" s="2" t="s">
         <v>19</v>
@@ -20613,19 +20613,22 @@
     </row>
     <row r="388" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A388" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E388" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F388" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G388" s="2" t="s">
         <v>19</v>
@@ -20640,7 +20643,7 @@
         <v>19</v>
       </c>
       <c r="K388" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L388" s="2" t="s">
         <v>19</v>
@@ -20655,7 +20658,7 @@
         <v>2021</v>
       </c>
       <c r="P388" s="3" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="389" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -20663,13 +20666,13 @@
         <v>372</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E389" s="2" t="s">
         <v>19</v>
@@ -20710,22 +20713,19 @@
     </row>
     <row r="390" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A390" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B390" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E390" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F390" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G390" s="2" t="s">
         <v>19</v>
@@ -20740,7 +20740,7 @@
         <v>19</v>
       </c>
       <c r="K390" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L390" s="2" t="s">
         <v>19</v>
@@ -20755,7 +20755,7 @@
         <v>2021</v>
       </c>
       <c r="P390" s="3" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="391" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -20763,7 +20763,7 @@
         <v>380</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D391" s="2" t="s">
         <v>382</v>
@@ -20772,7 +20772,7 @@
         <v>19</v>
       </c>
       <c r="F391" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G391" s="2" t="s">
         <v>19</v>
@@ -20790,7 +20790,7 @@
         <v>19</v>
       </c>
       <c r="L391" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M391" s="2" t="s">
         <v>19</v>
@@ -20810,13 +20810,13 @@
         <v>380</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D392" s="2" t="s">
         <v>382</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F392" s="2" t="s">
         <v>19</v>
@@ -20837,7 +20837,7 @@
         <v>19</v>
       </c>
       <c r="L392" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M392" s="2" t="s">
         <v>19</v>
@@ -20863,13 +20863,13 @@
         <v>382</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F393" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H393" s="2" t="s">
         <v>19</v>
@@ -20916,7 +20916,7 @@
         <v>19</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H394" s="2" t="s">
         <v>19</v>
@@ -20934,7 +20934,7 @@
         <v>19</v>
       </c>
       <c r="M394" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N394" s="2" t="s">
         <v>19</v>
@@ -20981,10 +20981,10 @@
         <v>19</v>
       </c>
       <c r="M395" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N395" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O395" s="2">
         <v>2021</v>
@@ -20995,10 +20995,10 @@
     </row>
     <row r="396" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A396" s="2" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D396" s="2" t="s">
         <v>382</v>
@@ -21013,7 +21013,7 @@
         <v>19</v>
       </c>
       <c r="H396" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I396" s="2" t="s">
         <v>19</v>
@@ -21031,13 +21031,13 @@
         <v>19</v>
       </c>
       <c r="N396" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O396" s="2">
         <v>2021</v>
       </c>
       <c r="P396" s="3" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="397" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -21060,7 +21060,7 @@
         <v>19</v>
       </c>
       <c r="H397" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I397" s="2" t="s">
         <v>19</v>
@@ -21069,7 +21069,7 @@
         <v>19</v>
       </c>
       <c r="K397" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L397" s="2" t="s">
         <v>19</v>
@@ -21089,16 +21089,16 @@
     </row>
     <row r="398" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A398" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>382</v>
+        <v>314</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>19</v>
@@ -21116,7 +21116,7 @@
         <v>19</v>
       </c>
       <c r="K398" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L398" s="2" t="s">
         <v>19</v>
@@ -21128,10 +21128,10 @@
         <v>19</v>
       </c>
       <c r="O398" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P398" s="3" t="s">
-        <v>387</v>
+        <v>2020</v>
+      </c>
+      <c r="P398" s="4" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="399" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -21145,7 +21145,7 @@
         <v>314</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F399" s="2" t="s">
         <v>19</v>
@@ -21166,7 +21166,7 @@
         <v>19</v>
       </c>
       <c r="L399" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M399" s="2" t="s">
         <v>19</v>
@@ -21175,7 +21175,7 @@
         <v>19</v>
       </c>
       <c r="O399" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P399" s="4" t="s">
         <v>582</v>
@@ -21183,16 +21183,16 @@
     </row>
     <row r="400" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A400" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>314</v>
+        <v>392</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F400" s="2" t="s">
         <v>19</v>
@@ -21213,7 +21213,7 @@
         <v>19</v>
       </c>
       <c r="L400" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M400" s="2" t="s">
         <v>19</v>
@@ -21224,8 +21224,8 @@
       <c r="O400" s="2">
         <v>2021</v>
       </c>
-      <c r="P400" s="4" t="s">
-        <v>582</v>
+      <c r="P400" s="3" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="401" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -21239,13 +21239,13 @@
         <v>392</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F401" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H401" s="2" t="s">
         <v>19</v>
@@ -21289,10 +21289,10 @@
         <v>19</v>
       </c>
       <c r="F402" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H402" s="2" t="s">
         <v>19</v>
@@ -21336,7 +21336,7 @@
         <v>19</v>
       </c>
       <c r="F403" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G403" s="2" t="s">
         <v>19</v>
@@ -21351,7 +21351,7 @@
         <v>19</v>
       </c>
       <c r="K403" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L403" s="2" t="s">
         <v>19</v>
@@ -21398,10 +21398,10 @@
         <v>19</v>
       </c>
       <c r="K404" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L404" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M404" s="2" t="s">
         <v>19</v>
@@ -21448,10 +21448,10 @@
         <v>19</v>
       </c>
       <c r="L405" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M405" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N405" s="2" t="s">
         <v>19</v>
@@ -21498,10 +21498,10 @@
         <v>19</v>
       </c>
       <c r="M406" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N406" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O406" s="2">
         <v>2021</v>
@@ -21515,7 +21515,7 @@
         <v>390</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D407" s="2" t="s">
         <v>392</v>
@@ -21542,13 +21542,13 @@
         <v>19</v>
       </c>
       <c r="L407" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M407" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N407" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O407" s="2">
         <v>2021</v>
@@ -21589,10 +21589,10 @@
         <v>19</v>
       </c>
       <c r="L408" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M408" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N408" s="2" t="s">
         <v>19</v>
@@ -21639,10 +21639,10 @@
         <v>19</v>
       </c>
       <c r="M409" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N409" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O409" s="2">
         <v>2021</v>
@@ -21653,16 +21653,16 @@
     </row>
     <row r="410" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A410" s="2" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F410" s="2" t="s">
         <v>19</v>
@@ -21689,13 +21689,13 @@
         <v>19</v>
       </c>
       <c r="N410" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O410" s="2">
         <v>2021</v>
       </c>
       <c r="P410" s="3" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="411" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -21709,13 +21709,13 @@
         <v>397</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F411" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H411" s="2" t="s">
         <v>19</v>
@@ -21759,10 +21759,10 @@
         <v>19</v>
       </c>
       <c r="F412" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H412" s="2" t="s">
         <v>19</v>
@@ -21806,13 +21806,13 @@
         <v>19</v>
       </c>
       <c r="F413" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G413" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H413" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I413" s="2" t="s">
         <v>19</v>
@@ -21859,13 +21859,13 @@
         <v>19</v>
       </c>
       <c r="H414" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I414" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J414" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K414" s="2" t="s">
         <v>19</v>
@@ -21909,10 +21909,10 @@
         <v>19</v>
       </c>
       <c r="I415" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J415" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K415" s="2" t="s">
         <v>19</v>
@@ -21956,13 +21956,13 @@
         <v>19</v>
       </c>
       <c r="I416" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J416" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K416" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L416" s="2" t="s">
         <v>19</v>
@@ -22009,10 +22009,10 @@
         <v>19</v>
       </c>
       <c r="K417" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L417" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M417" s="2" t="s">
         <v>19</v>
@@ -22059,10 +22059,10 @@
         <v>19</v>
       </c>
       <c r="L418" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M418" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N418" s="2" t="s">
         <v>19</v>
@@ -22109,10 +22109,10 @@
         <v>19</v>
       </c>
       <c r="M419" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N419" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O419" s="2">
         <v>2021</v>
@@ -22123,10 +22123,10 @@
     </row>
     <row r="420" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A420" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D420" s="2" t="s">
         <v>397</v>
@@ -22153,19 +22153,19 @@
         <v>19</v>
       </c>
       <c r="L420" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M420" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N420" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O420" s="2">
         <v>2021</v>
       </c>
-      <c r="P420" s="3" t="s">
-        <v>398</v>
+      <c r="P420" s="4" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="421" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -22200,10 +22200,10 @@
         <v>19</v>
       </c>
       <c r="L421" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M421" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N421" s="2" t="s">
         <v>19</v>
@@ -22226,7 +22226,7 @@
         <v>397</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F422" s="2" t="s">
         <v>19</v>
@@ -22250,13 +22250,13 @@
         <v>19</v>
       </c>
       <c r="M422" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N422" s="2" t="s">
         <v>19</v>
       </c>
       <c r="O422" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P422" s="4" t="s">
         <v>583</v>
@@ -22273,7 +22273,7 @@
         <v>397</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F423" s="2" t="s">
         <v>19</v>
@@ -22300,10 +22300,10 @@
         <v>19</v>
       </c>
       <c r="N423" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O423" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P423" s="4" t="s">
         <v>583</v>
@@ -22311,16 +22311,16 @@
     </row>
     <row r="424" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A424" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F424" s="2" t="s">
         <v>19</v>
@@ -22347,13 +22347,13 @@
         <v>19</v>
       </c>
       <c r="N424" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O424" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P424" s="4" t="s">
-        <v>583</v>
+        <v>2020</v>
+      </c>
+      <c r="P424" s="3" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="425" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -22367,10 +22367,10 @@
         <v>403</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F425" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G425" s="2" t="s">
         <v>19</v>
@@ -22397,7 +22397,7 @@
         <v>19</v>
       </c>
       <c r="O425" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P425" s="3" t="s">
         <v>404</v>
@@ -22417,7 +22417,7 @@
         <v>19</v>
       </c>
       <c r="F426" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G426" s="2" t="s">
         <v>19</v>
@@ -22435,7 +22435,7 @@
         <v>19</v>
       </c>
       <c r="L426" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M426" s="2" t="s">
         <v>19</v>
@@ -22452,13 +22452,13 @@
     </row>
     <row r="427" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A427" s="2" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E427" s="2" t="s">
         <v>19</v>
@@ -22479,10 +22479,10 @@
         <v>19</v>
       </c>
       <c r="K427" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L427" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M427" s="2" t="s">
         <v>19</v>
@@ -22491,24 +22491,24 @@
         <v>19</v>
       </c>
       <c r="O427" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P427" s="3" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="428" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A428" s="2" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F428" s="2" t="s">
         <v>19</v>
@@ -22526,7 +22526,7 @@
         <v>19</v>
       </c>
       <c r="K428" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L428" s="2" t="s">
         <v>19</v>
@@ -22538,10 +22538,10 @@
         <v>19</v>
       </c>
       <c r="O428" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P428" s="3" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="429" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -22555,13 +22555,13 @@
         <v>411</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G429" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H429" s="2" t="s">
         <v>19</v>
@@ -22605,10 +22605,10 @@
         <v>19</v>
       </c>
       <c r="F430" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H430" s="2" t="s">
         <v>19</v>
@@ -22652,13 +22652,13 @@
         <v>19</v>
       </c>
       <c r="F431" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G431" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H431" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I431" s="2" t="s">
         <v>19</v>
@@ -22705,10 +22705,10 @@
         <v>19</v>
       </c>
       <c r="H432" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I432" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J432" s="2" t="s">
         <v>19</v>
@@ -22755,13 +22755,13 @@
         <v>19</v>
       </c>
       <c r="I433" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J433" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K433" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L433" s="2" t="s">
         <v>19</v>
@@ -22808,10 +22808,10 @@
         <v>19</v>
       </c>
       <c r="K434" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L434" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M434" s="2" t="s">
         <v>19</v>
@@ -22858,10 +22858,10 @@
         <v>19</v>
       </c>
       <c r="L435" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M435" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N435" s="2" t="s">
         <v>19</v>
@@ -22908,10 +22908,10 @@
         <v>19</v>
       </c>
       <c r="M436" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N436" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O436" s="2">
         <v>2021</v>
@@ -22925,13 +22925,13 @@
         <v>409</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F437" s="2" t="s">
         <v>19</v>
@@ -22958,7 +22958,7 @@
         <v>19</v>
       </c>
       <c r="N437" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O437" s="2">
         <v>2021</v>
@@ -22978,13 +22978,13 @@
         <v>414</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F438" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H438" s="2" t="s">
         <v>19</v>
@@ -23028,10 +23028,10 @@
         <v>19</v>
       </c>
       <c r="F439" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H439" s="2" t="s">
         <v>19</v>
@@ -23075,13 +23075,13 @@
         <v>19</v>
       </c>
       <c r="F440" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G440" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H440" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I440" s="2" t="s">
         <v>19</v>
@@ -23128,10 +23128,10 @@
         <v>19</v>
       </c>
       <c r="H441" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I441" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J441" s="2" t="s">
         <v>19</v>
@@ -23178,13 +23178,13 @@
         <v>19</v>
       </c>
       <c r="I442" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J442" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K442" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L442" s="2" t="s">
         <v>19</v>
@@ -23231,10 +23231,10 @@
         <v>19</v>
       </c>
       <c r="K443" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L443" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M443" s="2" t="s">
         <v>19</v>
@@ -23281,10 +23281,10 @@
         <v>19</v>
       </c>
       <c r="L444" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M444" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N444" s="2" t="s">
         <v>19</v>
@@ -23331,10 +23331,10 @@
         <v>19</v>
       </c>
       <c r="M445" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N445" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O445" s="2">
         <v>2021</v>
@@ -23348,13 +23348,13 @@
         <v>409</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F446" s="2" t="s">
         <v>19</v>
@@ -23381,7 +23381,7 @@
         <v>19</v>
       </c>
       <c r="N446" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O446" s="2">
         <v>2021</v>
@@ -23401,13 +23401,13 @@
         <v>411</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F447" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H447" s="2" t="s">
         <v>19</v>
@@ -23451,10 +23451,10 @@
         <v>19</v>
       </c>
       <c r="F448" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H448" s="2" t="s">
         <v>19</v>
@@ -23498,13 +23498,13 @@
         <v>19</v>
       </c>
       <c r="F449" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G449" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H449" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I449" s="2" t="s">
         <v>19</v>
@@ -23551,10 +23551,10 @@
         <v>19</v>
       </c>
       <c r="H450" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I450" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J450" s="2" t="s">
         <v>19</v>
@@ -23601,13 +23601,13 @@
         <v>19</v>
       </c>
       <c r="I451" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J451" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K451" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L451" s="2" t="s">
         <v>19</v>
@@ -23654,10 +23654,10 @@
         <v>19</v>
       </c>
       <c r="K452" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L452" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M452" s="2" t="s">
         <v>19</v>
@@ -23704,10 +23704,10 @@
         <v>19</v>
       </c>
       <c r="L453" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M453" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N453" s="2" t="s">
         <v>19</v>
@@ -23754,10 +23754,10 @@
         <v>19</v>
       </c>
       <c r="M454" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N454" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O454" s="2">
         <v>2021</v>
@@ -23768,13 +23768,13 @@
     </row>
     <row r="455" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A455" s="2" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>411</v>
+        <v>110</v>
       </c>
       <c r="E455" s="2" t="s">
         <v>19</v>
@@ -23786,7 +23786,7 @@
         <v>19</v>
       </c>
       <c r="H455" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I455" s="2" t="s">
         <v>19</v>
@@ -23804,13 +23804,13 @@
         <v>19</v>
       </c>
       <c r="N455" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O455" s="2">
         <v>2021</v>
       </c>
       <c r="P455" s="3" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="456" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -23833,7 +23833,7 @@
         <v>19</v>
       </c>
       <c r="H456" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I456" s="2" t="s">
         <v>19</v>
@@ -23845,7 +23845,7 @@
         <v>19</v>
       </c>
       <c r="L456" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M456" s="2" t="s">
         <v>19</v>
@@ -23892,13 +23892,13 @@
         <v>19</v>
       </c>
       <c r="L457" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M457" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N457" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O457" s="2">
         <v>2021</v>
@@ -23909,16 +23909,16 @@
     </row>
     <row r="458" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A458" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>110</v>
+        <v>421</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F458" s="2" t="s">
         <v>19</v>
@@ -23945,13 +23945,13 @@
         <v>19</v>
       </c>
       <c r="N458" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O458" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P458" s="3" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="459" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -23965,7 +23965,7 @@
         <v>421</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F459" s="2" t="s">
         <v>19</v>
@@ -23983,7 +23983,7 @@
         <v>19</v>
       </c>
       <c r="K459" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L459" s="2" t="s">
         <v>19</v>
@@ -24030,10 +24030,10 @@
         <v>19</v>
       </c>
       <c r="K460" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L460" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M460" s="2" t="s">
         <v>19</v>
@@ -24042,7 +24042,7 @@
         <v>19</v>
       </c>
       <c r="O460" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P460" s="3" t="s">
         <v>422</v>
@@ -24080,13 +24080,13 @@
         <v>19</v>
       </c>
       <c r="L461" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M461" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N461" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O461" s="2">
         <v>2021</v>
@@ -24097,16 +24097,16 @@
     </row>
     <row r="462" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A462" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F462" s="2" t="s">
         <v>19</v>
@@ -24133,13 +24133,13 @@
         <v>19</v>
       </c>
       <c r="N462" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O462" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P462" s="3" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="463" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -24153,13 +24153,13 @@
         <v>425</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F463" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G463" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H463" s="2" t="s">
         <v>19</v>
@@ -24183,7 +24183,7 @@
         <v>19</v>
       </c>
       <c r="O463" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P463" s="3" t="s">
         <v>426</v>
@@ -24203,10 +24203,10 @@
         <v>19</v>
       </c>
       <c r="F464" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H464" s="2" t="s">
         <v>19</v>
@@ -24250,7 +24250,7 @@
         <v>19</v>
       </c>
       <c r="F465" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G465" s="2" t="s">
         <v>19</v>
@@ -24268,7 +24268,7 @@
         <v>19</v>
       </c>
       <c r="L465" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M465" s="2" t="s">
         <v>19</v>
@@ -24315,10 +24315,10 @@
         <v>19</v>
       </c>
       <c r="L466" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M466" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N466" s="2" t="s">
         <v>19</v>
@@ -24365,10 +24365,10 @@
         <v>19</v>
       </c>
       <c r="M467" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N467" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O467" s="2">
         <v>2021</v>
@@ -24379,16 +24379,16 @@
     </row>
     <row r="468" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A468" s="2" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="E468" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F468" s="2" t="s">
         <v>19</v>
@@ -24415,13 +24415,13 @@
         <v>19</v>
       </c>
       <c r="N468" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O468" s="2">
         <v>2021</v>
       </c>
       <c r="P468" s="3" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="469" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -24435,7 +24435,7 @@
         <v>429</v>
       </c>
       <c r="E469" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F469" s="2" t="s">
         <v>19</v>
@@ -24453,7 +24453,7 @@
         <v>19</v>
       </c>
       <c r="K469" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L469" s="2" t="s">
         <v>19</v>
@@ -24473,16 +24473,16 @@
     </row>
     <row r="470" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A470" s="2" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E470" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F470" s="2" t="s">
         <v>19</v>
@@ -24500,7 +24500,7 @@
         <v>19</v>
       </c>
       <c r="K470" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L470" s="2" t="s">
         <v>19</v>
@@ -24515,7 +24515,7 @@
         <v>2021</v>
       </c>
       <c r="P470" s="3" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="471" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -24529,7 +24529,7 @@
         <v>433</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F471" s="2" t="s">
         <v>19</v>
@@ -24550,7 +24550,7 @@
         <v>19</v>
       </c>
       <c r="L471" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M471" s="2" t="s">
         <v>19</v>
@@ -24567,10 +24567,10 @@
     </row>
     <row r="472" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A472" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D472" s="2" t="s">
         <v>433</v>
@@ -24579,7 +24579,7 @@
         <v>19</v>
       </c>
       <c r="F472" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G472" s="2" t="s">
         <v>19</v>
@@ -24597,7 +24597,7 @@
         <v>19</v>
       </c>
       <c r="L472" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M472" s="2" t="s">
         <v>19</v>
@@ -24609,7 +24609,7 @@
         <v>2021</v>
       </c>
       <c r="P472" s="3" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="473" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -24626,7 +24626,7 @@
         <v>19</v>
       </c>
       <c r="F473" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G473" s="2" t="s">
         <v>19</v>
@@ -24638,7 +24638,7 @@
         <v>19</v>
       </c>
       <c r="J473" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K473" s="2" t="s">
         <v>19</v>
@@ -24685,10 +24685,10 @@
         <v>19</v>
       </c>
       <c r="J474" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K474" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L474" s="2" t="s">
         <v>19</v>
@@ -24735,10 +24735,10 @@
         <v>19</v>
       </c>
       <c r="K475" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L475" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M475" s="2" t="s">
         <v>19</v>
@@ -24755,13 +24755,13 @@
     </row>
     <row r="476" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A476" s="2" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>433</v>
+        <v>245</v>
       </c>
       <c r="E476" s="2" t="s">
         <v>19</v>
@@ -24782,10 +24782,10 @@
         <v>19</v>
       </c>
       <c r="K476" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L476" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M476" s="2" t="s">
         <v>19</v>
@@ -24794,10 +24794,10 @@
         <v>19</v>
       </c>
       <c r="O476" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P476" s="3" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="477" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -24829,10 +24829,10 @@
         <v>19</v>
       </c>
       <c r="K477" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L477" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M477" s="2" t="s">
         <v>19</v>
@@ -24841,7 +24841,7 @@
         <v>19</v>
       </c>
       <c r="O477" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P477" s="3" t="s">
         <v>440</v>
@@ -24879,10 +24879,10 @@
         <v>19</v>
       </c>
       <c r="L478" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M478" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N478" s="2" t="s">
         <v>19</v>
@@ -24929,10 +24929,10 @@
         <v>19</v>
       </c>
       <c r="M479" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N479" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O479" s="2">
         <v>2021</v>
@@ -24943,16 +24943,19 @@
     </row>
     <row r="480" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A480" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>442</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>245</v>
+        <v>444</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F480" s="2" t="s">
         <v>19</v>
@@ -24979,13 +24982,13 @@
         <v>19</v>
       </c>
       <c r="N480" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O480" s="2">
         <v>2021</v>
       </c>
       <c r="P480" s="3" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="481" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -24993,16 +24996,16 @@
         <v>441</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D481" s="2" t="s">
         <v>444</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F481" s="2" t="s">
         <v>19</v>
@@ -25023,7 +25026,7 @@
         <v>19</v>
       </c>
       <c r="L481" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M481" s="2" t="s">
         <v>19</v>
@@ -25040,19 +25043,16 @@
     </row>
     <row r="482" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A482" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="B482" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F482" s="2" t="s">
         <v>19</v>
@@ -25073,7 +25073,7 @@
         <v>19</v>
       </c>
       <c r="L482" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M482" s="2" t="s">
         <v>19</v>
@@ -25082,10 +25082,10 @@
         <v>19</v>
       </c>
       <c r="O482" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P482" s="3" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="483" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -25099,13 +25099,13 @@
         <v>450</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F483" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G483" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H483" s="2" t="s">
         <v>19</v>
@@ -25129,7 +25129,7 @@
         <v>19</v>
       </c>
       <c r="O483" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P483" s="3" t="s">
         <v>451</v>
@@ -25149,10 +25149,10 @@
         <v>19</v>
       </c>
       <c r="F484" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G484" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H484" s="2" t="s">
         <v>19</v>
@@ -25196,7 +25196,7 @@
         <v>19</v>
       </c>
       <c r="F485" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G485" s="2" t="s">
         <v>19</v>
@@ -25211,7 +25211,7 @@
         <v>19</v>
       </c>
       <c r="K485" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L485" s="2" t="s">
         <v>19</v>
@@ -25258,10 +25258,10 @@
         <v>19</v>
       </c>
       <c r="K486" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L486" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M486" s="2" t="s">
         <v>19</v>
@@ -25308,10 +25308,10 @@
         <v>19</v>
       </c>
       <c r="L487" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M487" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N487" s="2" t="s">
         <v>19</v>
@@ -25325,16 +25325,16 @@
     </row>
     <row r="488" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A488" s="2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F488" s="2" t="s">
         <v>19</v>
@@ -25358,7 +25358,7 @@
         <v>19</v>
       </c>
       <c r="M488" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N488" s="2" t="s">
         <v>19</v>
@@ -25367,18 +25367,18 @@
         <v>2021</v>
       </c>
       <c r="P488" s="3" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="489" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A489" s="2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="E489" s="2" t="s">
         <v>18</v>
@@ -25414,7 +25414,7 @@
         <v>2021</v>
       </c>
       <c r="P489" s="3" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="490" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -25428,13 +25428,13 @@
         <v>458</v>
       </c>
       <c r="E490" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F490" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G490" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H490" s="2" t="s">
         <v>19</v>
@@ -25481,10 +25481,10 @@
         <v>19</v>
       </c>
       <c r="G491" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H491" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I491" s="2" t="s">
         <v>19</v>
@@ -25531,13 +25531,13 @@
         <v>19</v>
       </c>
       <c r="H492" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I492" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J492" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K492" s="2" t="s">
         <v>19</v>
@@ -25581,10 +25581,10 @@
         <v>19</v>
       </c>
       <c r="I493" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J493" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K493" s="2" t="s">
         <v>19</v>
@@ -25628,7 +25628,7 @@
         <v>19</v>
       </c>
       <c r="I494" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J494" s="2" t="s">
         <v>19</v>
@@ -25637,7 +25637,7 @@
         <v>19</v>
       </c>
       <c r="L494" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M494" s="2" t="s">
         <v>19</v>
@@ -25684,13 +25684,13 @@
         <v>19</v>
       </c>
       <c r="L495" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M495" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N495" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O495" s="2">
         <v>2021</v>
@@ -25728,7 +25728,7 @@
         <v>19</v>
       </c>
       <c r="K496" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L496" s="2" t="s">
         <v>19</v>
@@ -25737,7 +25737,7 @@
         <v>19</v>
       </c>
       <c r="N496" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O496" s="2">
         <v>2021</v>
@@ -25748,16 +25748,16 @@
     </row>
     <row r="497" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A497" s="2" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F497" s="2" t="s">
         <v>19</v>
@@ -25775,7 +25775,7 @@
         <v>19</v>
       </c>
       <c r="K497" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L497" s="2" t="s">
         <v>19</v>
@@ -25790,7 +25790,7 @@
         <v>2021</v>
       </c>
       <c r="P497" s="3" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="498" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -25798,13 +25798,13 @@
         <v>460</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F498" s="2" t="s">
         <v>19</v>
@@ -25819,7 +25819,7 @@
         <v>19</v>
       </c>
       <c r="J498" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K498" s="2" t="s">
         <v>19</v>
@@ -25845,7 +25845,7 @@
         <v>460</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D499" s="2" t="s">
         <v>465</v>
@@ -25866,10 +25866,10 @@
         <v>19</v>
       </c>
       <c r="J499" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K499" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L499" s="2" t="s">
         <v>19</v>
@@ -25907,7 +25907,7 @@
         <v>19</v>
       </c>
       <c r="H500" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I500" s="2" t="s">
         <v>19</v>
@@ -25916,7 +25916,7 @@
         <v>19</v>
       </c>
       <c r="K500" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L500" s="2" t="s">
         <v>19</v>
@@ -25936,16 +25936,16 @@
     </row>
     <row r="501" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A501" s="2" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="E501" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F501" s="2" t="s">
         <v>19</v>
@@ -25954,7 +25954,7 @@
         <v>19</v>
       </c>
       <c r="H501" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I501" s="2" t="s">
         <v>19</v>
@@ -25975,10 +25975,10 @@
         <v>19</v>
       </c>
       <c r="O501" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P501" s="3" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="502" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -25992,13 +25992,13 @@
         <v>469</v>
       </c>
       <c r="E502" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F502" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G502" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H502" s="2" t="s">
         <v>19</v>
@@ -26022,7 +26022,7 @@
         <v>19</v>
       </c>
       <c r="O502" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P502" s="3" t="s">
         <v>470</v>
@@ -26042,10 +26042,10 @@
         <v>19</v>
       </c>
       <c r="F503" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G503" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H503" s="2" t="s">
         <v>19</v>
@@ -26089,7 +26089,7 @@
         <v>19</v>
       </c>
       <c r="F504" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G504" s="2" t="s">
         <v>19</v>
@@ -26104,7 +26104,7 @@
         <v>19</v>
       </c>
       <c r="K504" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L504" s="2" t="s">
         <v>19</v>
@@ -26116,7 +26116,7 @@
         <v>19</v>
       </c>
       <c r="O504" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P504" s="3" t="s">
         <v>470</v>
@@ -26151,10 +26151,10 @@
         <v>19</v>
       </c>
       <c r="K505" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L505" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M505" s="2" t="s">
         <v>19</v>
@@ -26163,7 +26163,7 @@
         <v>19</v>
       </c>
       <c r="O505" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P505" s="3" t="s">
         <v>470</v>
@@ -26171,13 +26171,13 @@
     </row>
     <row r="506" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A506" s="2" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>469</v>
+        <v>269</v>
       </c>
       <c r="E506" s="2" t="s">
         <v>19</v>
@@ -26198,10 +26198,10 @@
         <v>19</v>
       </c>
       <c r="K506" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L506" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M506" s="2" t="s">
         <v>19</v>
@@ -26213,7 +26213,7 @@
         <v>2021</v>
       </c>
       <c r="P506" s="3" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="507" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -26245,7 +26245,7 @@
         <v>19</v>
       </c>
       <c r="K507" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L507" s="2" t="s">
         <v>19</v>
@@ -26254,7 +26254,7 @@
         <v>19</v>
       </c>
       <c r="N507" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O507" s="2">
         <v>2021</v>
@@ -26265,16 +26265,16 @@
     </row>
     <row r="508" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A508" s="2" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>269</v>
+        <v>476</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F508" s="2" t="s">
         <v>19</v>
@@ -26301,13 +26301,13 @@
         <v>19</v>
       </c>
       <c r="N508" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O508" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P508" s="3" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="509" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -26321,7 +26321,7 @@
         <v>476</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F509" s="2" t="s">
         <v>19</v>
@@ -26339,7 +26339,7 @@
         <v>19</v>
       </c>
       <c r="K509" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L509" s="2" t="s">
         <v>19</v>
@@ -26386,10 +26386,10 @@
         <v>19</v>
       </c>
       <c r="K510" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L510" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M510" s="2" t="s">
         <v>19</v>
@@ -26398,7 +26398,7 @@
         <v>19</v>
       </c>
       <c r="O510" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P510" s="3" t="s">
         <v>477</v>
@@ -26436,10 +26436,10 @@
         <v>19</v>
       </c>
       <c r="L511" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M511" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N511" s="2" t="s">
         <v>19</v>
@@ -26486,10 +26486,10 @@
         <v>19</v>
       </c>
       <c r="M512" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N512" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O512" s="2">
         <v>2021</v>
@@ -26515,7 +26515,7 @@
         <v>19</v>
       </c>
       <c r="G513" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H513" s="2" t="s">
         <v>19</v>
@@ -26536,7 +26536,7 @@
         <v>19</v>
       </c>
       <c r="N513" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O513" s="2">
         <v>2021</v>
@@ -26559,10 +26559,10 @@
         <v>19</v>
       </c>
       <c r="F514" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G514" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H514" s="2" t="s">
         <v>19</v>
@@ -26594,22 +26594,22 @@
     </row>
     <row r="515" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A515" s="2" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="E515" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F515" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G515" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H515" s="2" t="s">
         <v>19</v>
@@ -26636,7 +26636,7 @@
         <v>2021</v>
       </c>
       <c r="P515" s="3" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="516" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -26656,10 +26656,10 @@
         <v>19</v>
       </c>
       <c r="G516" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H516" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I516" s="2" t="s">
         <v>19</v>
@@ -26680,7 +26680,7 @@
         <v>19</v>
       </c>
       <c r="O516" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P516" s="3" t="s">
         <v>481</v>
@@ -26706,10 +26706,10 @@
         <v>19</v>
       </c>
       <c r="H517" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I517" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J517" s="2" t="s">
         <v>19</v>
@@ -26727,7 +26727,7 @@
         <v>19</v>
       </c>
       <c r="O517" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P517" s="3" t="s">
         <v>481</v>
@@ -26756,13 +26756,13 @@
         <v>19</v>
       </c>
       <c r="I518" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J518" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K518" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L518" s="2" t="s">
         <v>19</v>
@@ -26774,7 +26774,7 @@
         <v>19</v>
       </c>
       <c r="O518" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P518" s="3" t="s">
         <v>481</v>
@@ -26809,10 +26809,10 @@
         <v>19</v>
       </c>
       <c r="K519" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L519" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M519" s="2" t="s">
         <v>19</v>
@@ -26821,7 +26821,7 @@
         <v>19</v>
       </c>
       <c r="O519" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P519" s="3" t="s">
         <v>481</v>
@@ -26859,10 +26859,10 @@
         <v>19</v>
       </c>
       <c r="L520" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M520" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N520" s="2" t="s">
         <v>19</v>
@@ -26909,10 +26909,10 @@
         <v>19</v>
       </c>
       <c r="M521" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N521" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O521" s="2">
         <v>2021</v>
@@ -26932,7 +26932,7 @@
         <v>480</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F522" s="2" t="s">
         <v>19</v>
@@ -26959,10 +26959,10 @@
         <v>19</v>
       </c>
       <c r="N522" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O522" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P522" s="3" t="s">
         <v>481</v>
@@ -26979,10 +26979,10 @@
         <v>480</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F523" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G523" s="2" t="s">
         <v>19</v>
@@ -27009,7 +27009,7 @@
         <v>19</v>
       </c>
       <c r="O523" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P523" s="3" t="s">
         <v>481</v>
@@ -27020,7 +27020,7 @@
         <v>478</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D524" s="2" t="s">
         <v>480</v>
@@ -27029,7 +27029,7 @@
         <v>19</v>
       </c>
       <c r="F524" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G524" s="2" t="s">
         <v>19</v>
@@ -27041,7 +27041,7 @@
         <v>19</v>
       </c>
       <c r="J524" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K524" s="2" t="s">
         <v>19</v>
@@ -27064,16 +27064,16 @@
     </row>
     <row r="525" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A525" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>19</v>
@@ -27088,7 +27088,7 @@
         <v>19</v>
       </c>
       <c r="J525" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K525" s="2" t="s">
         <v>19</v>
@@ -27103,10 +27103,10 @@
         <v>19</v>
       </c>
       <c r="O525" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P525" s="3" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="526" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -27120,7 +27120,7 @@
         <v>485</v>
       </c>
       <c r="E526" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F526" s="2" t="s">
         <v>19</v>
@@ -27138,7 +27138,7 @@
         <v>19</v>
       </c>
       <c r="K526" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L526" s="2" t="s">
         <v>19</v>
@@ -27158,13 +27158,13 @@
     </row>
     <row r="527" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A527" s="2" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E527" s="2" t="s">
         <v>19</v>
@@ -27197,10 +27197,10 @@
         <v>19</v>
       </c>
       <c r="O527" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P527" s="3" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="528" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -27232,10 +27232,10 @@
         <v>19</v>
       </c>
       <c r="K528" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L528" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M528" s="2" t="s">
         <v>19</v>
@@ -27282,13 +27282,13 @@
         <v>19</v>
       </c>
       <c r="L529" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M529" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N529" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O529" s="2">
         <v>2021</v>
@@ -27299,16 +27299,16 @@
     </row>
     <row r="530" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A530" s="2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="E530" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F530" s="2" t="s">
         <v>19</v>
@@ -27335,13 +27335,13 @@
         <v>19</v>
       </c>
       <c r="N530" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O530" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P530" s="3" t="s">
-        <v>490</v>
+        <v>2020</v>
+      </c>
+      <c r="P530" s="4" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="531" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -27355,13 +27355,13 @@
         <v>493</v>
       </c>
       <c r="E531" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F531" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G531" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H531" s="2" t="s">
         <v>19</v>
@@ -27385,7 +27385,7 @@
         <v>19</v>
       </c>
       <c r="O531" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P531" s="4" t="s">
         <v>587</v>
@@ -27393,22 +27393,25 @@
     </row>
     <row r="532" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A532" s="2" t="s">
-        <v>491</v>
+        <v>494</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="E532" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F532" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G532" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H532" s="2" t="s">
         <v>19</v>
@@ -27434,8 +27437,8 @@
       <c r="O532" s="2">
         <v>2021</v>
       </c>
-      <c r="P532" s="4" t="s">
-        <v>587</v>
+      <c r="P532" s="3" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="533" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -27443,13 +27446,13 @@
         <v>494</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="E533" s="2" t="s">
         <v>18</v>
@@ -27485,7 +27488,7 @@
         <v>2021</v>
       </c>
       <c r="P533" s="3" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="534" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -27493,22 +27496,22 @@
         <v>494</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E534" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F534" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G534" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H534" s="2" t="s">
         <v>19</v>
@@ -27535,7 +27538,7 @@
         <v>2021</v>
       </c>
       <c r="P534" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="535" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -27555,10 +27558,10 @@
         <v>19</v>
       </c>
       <c r="F535" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G535" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H535" s="2" t="s">
         <v>19</v>
@@ -27596,7 +27599,7 @@
         <v>495</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="D536" s="2" t="s">
         <v>497</v>
@@ -27605,7 +27608,7 @@
         <v>19</v>
       </c>
       <c r="F536" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G536" s="2" t="s">
         <v>19</v>
@@ -27620,7 +27623,7 @@
         <v>19</v>
       </c>
       <c r="K536" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L536" s="2" t="s">
         <v>19</v>
@@ -27646,7 +27649,7 @@
         <v>495</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D537" s="2" t="s">
         <v>497</v>
@@ -27670,13 +27673,13 @@
         <v>19</v>
       </c>
       <c r="K537" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L537" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M537" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N537" s="2" t="s">
         <v>19</v>
@@ -27693,13 +27696,13 @@
         <v>494</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="E538" s="2" t="s">
         <v>19</v>
@@ -27735,7 +27738,7 @@
         <v>2021</v>
       </c>
       <c r="P538" s="3" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="539" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -27776,10 +27779,10 @@
         <v>19</v>
       </c>
       <c r="M539" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N539" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O539" s="2">
         <v>2021</v>
@@ -27790,16 +27793,13 @@
     </row>
     <row r="540" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A540" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B540" s="2" t="s">
-        <v>499</v>
+        <v>588</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>500</v>
+        <v>547</v>
       </c>
       <c r="D540" s="2" t="s">
-        <v>501</v>
+        <v>548</v>
       </c>
       <c r="E540" s="2" t="s">
         <v>19</v>
@@ -27811,7 +27811,7 @@
         <v>19</v>
       </c>
       <c r="H540" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I540" s="2" t="s">
         <v>19</v>
@@ -27829,27 +27829,27 @@
         <v>19</v>
       </c>
       <c r="N540" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O540" s="2">
         <v>2021</v>
       </c>
-      <c r="P540" s="3" t="s">
-        <v>502</v>
+      <c r="P540" s="4" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="541" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A541" s="2" t="s">
-        <v>588</v>
+        <v>505</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>547</v>
+        <v>506</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>548</v>
+        <v>507</v>
       </c>
       <c r="E541" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F541" s="2" t="s">
         <v>19</v>
@@ -27858,7 +27858,7 @@
         <v>19</v>
       </c>
       <c r="H541" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I541" s="2" t="s">
         <v>19</v>
@@ -27879,10 +27879,10 @@
         <v>19</v>
       </c>
       <c r="O541" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P541" s="4" t="s">
-        <v>591</v>
+        <v>2020</v>
+      </c>
+      <c r="P541" s="3" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="542" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -27896,7 +27896,7 @@
         <v>507</v>
       </c>
       <c r="E542" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F542" s="2" t="s">
         <v>19</v>
@@ -27914,7 +27914,7 @@
         <v>19</v>
       </c>
       <c r="K542" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L542" s="2" t="s">
         <v>19</v>
@@ -27934,13 +27934,16 @@
     </row>
     <row r="543" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A543" s="2" t="s">
-        <v>505</v>
+        <v>509</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>510</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="E543" s="2" t="s">
         <v>19</v>
@@ -27949,7 +27952,7 @@
         <v>19</v>
       </c>
       <c r="G543" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H543" s="2" t="s">
         <v>19</v>
@@ -27961,7 +27964,7 @@
         <v>19</v>
       </c>
       <c r="K543" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L543" s="2" t="s">
         <v>19</v>
@@ -27973,10 +27976,10 @@
         <v>19</v>
       </c>
       <c r="O543" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P543" s="3" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="544" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -27999,13 +28002,13 @@
         <v>19</v>
       </c>
       <c r="G544" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H544" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I544" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J544" s="2" t="s">
         <v>19</v>
@@ -28034,13 +28037,13 @@
         <v>509</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="E545" s="2" t="s">
         <v>19</v>
@@ -28055,13 +28058,13 @@
         <v>19</v>
       </c>
       <c r="I545" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J545" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K545" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L545" s="2" t="s">
         <v>19</v>
@@ -28076,7 +28079,7 @@
         <v>2021</v>
       </c>
       <c r="P545" s="3" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="546" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -28084,13 +28087,13 @@
         <v>509</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E546" s="2" t="s">
         <v>19</v>
@@ -28111,13 +28114,13 @@
         <v>19</v>
       </c>
       <c r="K546" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L546" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M546" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N546" s="2" t="s">
         <v>19</v>
@@ -28126,24 +28129,21 @@
         <v>2021</v>
       </c>
       <c r="P546" s="3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="547" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A547" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="B547" s="2" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="E547" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F547" s="2" t="s">
         <v>19</v>
@@ -28167,16 +28167,16 @@
         <v>19</v>
       </c>
       <c r="M547" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N547" s="2" t="s">
         <v>19</v>
       </c>
       <c r="O547" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P547" s="3" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
     </row>
     <row r="548" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -28190,13 +28190,13 @@
         <v>520</v>
       </c>
       <c r="E548" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F548" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G548" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H548" s="2" t="s">
         <v>19</v>
@@ -28220,7 +28220,7 @@
         <v>19</v>
       </c>
       <c r="O548" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P548" s="3" t="s">
         <v>521</v>
@@ -28240,10 +28240,10 @@
         <v>19</v>
       </c>
       <c r="F549" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G549" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H549" s="2" t="s">
         <v>19</v>
@@ -28287,13 +28287,13 @@
         <v>19</v>
       </c>
       <c r="F550" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G550" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H550" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I550" s="2" t="s">
         <v>19</v>
@@ -28314,7 +28314,7 @@
         <v>19</v>
       </c>
       <c r="O550" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P550" s="3" t="s">
         <v>521</v>
@@ -28340,13 +28340,13 @@
         <v>19</v>
       </c>
       <c r="H551" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I551" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J551" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K551" s="2" t="s">
         <v>19</v>
@@ -28361,7 +28361,7 @@
         <v>19</v>
       </c>
       <c r="O551" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P551" s="3" t="s">
         <v>521</v>
@@ -28393,10 +28393,10 @@
         <v>19</v>
       </c>
       <c r="J552" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K552" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L552" s="2" t="s">
         <v>19</v>
@@ -28408,7 +28408,7 @@
         <v>19</v>
       </c>
       <c r="O552" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P552" s="3" t="s">
         <v>521</v>
@@ -28443,10 +28443,10 @@
         <v>19</v>
       </c>
       <c r="K553" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L553" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M553" s="2" t="s">
         <v>19</v>
@@ -28455,7 +28455,7 @@
         <v>19</v>
       </c>
       <c r="O553" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P553" s="3" t="s">
         <v>521</v>
@@ -28493,10 +28493,10 @@
         <v>19</v>
       </c>
       <c r="L554" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M554" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N554" s="2" t="s">
         <v>19</v>
@@ -28543,10 +28543,10 @@
         <v>19</v>
       </c>
       <c r="M555" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N555" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O555" s="2">
         <v>2021</v>
@@ -28557,13 +28557,13 @@
     </row>
     <row r="556" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A556" s="2" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>520</v>
+        <v>327</v>
       </c>
       <c r="E556" s="2" t="s">
         <v>19</v>
@@ -28584,7 +28584,7 @@
         <v>19</v>
       </c>
       <c r="K556" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L556" s="2" t="s">
         <v>19</v>
@@ -28593,13 +28593,13 @@
         <v>19</v>
       </c>
       <c r="N556" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O556" s="2">
         <v>2021</v>
       </c>
-      <c r="P556" s="3" t="s">
-        <v>521</v>
+      <c r="P556" s="4" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="557" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -28631,10 +28631,10 @@
         <v>19</v>
       </c>
       <c r="K557" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L557" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M557" s="2" t="s">
         <v>19</v>
@@ -28651,16 +28651,16 @@
     </row>
     <row r="558" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A558" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D558" s="2" t="s">
-        <v>327</v>
+        <v>526</v>
       </c>
       <c r="E558" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F558" s="2" t="s">
         <v>19</v>
@@ -28681,7 +28681,7 @@
         <v>19</v>
       </c>
       <c r="L558" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M558" s="2" t="s">
         <v>19</v>
@@ -28690,30 +28690,30 @@
         <v>19</v>
       </c>
       <c r="O558" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P558" s="4" t="s">
-        <v>584</v>
+        <v>2020</v>
+      </c>
+      <c r="P558" s="3" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="559" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A559" s="2" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E559" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F559" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G559" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H559" s="2" t="s">
         <v>19</v>
@@ -28737,10 +28737,10 @@
         <v>19</v>
       </c>
       <c r="O559" s="2">
-        <v>2020</v>
-      </c>
-      <c r="P559" s="3" t="s">
-        <v>527</v>
+        <v>2021</v>
+      </c>
+      <c r="P559" s="4" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="560" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -28760,10 +28760,10 @@
         <v>19</v>
       </c>
       <c r="G560" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H560" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I560" s="2" t="s">
         <v>19</v>
@@ -28810,7 +28810,7 @@
         <v>19</v>
       </c>
       <c r="H561" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I561" s="2" t="s">
         <v>19</v>
@@ -28819,7 +28819,7 @@
         <v>19</v>
       </c>
       <c r="K561" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L561" s="2" t="s">
         <v>19</v>
@@ -28839,16 +28839,16 @@
     </row>
     <row r="562" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A562" s="2" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D562" s="2" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="E562" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F562" s="2" t="s">
         <v>19</v>
@@ -28866,7 +28866,7 @@
         <v>19</v>
       </c>
       <c r="K562" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L562" s="2" t="s">
         <v>19</v>
@@ -28878,10 +28878,10 @@
         <v>19</v>
       </c>
       <c r="O562" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P562" s="4" t="s">
-        <v>585</v>
+        <v>2020</v>
+      </c>
+      <c r="P562" s="3" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="563" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -28895,13 +28895,13 @@
         <v>533</v>
       </c>
       <c r="E563" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F563" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G563" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H563" s="2" t="s">
         <v>19</v>
@@ -28925,7 +28925,7 @@
         <v>19</v>
       </c>
       <c r="O563" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P563" s="3" t="s">
         <v>534</v>
@@ -28945,10 +28945,10 @@
         <v>19</v>
       </c>
       <c r="F564" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G564" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H564" s="2" t="s">
         <v>19</v>
@@ -28992,7 +28992,7 @@
         <v>19</v>
       </c>
       <c r="F565" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G565" s="2" t="s">
         <v>19</v>
@@ -29007,7 +29007,7 @@
         <v>19</v>
       </c>
       <c r="K565" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L565" s="2" t="s">
         <v>19</v>
@@ -29019,7 +29019,7 @@
         <v>19</v>
       </c>
       <c r="O565" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P565" s="3" t="s">
         <v>534</v>
@@ -29054,10 +29054,10 @@
         <v>19</v>
       </c>
       <c r="K566" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L566" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M566" s="2" t="s">
         <v>19</v>
@@ -29066,7 +29066,7 @@
         <v>19</v>
       </c>
       <c r="O566" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P566" s="3" t="s">
         <v>534</v>
@@ -29104,10 +29104,10 @@
         <v>19</v>
       </c>
       <c r="L567" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M567" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N567" s="2" t="s">
         <v>19</v>
@@ -29154,10 +29154,10 @@
         <v>19</v>
       </c>
       <c r="M568" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N568" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O568" s="2">
         <v>2021</v>
@@ -29171,7 +29171,7 @@
         <v>531</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D569" s="2" t="s">
         <v>533</v>
@@ -29186,7 +29186,7 @@
         <v>19</v>
       </c>
       <c r="H569" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I569" s="2" t="s">
         <v>19</v>
@@ -29204,10 +29204,10 @@
         <v>19</v>
       </c>
       <c r="N569" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O569" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P569" s="3" t="s">
         <v>534</v>
@@ -29233,10 +29233,10 @@
         <v>19</v>
       </c>
       <c r="H570" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I570" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J570" s="2" t="s">
         <v>19</v>
@@ -29254,7 +29254,7 @@
         <v>19</v>
       </c>
       <c r="O570" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P570" s="3" t="s">
         <v>534</v>
@@ -29262,10 +29262,10 @@
     </row>
     <row r="571" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A571" s="2" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D571" s="2" t="s">
         <v>533</v>
@@ -29274,7 +29274,7 @@
         <v>19</v>
       </c>
       <c r="F571" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G571" s="2" t="s">
         <v>19</v>
@@ -29283,7 +29283,7 @@
         <v>19</v>
       </c>
       <c r="I571" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J571" s="2" t="s">
         <v>19</v>
@@ -29304,7 +29304,7 @@
         <v>2021</v>
       </c>
       <c r="P571" s="3" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="572" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -29318,10 +29318,10 @@
         <v>533</v>
       </c>
       <c r="E572" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F572" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G572" s="2" t="s">
         <v>19</v>
@@ -29356,22 +29356,25 @@
     </row>
     <row r="573" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A573" s="2" t="s">
-        <v>536</v>
+        <v>539</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>540</v>
       </c>
       <c r="C573" s="2" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="D573" s="2" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="E573" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F573" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G573" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H573" s="2" t="s">
         <v>19</v>
@@ -29398,7 +29401,7 @@
         <v>2021</v>
       </c>
       <c r="P573" s="3" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="574" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -29406,13 +29409,13 @@
         <v>539</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C574" s="2" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D574" s="2" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="E574" s="2" t="s">
         <v>19</v>
@@ -29465,13 +29468,13 @@
         <v>546</v>
       </c>
       <c r="E575" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F575" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G575" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H575" s="2" t="s">
         <v>19</v>
@@ -29515,10 +29518,10 @@
         <v>546</v>
       </c>
       <c r="E576" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F576" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G576" s="2" t="s">
         <v>19</v>
@@ -29553,25 +29556,22 @@
     </row>
     <row r="577" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A577" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="B577" s="2" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="D577" s="2" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="E577" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F577" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G577" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H577" s="2" t="s">
         <v>19</v>
@@ -29598,7 +29598,7 @@
         <v>2021</v>
       </c>
       <c r="P577" s="3" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
     </row>
     <row r="578" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -29606,7 +29606,7 @@
         <v>549</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D578" s="2" t="s">
         <v>551</v>
@@ -29618,7 +29618,7 @@
         <v>19</v>
       </c>
       <c r="G578" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H578" s="2" t="s">
         <v>19</v>
@@ -29630,7 +29630,7 @@
         <v>19</v>
       </c>
       <c r="K578" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L578" s="2" t="s">
         <v>19</v>
@@ -29677,10 +29677,10 @@
         <v>19</v>
       </c>
       <c r="K579" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L579" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M579" s="2" t="s">
         <v>19</v>
@@ -29697,16 +29697,16 @@
     </row>
     <row r="580" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A580" s="2" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="E580" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F580" s="2" t="s">
         <v>19</v>
@@ -29727,7 +29727,7 @@
         <v>19</v>
       </c>
       <c r="L580" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M580" s="2" t="s">
         <v>19</v>
@@ -29736,10 +29736,10 @@
         <v>19</v>
       </c>
       <c r="O580" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P580" s="3" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
     </row>
     <row r="581" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -29753,7 +29753,7 @@
         <v>556</v>
       </c>
       <c r="E581" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F581" s="2" t="s">
         <v>19</v>
@@ -29762,7 +29762,7 @@
         <v>19</v>
       </c>
       <c r="H581" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I581" s="2" t="s">
         <v>19</v>
@@ -29794,7 +29794,7 @@
         <v>554</v>
       </c>
       <c r="C582" s="2" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D582" s="2" t="s">
         <v>556</v>
@@ -29809,7 +29809,7 @@
         <v>19</v>
       </c>
       <c r="H582" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I582" s="2" t="s">
         <v>19</v>
@@ -29818,7 +29818,7 @@
         <v>19</v>
       </c>
       <c r="K582" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L582" s="2" t="s">
         <v>19</v>
@@ -29841,7 +29841,7 @@
         <v>554</v>
       </c>
       <c r="C583" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D583" s="2" t="s">
         <v>556</v>
@@ -29865,10 +29865,10 @@
         <v>19</v>
       </c>
       <c r="K583" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L583" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M583" s="2" t="s">
         <v>19</v>
@@ -29877,7 +29877,7 @@
         <v>19</v>
       </c>
       <c r="O583" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P583" s="3" t="s">
         <v>557</v>
@@ -29885,13 +29885,13 @@
     </row>
     <row r="584" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A584" s="2" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="C584" s="2" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D584" s="2" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="E584" s="2" t="s">
         <v>19</v>
@@ -29909,13 +29909,13 @@
         <v>19</v>
       </c>
       <c r="J584" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K584" s="2" t="s">
         <v>19</v>
       </c>
       <c r="L584" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M584" s="2" t="s">
         <v>19</v>
@@ -29927,7 +29927,7 @@
         <v>2021</v>
       </c>
       <c r="P584" s="3" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="585" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -29953,10 +29953,10 @@
         <v>19</v>
       </c>
       <c r="I585" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J585" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K585" s="2" t="s">
         <v>19</v>
@@ -29982,7 +29982,7 @@
         <v>560</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D586" s="2" t="s">
         <v>562</v>
@@ -30000,13 +30000,13 @@
         <v>19</v>
       </c>
       <c r="I586" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J586" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K586" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L586" s="2" t="s">
         <v>19</v>
@@ -30053,10 +30053,10 @@
         <v>19</v>
       </c>
       <c r="K587" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L587" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M587" s="2" t="s">
         <v>19</v>
@@ -30103,13 +30103,13 @@
         <v>19</v>
       </c>
       <c r="L588" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M588" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N588" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O588" s="2">
         <v>2021</v>
@@ -30123,7 +30123,7 @@
         <v>560</v>
       </c>
       <c r="C589" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D589" s="2" t="s">
         <v>562</v>
@@ -30150,13 +30150,13 @@
         <v>19</v>
       </c>
       <c r="L589" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M589" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N589" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O589" s="2">
         <v>2021</v>
@@ -30167,13 +30167,13 @@
     </row>
     <row r="590" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A590" s="2" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="C590" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D590" s="2" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="E590" s="2" t="s">
         <v>19</v>
@@ -30209,21 +30209,21 @@
         <v>2021</v>
       </c>
       <c r="P590" s="3" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="591" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A591" s="2" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C591" s="2" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="D591" s="2" t="s">
         <v>568</v>
       </c>
       <c r="E591" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F591" s="2" t="s">
         <v>19</v>
@@ -30244,7 +30244,7 @@
         <v>19</v>
       </c>
       <c r="L591" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M591" s="2" t="s">
         <v>19</v>
@@ -30256,7 +30256,7 @@
         <v>2021</v>
       </c>
       <c r="P591" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="592" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -30270,13 +30270,13 @@
         <v>568</v>
       </c>
       <c r="E592" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F592" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G592" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H592" s="2" t="s">
         <v>19</v>
@@ -30323,7 +30323,7 @@
         <v>19</v>
       </c>
       <c r="G593" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H593" s="2" t="s">
         <v>19</v>
@@ -30338,7 +30338,7 @@
         <v>19</v>
       </c>
       <c r="L593" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M593" s="2" t="s">
         <v>19</v>
@@ -30385,10 +30385,10 @@
         <v>19</v>
       </c>
       <c r="L594" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M594" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N594" s="2" t="s">
         <v>19</v>
@@ -30435,10 +30435,10 @@
         <v>19</v>
       </c>
       <c r="M595" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N595" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O595" s="2">
         <v>2021</v>
@@ -30449,16 +30449,16 @@
     </row>
     <row r="596" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A596" s="2" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="D596" s="2" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="E596" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F596" s="2" t="s">
         <v>19</v>
@@ -30485,13 +30485,13 @@
         <v>19</v>
       </c>
       <c r="N596" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O596" s="2">
         <v>2021</v>
       </c>
       <c r="P596" s="3" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="597" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -30505,13 +30505,13 @@
         <v>575</v>
       </c>
       <c r="E597" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F597" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G597" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H597" s="2" t="s">
         <v>19</v>
@@ -30555,10 +30555,10 @@
         <v>19</v>
       </c>
       <c r="F598" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G598" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H598" s="2" t="s">
         <v>19</v>
@@ -30602,7 +30602,7 @@
         <v>19</v>
       </c>
       <c r="F599" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G599" s="2" t="s">
         <v>19</v>
@@ -30617,7 +30617,7 @@
         <v>19</v>
       </c>
       <c r="K599" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L599" s="2" t="s">
         <v>19</v>
@@ -30664,10 +30664,10 @@
         <v>19</v>
       </c>
       <c r="K600" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L600" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M600" s="2" t="s">
         <v>19</v>
@@ -30714,10 +30714,10 @@
         <v>19</v>
       </c>
       <c r="L601" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M601" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N601" s="2" t="s">
         <v>19</v>
@@ -30764,10 +30764,10 @@
         <v>19</v>
       </c>
       <c r="M602" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N602" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O602" s="2">
         <v>2021</v>
@@ -30778,16 +30778,16 @@
     </row>
     <row r="603" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A603" s="2" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C603" s="2" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="D603" s="2" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="E603" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F603" s="2" t="s">
         <v>19</v>
@@ -30814,13 +30814,13 @@
         <v>19</v>
       </c>
       <c r="N603" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O603" s="2">
         <v>2021</v>
       </c>
       <c r="P603" s="3" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="604" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
@@ -30834,7 +30834,7 @@
         <v>579</v>
       </c>
       <c r="E604" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F604" s="2" t="s">
         <v>19</v>
@@ -30843,7 +30843,7 @@
         <v>19</v>
       </c>
       <c r="H604" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I604" s="2" t="s">
         <v>19</v>
@@ -30864,7 +30864,7 @@
         <v>19</v>
       </c>
       <c r="O604" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P604" s="3" t="s">
         <v>580</v>
@@ -30890,7 +30890,7 @@
         <v>19</v>
       </c>
       <c r="H605" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I605" s="2" t="s">
         <v>19</v>
@@ -30899,7 +30899,7 @@
         <v>19</v>
       </c>
       <c r="K605" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L605" s="2" t="s">
         <v>19</v>
@@ -30911,7 +30911,7 @@
         <v>19</v>
       </c>
       <c r="O605" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P605" s="3" t="s">
         <v>580</v>
@@ -30946,10 +30946,10 @@
         <v>19</v>
       </c>
       <c r="K606" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L606" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M606" s="2" t="s">
         <v>19</v>
@@ -30964,55 +30964,8 @@
         <v>580</v>
       </c>
     </row>
-    <row r="607" spans="1:16" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A607" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="C607" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="D607" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="E607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L607" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N607" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O607" s="2">
-        <v>2021</v>
-      </c>
-      <c r="P607" s="3" t="s">
-        <v>580</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:P607" xr:uid="{126A254E-6DDD-4FAB-8E6C-AEB3E677114A}"/>
+  <autoFilter ref="A1:P606" xr:uid="{126A254E-6DDD-4FAB-8E6C-AEB3E677114A}"/>
   <hyperlinks>
     <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="P8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
@@ -31357,238 +31310,237 @@
     <hyperlink ref="P380" r:id="rId341" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
     <hyperlink ref="P381" r:id="rId342" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
     <hyperlink ref="P382" r:id="rId343" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
-    <hyperlink ref="P383" r:id="rId344" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
-    <hyperlink ref="P384" r:id="rId345" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
-    <hyperlink ref="P385" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
-    <hyperlink ref="P386" r:id="rId347" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
-    <hyperlink ref="P387" r:id="rId348" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
-    <hyperlink ref="P388" r:id="rId349" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
-    <hyperlink ref="P389" r:id="rId350" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="P390" r:id="rId351" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
-    <hyperlink ref="P391" r:id="rId352" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
-    <hyperlink ref="P392" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
-    <hyperlink ref="P393" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="P394" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
-    <hyperlink ref="P395" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="P396" r:id="rId357" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
-    <hyperlink ref="P397" r:id="rId358" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="P400" r:id="rId359" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
-    <hyperlink ref="P401" r:id="rId360" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="P402" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
-    <hyperlink ref="P403" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
-    <hyperlink ref="P404" r:id="rId363" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
-    <hyperlink ref="P405" r:id="rId364" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
-    <hyperlink ref="P406" r:id="rId365" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
-    <hyperlink ref="P407" r:id="rId366" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
-    <hyperlink ref="P408" r:id="rId367" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
-    <hyperlink ref="P409" r:id="rId368" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
-    <hyperlink ref="P410" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
-    <hyperlink ref="P411" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
-    <hyperlink ref="P412" r:id="rId371" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
-    <hyperlink ref="P413" r:id="rId372" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
-    <hyperlink ref="P414" r:id="rId373" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
-    <hyperlink ref="P415" r:id="rId374" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
-    <hyperlink ref="P416" r:id="rId375" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
-    <hyperlink ref="P417" r:id="rId376" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
-    <hyperlink ref="P418" r:id="rId377" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
-    <hyperlink ref="P419" r:id="rId378" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
-    <hyperlink ref="P420" r:id="rId379" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
-    <hyperlink ref="P425" r:id="rId380" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
-    <hyperlink ref="P426" r:id="rId381" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
-    <hyperlink ref="P427" r:id="rId382" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
-    <hyperlink ref="P428" r:id="rId383" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
-    <hyperlink ref="P429" r:id="rId384" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
-    <hyperlink ref="P430" r:id="rId385" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
-    <hyperlink ref="P431" r:id="rId386" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
-    <hyperlink ref="P432" r:id="rId387" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
-    <hyperlink ref="P433" r:id="rId388" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
-    <hyperlink ref="P434" r:id="rId389" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
-    <hyperlink ref="P435" r:id="rId390" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
-    <hyperlink ref="P436" r:id="rId391" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
-    <hyperlink ref="P437" r:id="rId392" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
-    <hyperlink ref="P438" r:id="rId393" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
-    <hyperlink ref="P439" r:id="rId394" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
-    <hyperlink ref="P440" r:id="rId395" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
-    <hyperlink ref="P441" r:id="rId396" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
-    <hyperlink ref="P442" r:id="rId397" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
-    <hyperlink ref="P443" r:id="rId398" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
-    <hyperlink ref="P444" r:id="rId399" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
-    <hyperlink ref="P445" r:id="rId400" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
-    <hyperlink ref="P446" r:id="rId401" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
-    <hyperlink ref="P447" r:id="rId402" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
-    <hyperlink ref="P448" r:id="rId403" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
-    <hyperlink ref="P449" r:id="rId404" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
-    <hyperlink ref="P450" r:id="rId405" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
-    <hyperlink ref="P451" r:id="rId406" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
-    <hyperlink ref="P452" r:id="rId407" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
-    <hyperlink ref="P453" r:id="rId408" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
-    <hyperlink ref="P454" r:id="rId409" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
-    <hyperlink ref="P455" r:id="rId410" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
-    <hyperlink ref="P456" r:id="rId411" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
-    <hyperlink ref="P457" r:id="rId412" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
-    <hyperlink ref="P458" r:id="rId413" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
-    <hyperlink ref="P459" r:id="rId414" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
-    <hyperlink ref="P460" r:id="rId415" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
-    <hyperlink ref="P461" r:id="rId416" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
-    <hyperlink ref="P462" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
-    <hyperlink ref="P463" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
-    <hyperlink ref="P464" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
-    <hyperlink ref="P465" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
-    <hyperlink ref="P466" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
-    <hyperlink ref="P467" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
-    <hyperlink ref="P468" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
-    <hyperlink ref="P469" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
-    <hyperlink ref="P470" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
-    <hyperlink ref="P471" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
-    <hyperlink ref="P472" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
-    <hyperlink ref="P473" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
-    <hyperlink ref="P474" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
-    <hyperlink ref="P475" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
-    <hyperlink ref="P476" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
-    <hyperlink ref="P477" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
-    <hyperlink ref="P478" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
-    <hyperlink ref="P479" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
-    <hyperlink ref="P480" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
-    <hyperlink ref="P481" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
-    <hyperlink ref="P482" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
-    <hyperlink ref="P483" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
-    <hyperlink ref="P484" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
-    <hyperlink ref="P485" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
-    <hyperlink ref="P486" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
-    <hyperlink ref="P487" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
-    <hyperlink ref="P488" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
-    <hyperlink ref="P489" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
-    <hyperlink ref="P490" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
-    <hyperlink ref="P491" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
-    <hyperlink ref="P492" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
-    <hyperlink ref="P493" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
-    <hyperlink ref="P494" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
-    <hyperlink ref="P495" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
-    <hyperlink ref="P496" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
-    <hyperlink ref="P497" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
-    <hyperlink ref="P498" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
-    <hyperlink ref="P499" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
-    <hyperlink ref="P500" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
-    <hyperlink ref="P501" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
-    <hyperlink ref="P502" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
-    <hyperlink ref="P503" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
-    <hyperlink ref="P504" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
-    <hyperlink ref="P505" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
-    <hyperlink ref="P506" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
-    <hyperlink ref="P507" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
-    <hyperlink ref="P508" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
-    <hyperlink ref="P509" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
-    <hyperlink ref="P510" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
-    <hyperlink ref="P511" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
-    <hyperlink ref="P512" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
-    <hyperlink ref="P513" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
-    <hyperlink ref="P514" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
-    <hyperlink ref="P515" r:id="rId470" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
-    <hyperlink ref="P516" r:id="rId471" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
-    <hyperlink ref="P517" r:id="rId472" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
-    <hyperlink ref="P518" r:id="rId473" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
-    <hyperlink ref="P519" r:id="rId474" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
-    <hyperlink ref="P520" r:id="rId475" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
-    <hyperlink ref="P521" r:id="rId476" xr:uid="{00000000-0004-0000-0000-000006020000}"/>
-    <hyperlink ref="P522" r:id="rId477" xr:uid="{00000000-0004-0000-0000-000007020000}"/>
-    <hyperlink ref="P523" r:id="rId478" xr:uid="{00000000-0004-0000-0000-000008020000}"/>
-    <hyperlink ref="P524" r:id="rId479" xr:uid="{00000000-0004-0000-0000-000009020000}"/>
-    <hyperlink ref="P525" r:id="rId480" xr:uid="{00000000-0004-0000-0000-00000A020000}"/>
-    <hyperlink ref="P526" r:id="rId481" xr:uid="{00000000-0004-0000-0000-00000B020000}"/>
-    <hyperlink ref="P527" r:id="rId482" xr:uid="{00000000-0004-0000-0000-00000C020000}"/>
-    <hyperlink ref="P528" r:id="rId483" xr:uid="{00000000-0004-0000-0000-00000D020000}"/>
-    <hyperlink ref="P529" r:id="rId484" xr:uid="{00000000-0004-0000-0000-00000E020000}"/>
-    <hyperlink ref="P531" r:id="rId485" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
-    <hyperlink ref="P532" r:id="rId486" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
-    <hyperlink ref="P533" r:id="rId487" xr:uid="{00000000-0004-0000-0000-000013020000}"/>
-    <hyperlink ref="P534" r:id="rId488" xr:uid="{00000000-0004-0000-0000-000014020000}"/>
-    <hyperlink ref="P535" r:id="rId489" xr:uid="{00000000-0004-0000-0000-000015020000}"/>
-    <hyperlink ref="P536" r:id="rId490" xr:uid="{00000000-0004-0000-0000-000016020000}"/>
-    <hyperlink ref="P537" r:id="rId491" xr:uid="{00000000-0004-0000-0000-000017020000}"/>
-    <hyperlink ref="P538" r:id="rId492" xr:uid="{00000000-0004-0000-0000-000018020000}"/>
-    <hyperlink ref="P539" r:id="rId493" xr:uid="{00000000-0004-0000-0000-000019020000}"/>
-    <hyperlink ref="P540" r:id="rId494" xr:uid="{00000000-0004-0000-0000-00001A020000}"/>
-    <hyperlink ref="P542" r:id="rId495" xr:uid="{00000000-0004-0000-0000-00001B020000}"/>
-    <hyperlink ref="P543" r:id="rId496" xr:uid="{00000000-0004-0000-0000-00001C020000}"/>
-    <hyperlink ref="P544" r:id="rId497" xr:uid="{00000000-0004-0000-0000-00001D020000}"/>
-    <hyperlink ref="P545" r:id="rId498" xr:uid="{00000000-0004-0000-0000-00001E020000}"/>
-    <hyperlink ref="P546" r:id="rId499" xr:uid="{00000000-0004-0000-0000-00001F020000}"/>
-    <hyperlink ref="P547" r:id="rId500" xr:uid="{00000000-0004-0000-0000-000020020000}"/>
-    <hyperlink ref="P548" r:id="rId501" xr:uid="{00000000-0004-0000-0000-000021020000}"/>
-    <hyperlink ref="P549" r:id="rId502" xr:uid="{00000000-0004-0000-0000-000022020000}"/>
-    <hyperlink ref="P550" r:id="rId503" xr:uid="{00000000-0004-0000-0000-000023020000}"/>
-    <hyperlink ref="P551" r:id="rId504" xr:uid="{00000000-0004-0000-0000-000024020000}"/>
-    <hyperlink ref="P552" r:id="rId505" xr:uid="{00000000-0004-0000-0000-000025020000}"/>
-    <hyperlink ref="P553" r:id="rId506" xr:uid="{00000000-0004-0000-0000-000026020000}"/>
-    <hyperlink ref="P554" r:id="rId507" xr:uid="{00000000-0004-0000-0000-000027020000}"/>
-    <hyperlink ref="P555" r:id="rId508" xr:uid="{00000000-0004-0000-0000-000028020000}"/>
-    <hyperlink ref="P556" r:id="rId509" xr:uid="{00000000-0004-0000-0000-000029020000}"/>
-    <hyperlink ref="P557" r:id="rId510" xr:uid="{00000000-0004-0000-0000-00002A020000}"/>
-    <hyperlink ref="P558" r:id="rId511" xr:uid="{00000000-0004-0000-0000-00002B020000}"/>
-    <hyperlink ref="P559" r:id="rId512" xr:uid="{00000000-0004-0000-0000-00002C020000}"/>
-    <hyperlink ref="P560" r:id="rId513" xr:uid="{00000000-0004-0000-0000-00002D020000}"/>
-    <hyperlink ref="P563" r:id="rId514" xr:uid="{00000000-0004-0000-0000-000030020000}"/>
-    <hyperlink ref="P564" r:id="rId515" xr:uid="{00000000-0004-0000-0000-000031020000}"/>
-    <hyperlink ref="P565" r:id="rId516" xr:uid="{00000000-0004-0000-0000-000032020000}"/>
-    <hyperlink ref="P566" r:id="rId517" xr:uid="{00000000-0004-0000-0000-000033020000}"/>
-    <hyperlink ref="P567" r:id="rId518" xr:uid="{00000000-0004-0000-0000-000034020000}"/>
-    <hyperlink ref="P568" r:id="rId519" xr:uid="{00000000-0004-0000-0000-000035020000}"/>
-    <hyperlink ref="P569" r:id="rId520" xr:uid="{00000000-0004-0000-0000-000036020000}"/>
-    <hyperlink ref="P570" r:id="rId521" xr:uid="{00000000-0004-0000-0000-000037020000}"/>
-    <hyperlink ref="P571" r:id="rId522" xr:uid="{00000000-0004-0000-0000-000038020000}"/>
-    <hyperlink ref="P572" r:id="rId523" xr:uid="{00000000-0004-0000-0000-000039020000}"/>
-    <hyperlink ref="P573" r:id="rId524" xr:uid="{00000000-0004-0000-0000-00003A020000}"/>
-    <hyperlink ref="P574" r:id="rId525" xr:uid="{00000000-0004-0000-0000-00003B020000}"/>
-    <hyperlink ref="P575" r:id="rId526" xr:uid="{00000000-0004-0000-0000-00003C020000}"/>
-    <hyperlink ref="P576" r:id="rId527" xr:uid="{00000000-0004-0000-0000-00003D020000}"/>
-    <hyperlink ref="P577" r:id="rId528" xr:uid="{00000000-0004-0000-0000-00003E020000}"/>
-    <hyperlink ref="P541" r:id="rId529" xr:uid="{00000000-0004-0000-0000-00003F020000}"/>
-    <hyperlink ref="P578" r:id="rId530" xr:uid="{00000000-0004-0000-0000-000040020000}"/>
-    <hyperlink ref="P579" r:id="rId531" xr:uid="{00000000-0004-0000-0000-000041020000}"/>
-    <hyperlink ref="P580" r:id="rId532" xr:uid="{00000000-0004-0000-0000-000042020000}"/>
-    <hyperlink ref="P581" r:id="rId533" xr:uid="{00000000-0004-0000-0000-000043020000}"/>
-    <hyperlink ref="P582" r:id="rId534" xr:uid="{00000000-0004-0000-0000-000044020000}"/>
-    <hyperlink ref="P583" r:id="rId535" xr:uid="{00000000-0004-0000-0000-000045020000}"/>
-    <hyperlink ref="P584" r:id="rId536" xr:uid="{00000000-0004-0000-0000-000046020000}"/>
-    <hyperlink ref="P585" r:id="rId537" xr:uid="{00000000-0004-0000-0000-000047020000}"/>
-    <hyperlink ref="P586" r:id="rId538" xr:uid="{00000000-0004-0000-0000-000048020000}"/>
-    <hyperlink ref="P587" r:id="rId539" xr:uid="{00000000-0004-0000-0000-000049020000}"/>
-    <hyperlink ref="P588" r:id="rId540" xr:uid="{00000000-0004-0000-0000-00004A020000}"/>
-    <hyperlink ref="P589" r:id="rId541" xr:uid="{00000000-0004-0000-0000-00004B020000}"/>
-    <hyperlink ref="P590" r:id="rId542" xr:uid="{00000000-0004-0000-0000-00004C020000}"/>
-    <hyperlink ref="P591" r:id="rId543" xr:uid="{00000000-0004-0000-0000-00004D020000}"/>
-    <hyperlink ref="P592" r:id="rId544" xr:uid="{00000000-0004-0000-0000-00004E020000}"/>
-    <hyperlink ref="P593" r:id="rId545" xr:uid="{00000000-0004-0000-0000-00004F020000}"/>
-    <hyperlink ref="P594" r:id="rId546" xr:uid="{00000000-0004-0000-0000-000050020000}"/>
-    <hyperlink ref="P595" r:id="rId547" xr:uid="{00000000-0004-0000-0000-000051020000}"/>
-    <hyperlink ref="P596" r:id="rId548" xr:uid="{00000000-0004-0000-0000-000052020000}"/>
-    <hyperlink ref="P597" r:id="rId549" xr:uid="{00000000-0004-0000-0000-000053020000}"/>
-    <hyperlink ref="P598" r:id="rId550" xr:uid="{00000000-0004-0000-0000-000054020000}"/>
-    <hyperlink ref="P599" r:id="rId551" xr:uid="{00000000-0004-0000-0000-000055020000}"/>
-    <hyperlink ref="P600" r:id="rId552" xr:uid="{00000000-0004-0000-0000-000056020000}"/>
-    <hyperlink ref="P601" r:id="rId553" xr:uid="{00000000-0004-0000-0000-000057020000}"/>
-    <hyperlink ref="P602" r:id="rId554" xr:uid="{00000000-0004-0000-0000-000058020000}"/>
-    <hyperlink ref="P603" r:id="rId555" xr:uid="{00000000-0004-0000-0000-000059020000}"/>
-    <hyperlink ref="P604" r:id="rId556" xr:uid="{00000000-0004-0000-0000-00005A020000}"/>
-    <hyperlink ref="P605" r:id="rId557" xr:uid="{00000000-0004-0000-0000-00005B020000}"/>
-    <hyperlink ref="P606" r:id="rId558" xr:uid="{00000000-0004-0000-0000-00005C020000}"/>
-    <hyperlink ref="P607" r:id="rId559" xr:uid="{00000000-0004-0000-0000-00005D020000}"/>
-    <hyperlink ref="P148" r:id="rId560" xr:uid="{32E39374-F929-402C-9450-D1267E2F204C}"/>
-    <hyperlink ref="P398" r:id="rId561" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="P399" r:id="rId562" xr:uid="{2AB82485-73BC-4FA4-80C9-24FDE180DE05}"/>
-    <hyperlink ref="P421:P423" r:id="rId563" display="https://www.osfc.ac.uk/courses/digital-t-level/" xr:uid="{5F95BC6B-E320-42B3-9AAA-E18B5D75E9BE}"/>
-    <hyperlink ref="P561:P562" r:id="rId564" display="https://www.wakefield.ac.uk/study-with-us/school-leavers/t-levels" xr:uid="{DC28D138-C018-4C84-81C2-1ED512EA2C1F}"/>
-    <hyperlink ref="P129" r:id="rId565" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="P130:P136" r:id="rId566" display="https://www.ccn.ac.uk/courses/course-types/t-levels/" xr:uid="{E996C264-BEE1-44A8-BE17-3F871668B9AD}"/>
-    <hyperlink ref="P137" r:id="rId567" xr:uid="{3687C7E1-4E02-442D-9219-763E9A929102}"/>
-    <hyperlink ref="P71:P83" r:id="rId568" display="https://www.buckscollegegroup.ac.uk/t-levels/" xr:uid="{5BD0A98C-D9B7-4F3A-9151-5A560FC504D9}"/>
-    <hyperlink ref="P347:P355" r:id="rId569" display="https://www.mbro.ac.uk/school-leavers/t-levels/" xr:uid="{3CAEDD73-A6FC-4771-89BB-5E67F0A55CA0}"/>
-    <hyperlink ref="P424" r:id="rId570" xr:uid="{026D518F-DE89-4B2A-9CF5-B8532D3905CF}"/>
-    <hyperlink ref="P198" r:id="rId571" xr:uid="{2FD4F814-619F-45CF-8B85-5F6B45ABFC64}"/>
-    <hyperlink ref="P3:P7" r:id="rId572" display="https://www.abingdon-witney.ac.uk/t-levels" xr:uid="{6BBC004C-49EB-4F18-9B4C-54136490E2D0}"/>
-    <hyperlink ref="P530" r:id="rId573" xr:uid="{9411FD01-98CA-43A8-B5A0-A2BA4315C92C}"/>
+    <hyperlink ref="P383" r:id="rId344" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="P384" r:id="rId345" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="P385" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="P386" r:id="rId347" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="P387" r:id="rId348" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="P388" r:id="rId349" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="P389" r:id="rId350" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="P390" r:id="rId351" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="P391" r:id="rId352" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="P392" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="P393" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="P394" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="P395" r:id="rId356" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="P396" r:id="rId357" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="P399" r:id="rId358" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="P400" r:id="rId359" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="P401" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="P402" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="P403" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="P404" r:id="rId363" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="P405" r:id="rId364" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="P406" r:id="rId365" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="P407" r:id="rId366" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="P408" r:id="rId367" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="P409" r:id="rId368" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="P410" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="P411" r:id="rId370" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="P412" r:id="rId371" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="P413" r:id="rId372" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="P414" r:id="rId373" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="P415" r:id="rId374" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="P416" r:id="rId375" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="P417" r:id="rId376" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="P418" r:id="rId377" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="P419" r:id="rId378" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="P424" r:id="rId379" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="P425" r:id="rId380" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="P426" r:id="rId381" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="P427" r:id="rId382" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="P428" r:id="rId383" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="P429" r:id="rId384" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="P430" r:id="rId385" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="P431" r:id="rId386" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="P432" r:id="rId387" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="P433" r:id="rId388" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="P434" r:id="rId389" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="P435" r:id="rId390" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="P436" r:id="rId391" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="P437" r:id="rId392" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="P438" r:id="rId393" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="P439" r:id="rId394" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="P440" r:id="rId395" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="P441" r:id="rId396" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="P442" r:id="rId397" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="P443" r:id="rId398" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="P444" r:id="rId399" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="P445" r:id="rId400" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="P446" r:id="rId401" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="P447" r:id="rId402" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="P448" r:id="rId403" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
+    <hyperlink ref="P449" r:id="rId404" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
+    <hyperlink ref="P450" r:id="rId405" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
+    <hyperlink ref="P451" r:id="rId406" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
+    <hyperlink ref="P452" r:id="rId407" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
+    <hyperlink ref="P453" r:id="rId408" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
+    <hyperlink ref="P454" r:id="rId409" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
+    <hyperlink ref="P455" r:id="rId410" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
+    <hyperlink ref="P456" r:id="rId411" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
+    <hyperlink ref="P457" r:id="rId412" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
+    <hyperlink ref="P458" r:id="rId413" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
+    <hyperlink ref="P459" r:id="rId414" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
+    <hyperlink ref="P460" r:id="rId415" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
+    <hyperlink ref="P461" r:id="rId416" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
+    <hyperlink ref="P462" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
+    <hyperlink ref="P463" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
+    <hyperlink ref="P464" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
+    <hyperlink ref="P465" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
+    <hyperlink ref="P466" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
+    <hyperlink ref="P467" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
+    <hyperlink ref="P468" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
+    <hyperlink ref="P469" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
+    <hyperlink ref="P470" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
+    <hyperlink ref="P471" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
+    <hyperlink ref="P472" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
+    <hyperlink ref="P473" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
+    <hyperlink ref="P474" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
+    <hyperlink ref="P475" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
+    <hyperlink ref="P476" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
+    <hyperlink ref="P477" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
+    <hyperlink ref="P478" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
+    <hyperlink ref="P479" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
+    <hyperlink ref="P480" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
+    <hyperlink ref="P481" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
+    <hyperlink ref="P482" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
+    <hyperlink ref="P483" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
+    <hyperlink ref="P484" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
+    <hyperlink ref="P485" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
+    <hyperlink ref="P486" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
+    <hyperlink ref="P487" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
+    <hyperlink ref="P488" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
+    <hyperlink ref="P489" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
+    <hyperlink ref="P490" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
+    <hyperlink ref="P491" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
+    <hyperlink ref="P492" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
+    <hyperlink ref="P493" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
+    <hyperlink ref="P494" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
+    <hyperlink ref="P495" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
+    <hyperlink ref="P496" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
+    <hyperlink ref="P497" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
+    <hyperlink ref="P498" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
+    <hyperlink ref="P499" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
+    <hyperlink ref="P500" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
+    <hyperlink ref="P501" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
+    <hyperlink ref="P502" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
+    <hyperlink ref="P503" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
+    <hyperlink ref="P504" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
+    <hyperlink ref="P505" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
+    <hyperlink ref="P506" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
+    <hyperlink ref="P507" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
+    <hyperlink ref="P508" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
+    <hyperlink ref="P509" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
+    <hyperlink ref="P510" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
+    <hyperlink ref="P511" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
+    <hyperlink ref="P512" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
+    <hyperlink ref="P513" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
+    <hyperlink ref="P514" r:id="rId469" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
+    <hyperlink ref="P515" r:id="rId470" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
+    <hyperlink ref="P516" r:id="rId471" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
+    <hyperlink ref="P517" r:id="rId472" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
+    <hyperlink ref="P518" r:id="rId473" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
+    <hyperlink ref="P519" r:id="rId474" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
+    <hyperlink ref="P520" r:id="rId475" xr:uid="{00000000-0004-0000-0000-000006020000}"/>
+    <hyperlink ref="P521" r:id="rId476" xr:uid="{00000000-0004-0000-0000-000007020000}"/>
+    <hyperlink ref="P522" r:id="rId477" xr:uid="{00000000-0004-0000-0000-000008020000}"/>
+    <hyperlink ref="P523" r:id="rId478" xr:uid="{00000000-0004-0000-0000-000009020000}"/>
+    <hyperlink ref="P524" r:id="rId479" xr:uid="{00000000-0004-0000-0000-00000A020000}"/>
+    <hyperlink ref="P525" r:id="rId480" xr:uid="{00000000-0004-0000-0000-00000B020000}"/>
+    <hyperlink ref="P526" r:id="rId481" xr:uid="{00000000-0004-0000-0000-00000C020000}"/>
+    <hyperlink ref="P527" r:id="rId482" xr:uid="{00000000-0004-0000-0000-00000D020000}"/>
+    <hyperlink ref="P528" r:id="rId483" xr:uid="{00000000-0004-0000-0000-00000E020000}"/>
+    <hyperlink ref="P530" r:id="rId484" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
+    <hyperlink ref="P531" r:id="rId485" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
+    <hyperlink ref="P532" r:id="rId486" xr:uid="{00000000-0004-0000-0000-000013020000}"/>
+    <hyperlink ref="P533" r:id="rId487" xr:uid="{00000000-0004-0000-0000-000014020000}"/>
+    <hyperlink ref="P534" r:id="rId488" xr:uid="{00000000-0004-0000-0000-000015020000}"/>
+    <hyperlink ref="P535" r:id="rId489" xr:uid="{00000000-0004-0000-0000-000016020000}"/>
+    <hyperlink ref="P536" r:id="rId490" xr:uid="{00000000-0004-0000-0000-000017020000}"/>
+    <hyperlink ref="P537" r:id="rId491" xr:uid="{00000000-0004-0000-0000-000018020000}"/>
+    <hyperlink ref="P538" r:id="rId492" xr:uid="{00000000-0004-0000-0000-000019020000}"/>
+    <hyperlink ref="P539" r:id="rId493" xr:uid="{00000000-0004-0000-0000-00001A020000}"/>
+    <hyperlink ref="P541" r:id="rId494" xr:uid="{00000000-0004-0000-0000-00001B020000}"/>
+    <hyperlink ref="P542" r:id="rId495" xr:uid="{00000000-0004-0000-0000-00001C020000}"/>
+    <hyperlink ref="P543" r:id="rId496" xr:uid="{00000000-0004-0000-0000-00001D020000}"/>
+    <hyperlink ref="P544" r:id="rId497" xr:uid="{00000000-0004-0000-0000-00001E020000}"/>
+    <hyperlink ref="P545" r:id="rId498" xr:uid="{00000000-0004-0000-0000-00001F020000}"/>
+    <hyperlink ref="P546" r:id="rId499" xr:uid="{00000000-0004-0000-0000-000020020000}"/>
+    <hyperlink ref="P547" r:id="rId500" xr:uid="{00000000-0004-0000-0000-000021020000}"/>
+    <hyperlink ref="P548" r:id="rId501" xr:uid="{00000000-0004-0000-0000-000022020000}"/>
+    <hyperlink ref="P549" r:id="rId502" xr:uid="{00000000-0004-0000-0000-000023020000}"/>
+    <hyperlink ref="P550" r:id="rId503" xr:uid="{00000000-0004-0000-0000-000024020000}"/>
+    <hyperlink ref="P551" r:id="rId504" xr:uid="{00000000-0004-0000-0000-000025020000}"/>
+    <hyperlink ref="P552" r:id="rId505" xr:uid="{00000000-0004-0000-0000-000026020000}"/>
+    <hyperlink ref="P553" r:id="rId506" xr:uid="{00000000-0004-0000-0000-000027020000}"/>
+    <hyperlink ref="P554" r:id="rId507" xr:uid="{00000000-0004-0000-0000-000028020000}"/>
+    <hyperlink ref="P555" r:id="rId508" xr:uid="{00000000-0004-0000-0000-000029020000}"/>
+    <hyperlink ref="P556" r:id="rId509" xr:uid="{00000000-0004-0000-0000-00002A020000}"/>
+    <hyperlink ref="P557" r:id="rId510" xr:uid="{00000000-0004-0000-0000-00002B020000}"/>
+    <hyperlink ref="P558" r:id="rId511" xr:uid="{00000000-0004-0000-0000-00002C020000}"/>
+    <hyperlink ref="P559" r:id="rId512" xr:uid="{00000000-0004-0000-0000-00002D020000}"/>
+    <hyperlink ref="P562" r:id="rId513" xr:uid="{00000000-0004-0000-0000-000030020000}"/>
+    <hyperlink ref="P563" r:id="rId514" xr:uid="{00000000-0004-0000-0000-000031020000}"/>
+    <hyperlink ref="P564" r:id="rId515" xr:uid="{00000000-0004-0000-0000-000032020000}"/>
+    <hyperlink ref="P565" r:id="rId516" xr:uid="{00000000-0004-0000-0000-000033020000}"/>
+    <hyperlink ref="P566" r:id="rId517" xr:uid="{00000000-0004-0000-0000-000034020000}"/>
+    <hyperlink ref="P567" r:id="rId518" xr:uid="{00000000-0004-0000-0000-000035020000}"/>
+    <hyperlink ref="P568" r:id="rId519" xr:uid="{00000000-0004-0000-0000-000036020000}"/>
+    <hyperlink ref="P569" r:id="rId520" xr:uid="{00000000-0004-0000-0000-000037020000}"/>
+    <hyperlink ref="P570" r:id="rId521" xr:uid="{00000000-0004-0000-0000-000038020000}"/>
+    <hyperlink ref="P571" r:id="rId522" xr:uid="{00000000-0004-0000-0000-000039020000}"/>
+    <hyperlink ref="P572" r:id="rId523" xr:uid="{00000000-0004-0000-0000-00003A020000}"/>
+    <hyperlink ref="P573" r:id="rId524" xr:uid="{00000000-0004-0000-0000-00003B020000}"/>
+    <hyperlink ref="P574" r:id="rId525" xr:uid="{00000000-0004-0000-0000-00003C020000}"/>
+    <hyperlink ref="P575" r:id="rId526" xr:uid="{00000000-0004-0000-0000-00003D020000}"/>
+    <hyperlink ref="P576" r:id="rId527" xr:uid="{00000000-0004-0000-0000-00003E020000}"/>
+    <hyperlink ref="P540" r:id="rId528" xr:uid="{00000000-0004-0000-0000-00003F020000}"/>
+    <hyperlink ref="P577" r:id="rId529" xr:uid="{00000000-0004-0000-0000-000040020000}"/>
+    <hyperlink ref="P578" r:id="rId530" xr:uid="{00000000-0004-0000-0000-000041020000}"/>
+    <hyperlink ref="P579" r:id="rId531" xr:uid="{00000000-0004-0000-0000-000042020000}"/>
+    <hyperlink ref="P580" r:id="rId532" xr:uid="{00000000-0004-0000-0000-000043020000}"/>
+    <hyperlink ref="P581" r:id="rId533" xr:uid="{00000000-0004-0000-0000-000044020000}"/>
+    <hyperlink ref="P582" r:id="rId534" xr:uid="{00000000-0004-0000-0000-000045020000}"/>
+    <hyperlink ref="P583" r:id="rId535" xr:uid="{00000000-0004-0000-0000-000046020000}"/>
+    <hyperlink ref="P584" r:id="rId536" xr:uid="{00000000-0004-0000-0000-000047020000}"/>
+    <hyperlink ref="P585" r:id="rId537" xr:uid="{00000000-0004-0000-0000-000048020000}"/>
+    <hyperlink ref="P586" r:id="rId538" xr:uid="{00000000-0004-0000-0000-000049020000}"/>
+    <hyperlink ref="P587" r:id="rId539" xr:uid="{00000000-0004-0000-0000-00004A020000}"/>
+    <hyperlink ref="P588" r:id="rId540" xr:uid="{00000000-0004-0000-0000-00004B020000}"/>
+    <hyperlink ref="P589" r:id="rId541" xr:uid="{00000000-0004-0000-0000-00004C020000}"/>
+    <hyperlink ref="P590" r:id="rId542" xr:uid="{00000000-0004-0000-0000-00004D020000}"/>
+    <hyperlink ref="P591" r:id="rId543" xr:uid="{00000000-0004-0000-0000-00004E020000}"/>
+    <hyperlink ref="P592" r:id="rId544" xr:uid="{00000000-0004-0000-0000-00004F020000}"/>
+    <hyperlink ref="P593" r:id="rId545" xr:uid="{00000000-0004-0000-0000-000050020000}"/>
+    <hyperlink ref="P594" r:id="rId546" xr:uid="{00000000-0004-0000-0000-000051020000}"/>
+    <hyperlink ref="P595" r:id="rId547" xr:uid="{00000000-0004-0000-0000-000052020000}"/>
+    <hyperlink ref="P596" r:id="rId548" xr:uid="{00000000-0004-0000-0000-000053020000}"/>
+    <hyperlink ref="P597" r:id="rId549" xr:uid="{00000000-0004-0000-0000-000054020000}"/>
+    <hyperlink ref="P598" r:id="rId550" xr:uid="{00000000-0004-0000-0000-000055020000}"/>
+    <hyperlink ref="P599" r:id="rId551" xr:uid="{00000000-0004-0000-0000-000056020000}"/>
+    <hyperlink ref="P600" r:id="rId552" xr:uid="{00000000-0004-0000-0000-000057020000}"/>
+    <hyperlink ref="P601" r:id="rId553" xr:uid="{00000000-0004-0000-0000-000058020000}"/>
+    <hyperlink ref="P602" r:id="rId554" xr:uid="{00000000-0004-0000-0000-000059020000}"/>
+    <hyperlink ref="P603" r:id="rId555" xr:uid="{00000000-0004-0000-0000-00005A020000}"/>
+    <hyperlink ref="P604" r:id="rId556" xr:uid="{00000000-0004-0000-0000-00005B020000}"/>
+    <hyperlink ref="P605" r:id="rId557" xr:uid="{00000000-0004-0000-0000-00005C020000}"/>
+    <hyperlink ref="P606" r:id="rId558" xr:uid="{00000000-0004-0000-0000-00005D020000}"/>
+    <hyperlink ref="P148" r:id="rId559" xr:uid="{32E39374-F929-402C-9450-D1267E2F204C}"/>
+    <hyperlink ref="P397" r:id="rId560" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="P398" r:id="rId561" xr:uid="{2AB82485-73BC-4FA4-80C9-24FDE180DE05}"/>
+    <hyperlink ref="P420:P422" r:id="rId562" display="https://www.osfc.ac.uk/courses/digital-t-level/" xr:uid="{5F95BC6B-E320-42B3-9AAA-E18B5D75E9BE}"/>
+    <hyperlink ref="P560:P561" r:id="rId563" display="https://www.wakefield.ac.uk/study-with-us/school-leavers/t-levels" xr:uid="{DC28D138-C018-4C84-81C2-1ED512EA2C1F}"/>
+    <hyperlink ref="P129" r:id="rId564" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="P130:P136" r:id="rId565" display="https://www.ccn.ac.uk/courses/course-types/t-levels/" xr:uid="{E996C264-BEE1-44A8-BE17-3F871668B9AD}"/>
+    <hyperlink ref="P137" r:id="rId566" xr:uid="{3687C7E1-4E02-442D-9219-763E9A929102}"/>
+    <hyperlink ref="P71:P83" r:id="rId567" display="https://www.buckscollegegroup.ac.uk/t-levels/" xr:uid="{5BD0A98C-D9B7-4F3A-9151-5A560FC504D9}"/>
+    <hyperlink ref="P347:P355" r:id="rId568" display="https://www.mbro.ac.uk/school-leavers/t-levels/" xr:uid="{3CAEDD73-A6FC-4771-89BB-5E67F0A55CA0}"/>
+    <hyperlink ref="P423" r:id="rId569" xr:uid="{026D518F-DE89-4B2A-9CF5-B8532D3905CF}"/>
+    <hyperlink ref="P198" r:id="rId570" xr:uid="{2FD4F814-619F-45CF-8B85-5F6B45ABFC64}"/>
+    <hyperlink ref="P3:P7" r:id="rId571" display="https://www.abingdon-witney.ac.uk/t-levels" xr:uid="{6BBC004C-49EB-4F18-9B4C-54136490E2D0}"/>
+    <hyperlink ref="P529" r:id="rId572" xr:uid="{9411FD01-98CA-43A8-B5A0-A2BA4315C92C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId574"/>
+  <pageSetup orientation="portrait" r:id="rId573"/>
 </worksheet>
 </file>